--- a/H2_and_He.xlsx
+++ b/H2_and_He.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\GCMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F10AD56-2E23-4984-93A8-F9D059411B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0411AAA-946F-4566-AF34-07E78F8C9192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="1980" windowWidth="19950" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="400" windowWidth="15560" windowHeight="10660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
   <si>
     <t>233.15K</t>
   </si>
@@ -296,6 +296,18 @@
   </si>
   <si>
     <t xml:space="preserve">        X0      =1.0255</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>248.15K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>298.15K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>77K</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -634,35 +646,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:39">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AE1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -723,748 +744,902 @@
       <c r="X2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="1">
+      <c r="Z2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="F3" s="1">
         <v>1.0177</v>
       </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B11" si="0">C3/D3^3</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G11" si="0">H3/I3^3</f>
         <v>3.136675474944583E-4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="H3" s="1">
         <v>2018.4055000000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="I3" s="1">
         <v>186</v>
       </c>
-      <c r="F3">
+      <c r="K3">
+        <v>1.0195000000000001</v>
+      </c>
+      <c r="L3" s="1">
+        <f>M3/N3^3</f>
+        <v>2.9592389223418586E-4</v>
+      </c>
+      <c r="M3">
+        <v>1997.8617999999999</v>
+      </c>
+      <c r="N3">
+        <v>189</v>
+      </c>
+      <c r="P3">
         <v>1.0263</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G11" si="1">H3/I3^3</f>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q11" si="1">R3/S3^3</f>
         <v>2.9030801866161248E-4</v>
       </c>
-      <c r="H3">
+      <c r="R3">
         <v>1991.2227</v>
       </c>
-      <c r="I3">
+      <c r="S3">
         <v>190</v>
       </c>
-      <c r="K3">
+      <c r="U3">
         <v>1.0175000000000001</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L11" si="2">M3/N3^3</f>
+      <c r="V3" s="1">
+        <f t="shared" ref="V3:V11" si="2">W3/X3^3</f>
         <v>2.6875289199076183E-4</v>
       </c>
-      <c r="M3">
+      <c r="W3">
         <v>1992.7691</v>
       </c>
-      <c r="N3">
+      <c r="X3">
         <v>195</v>
       </c>
-      <c r="P3">
+      <c r="Z3">
         <v>1.0268999999999999</v>
       </c>
-      <c r="Q3" s="1">
-        <f>R3/S3^3</f>
+      <c r="AA3" s="1">
+        <f>AB3/AC3^3</f>
         <v>2.5117602499999999E-4</v>
       </c>
-      <c r="R3">
+      <c r="AB3">
         <v>2009.4082000000001</v>
       </c>
-      <c r="S3">
+      <c r="AC3">
         <v>200</v>
       </c>
-      <c r="U3">
+      <c r="AJ3">
         <v>1.0255000000000001</v>
       </c>
-      <c r="V3" s="1">
-        <f>W3/X3^3</f>
+      <c r="AK3" s="1">
+        <f>AL3/AM3^3</f>
         <v>2.3564612483446926E-4</v>
       </c>
-      <c r="W3">
+      <c r="AL3">
         <v>1994.6782000000001</v>
       </c>
-      <c r="X3">
+      <c r="AM3">
         <v>203.8</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="1">
+    <row r="4" spans="1:39">
+      <c r="F4" s="1">
         <v>4.9810999999999996</v>
       </c>
-      <c r="B4" s="1">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>1.498292486851991E-3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="H4" s="1">
         <v>1994.2273</v>
       </c>
-      <c r="D4" s="1">
+      <c r="I4" s="1">
         <v>110</v>
       </c>
-      <c r="F4">
+      <c r="K4">
+        <v>4.9454000000000002</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L11" si="3">M4/N4^3</f>
+        <v>1.3906076455907801E-3</v>
+      </c>
+      <c r="M4">
+        <v>2006.5036</v>
+      </c>
+      <c r="N4">
+        <v>113</v>
+      </c>
+      <c r="P4">
         <v>5.0174000000000003</v>
       </c>
-      <c r="G4" s="1">
+      <c r="Q4" s="1">
         <f t="shared" si="1"/>
         <v>1.3832965901238966E-3</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>1995.9545000000001</v>
       </c>
-      <c r="I4">
+      <c r="S4">
         <v>113</v>
       </c>
-      <c r="K4">
+      <c r="U4">
         <v>4.9654999999999996</v>
       </c>
-      <c r="L4" s="1">
+      <c r="V4" s="1">
         <f t="shared" si="2"/>
         <v>1.2801272435501517E-3</v>
       </c>
-      <c r="M4">
+      <c r="W4">
         <v>1982.6827000000001</v>
       </c>
-      <c r="N4">
+      <c r="X4">
         <v>115.7</v>
       </c>
-      <c r="P4">
+      <c r="Z4">
         <v>4.9600999999999997</v>
       </c>
-      <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q11" si="3">R4/S4^3</f>
+      <c r="AA4" s="1">
+        <f t="shared" ref="AA4:AA11" si="4">AB4/AC4^3</f>
         <v>1.1883691093837435E-3</v>
       </c>
-      <c r="R4">
+      <c r="AB4">
         <v>2002.5908999999999</v>
       </c>
-      <c r="S4">
+      <c r="AC4">
         <v>119</v>
       </c>
-      <c r="U4">
+      <c r="AJ4">
         <v>4.8895999999999997</v>
       </c>
-      <c r="V4" s="1">
-        <f t="shared" ref="V4:V11" si="4">W4/X4^3</f>
+      <c r="AK4" s="1">
+        <f t="shared" ref="AK4:AK11" si="5">AL4/AM4^3</f>
         <v>1.106269767398781E-3</v>
       </c>
-      <c r="W4">
+      <c r="AL4">
         <v>1998.9545000000001</v>
       </c>
-      <c r="X4">
+      <c r="AM4">
         <v>121.8</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="1">
+    <row r="5" spans="1:39">
+      <c r="F5" s="1">
         <v>9.5379000000000005</v>
       </c>
-      <c r="B5" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>2.7792268861454045E-3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="H5" s="1">
         <v>2026.0563999999999</v>
       </c>
-      <c r="D5" s="1">
+      <c r="I5" s="1">
         <v>90</v>
       </c>
-      <c r="F5">
+      <c r="K5">
+        <v>9.4514999999999993</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6081152913202039E-3</v>
+      </c>
+      <c r="M5">
+        <v>2017.6918000000001</v>
+      </c>
+      <c r="N5">
+        <v>91.8</v>
+      </c>
+      <c r="P5">
         <v>9.5813000000000006</v>
       </c>
-      <c r="G5" s="1">
+      <c r="Q5" s="1">
         <f t="shared" si="1"/>
         <v>2.585994262143503E-3</v>
       </c>
-      <c r="H5">
+      <c r="R5">
         <v>2013.6827000000001</v>
       </c>
-      <c r="I5">
+      <c r="S5">
         <v>92</v>
       </c>
-      <c r="K5">
+      <c r="U5">
         <v>9.7542000000000009</v>
       </c>
-      <c r="L5" s="1">
+      <c r="V5" s="1">
         <f t="shared" si="2"/>
         <v>2.4186235227261783E-3</v>
       </c>
-      <c r="M5">
+      <c r="W5">
         <v>2008.87</v>
       </c>
-      <c r="N5">
+      <c r="X5">
         <v>94</v>
       </c>
-      <c r="P5">
+      <c r="Z5">
         <v>9.5838999999999999</v>
       </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="3"/>
+      <c r="AA5" s="1">
+        <f t="shared" si="4"/>
         <v>2.24174959247089E-3</v>
       </c>
-      <c r="R5">
+      <c r="AB5">
         <v>2014.5082</v>
       </c>
-      <c r="S5">
+      <c r="AC5">
         <v>96.5</v>
       </c>
-      <c r="U5">
+      <c r="AJ5">
         <v>9.798</v>
       </c>
-      <c r="V5" s="1">
-        <f t="shared" si="4"/>
+      <c r="AK5" s="1">
+        <f t="shared" si="5"/>
         <v>2.1344897739778348E-3</v>
       </c>
-      <c r="W5">
+      <c r="AL5">
         <v>1996.69</v>
       </c>
-      <c r="X5">
+      <c r="AM5">
         <v>97.8</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6">
+    <row r="6" spans="1:39">
+      <c r="F6">
         <v>14.216100000000001</v>
       </c>
-      <c r="B6" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>3.9917685546874996E-3</v>
       </c>
-      <c r="C6">
+      <c r="H6">
         <v>2043.7855</v>
       </c>
-      <c r="D6" s="1">
+      <c r="I6" s="1">
         <v>80</v>
       </c>
-      <c r="F6">
+      <c r="K6">
+        <v>13.8584</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7497774917629612E-3</v>
+      </c>
+      <c r="M6">
+        <v>1992.7855</v>
+      </c>
+      <c r="N6">
+        <v>81</v>
+      </c>
+      <c r="P6">
         <v>14.373799999999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="Q6" s="1">
         <f t="shared" si="1"/>
         <v>3.738136688738731E-3</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>1986.5990999999999</v>
       </c>
-      <c r="I6">
+      <c r="S6">
         <v>81</v>
       </c>
-      <c r="K6">
+      <c r="U6">
         <v>14.0288</v>
       </c>
-      <c r="L6" s="1">
+      <c r="V6" s="1">
         <f t="shared" si="2"/>
         <v>3.4174751361417148E-3</v>
       </c>
-      <c r="M6">
+      <c r="W6">
         <v>1989.5954999999999</v>
       </c>
-      <c r="N6">
+      <c r="X6">
         <v>83.5</v>
       </c>
-      <c r="P6">
+      <c r="Z6">
         <v>14.048299999999999</v>
       </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="3"/>
+      <c r="AA6" s="1">
+        <f t="shared" si="4"/>
         <v>3.222639204625565E-3</v>
       </c>
-      <c r="R6">
+      <c r="AB6">
         <v>2014.2345</v>
       </c>
-      <c r="S6">
+      <c r="AC6">
         <v>85.5</v>
       </c>
-      <c r="U6">
+      <c r="AJ6">
         <v>14.0624</v>
       </c>
-      <c r="V6" s="1">
-        <f t="shared" si="4"/>
+      <c r="AK6" s="1">
+        <f t="shared" si="5"/>
         <v>3.0312287227255139E-3</v>
       </c>
-      <c r="W6">
+      <c r="AL6">
         <v>2009.8708999999999</v>
       </c>
-      <c r="X6">
+      <c r="AM6">
         <v>87.2</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7">
+    <row r="7" spans="1:39">
+      <c r="F7">
         <v>25.3126</v>
       </c>
-      <c r="B7" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>6.6520265112965608E-3</v>
       </c>
-      <c r="C7">
+      <c r="H7">
         <v>2091.61</v>
       </c>
-      <c r="D7" s="1">
+      <c r="I7" s="1">
         <v>68</v>
       </c>
-      <c r="F7">
+      <c r="K7">
+        <v>25.8262</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4048687592865236E-3</v>
+      </c>
+      <c r="M7">
+        <v>2022.7936</v>
+      </c>
+      <c r="N7">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="P7">
         <v>25.855599999999999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="Q7" s="1">
         <f t="shared" si="1"/>
         <v>6.3019515332924381E-3</v>
       </c>
-      <c r="H7">
+      <c r="R7">
         <v>2007.8773000000001</v>
       </c>
-      <c r="I7">
+      <c r="S7">
         <v>68.3</v>
       </c>
-      <c r="K7">
+      <c r="U7">
         <v>26.050799999999999</v>
       </c>
-      <c r="L7" s="1">
+      <c r="V7" s="1">
         <f t="shared" si="2"/>
         <v>5.901442397742547E-3</v>
       </c>
-      <c r="M7">
+      <c r="W7">
         <v>2050.3317999999999</v>
       </c>
-      <c r="N7">
+      <c r="X7">
         <v>70.3</v>
       </c>
-      <c r="P7">
+      <c r="Z7">
         <v>26.1372</v>
       </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="3"/>
+      <c r="AA7" s="1">
+        <f t="shared" si="4"/>
         <v>5.5883618589524005E-3</v>
       </c>
-      <c r="R7">
+      <c r="AB7">
         <v>2025.5972999999999</v>
       </c>
-      <c r="S7">
+      <c r="AC7">
         <v>71.3</v>
       </c>
-      <c r="U7">
+      <c r="AJ7">
         <v>26.626300000000001</v>
       </c>
-      <c r="V7" s="1">
-        <f t="shared" si="4"/>
+      <c r="AK7" s="1">
+        <f t="shared" si="5"/>
         <v>5.3597388331618652E-3</v>
       </c>
-      <c r="W7">
+      <c r="AL7">
         <v>2000.5118</v>
       </c>
-      <c r="X7">
+      <c r="AM7">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8">
+    <row r="8" spans="1:39">
+      <c r="F8">
         <v>62.979799999999997</v>
       </c>
-      <c r="B8" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>1.3190189503632576E-2</v>
       </c>
-      <c r="C8">
+      <c r="H8">
         <v>2076.98</v>
       </c>
-      <c r="D8" s="1">
+      <c r="I8" s="1">
         <v>54</v>
       </c>
-      <c r="F8">
+      <c r="K8">
+        <v>63.472000000000001</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>1.264287184812213E-2</v>
+      </c>
+      <c r="M8">
+        <v>2024.1618000000001</v>
+      </c>
+      <c r="N8">
+        <v>54.3</v>
+      </c>
+      <c r="P8">
         <v>62.996400000000001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="Q8" s="1">
         <f t="shared" si="1"/>
         <v>1.2522783041924158E-2</v>
       </c>
-      <c r="H8">
+      <c r="R8">
         <v>2027.1709000000001</v>
       </c>
-      <c r="I8">
+      <c r="S8">
         <v>54.5</v>
       </c>
-      <c r="K8">
+      <c r="U8">
         <v>51.951000000000001</v>
       </c>
-      <c r="L8" s="1">
+      <c r="V8" s="1">
         <f t="shared" si="2"/>
         <v>1.0219640514166222E-2</v>
       </c>
-      <c r="M8">
+      <c r="W8">
         <v>1993.9745</v>
       </c>
-      <c r="N8">
+      <c r="X8">
         <v>58</v>
       </c>
-      <c r="P8">
+      <c r="Z8">
         <v>52.004399999999997</v>
       </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="3"/>
+      <c r="AA8" s="1">
+        <f t="shared" si="4"/>
         <v>9.7096411999279385E-3</v>
       </c>
-      <c r="R8">
+      <c r="AB8">
         <v>1994.1564000000001</v>
       </c>
-      <c r="S8">
+      <c r="AC8">
         <v>59</v>
       </c>
-      <c r="U8">
+      <c r="AJ8">
         <v>53.247599999999998</v>
       </c>
-      <c r="V8" s="1">
-        <f t="shared" si="4"/>
+      <c r="AK8" s="1">
+        <f t="shared" si="5"/>
         <v>9.3495443456670865E-3</v>
       </c>
-      <c r="W8">
+      <c r="AL8">
         <v>1969.4336000000001</v>
       </c>
-      <c r="X8">
+      <c r="AM8">
         <v>59.5</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9">
+    <row r="9" spans="1:39">
+      <c r="F9">
         <v>85.995599999999996</v>
       </c>
-      <c r="B9" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>1.5923534400000001E-2</v>
       </c>
-      <c r="C9">
+      <c r="H9">
         <v>1990.4418000000001</v>
       </c>
-      <c r="D9" s="1">
+      <c r="I9" s="1">
         <v>50</v>
       </c>
-      <c r="F9">
+      <c r="K9">
         <v>87.375799999999998</v>
       </c>
-      <c r="G9" s="1">
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5126884535265134E-2</v>
+      </c>
+      <c r="M9">
+        <v>1983.0817999999999</v>
+      </c>
+      <c r="N9">
+        <v>50.8</v>
+      </c>
+      <c r="P9">
+        <v>87.375799999999998</v>
+      </c>
+      <c r="Q9" s="1">
         <f t="shared" si="1"/>
         <v>1.5126884535265134E-2</v>
       </c>
-      <c r="H9">
+      <c r="R9">
         <v>1983.0817999999999</v>
       </c>
-      <c r="I9">
+      <c r="S9">
         <v>50.8</v>
       </c>
-      <c r="K9">
+      <c r="U9">
         <v>67.136399999999995</v>
       </c>
-      <c r="L9" s="1">
+      <c r="V9" s="1">
         <f t="shared" si="2"/>
         <v>1.2156448384673177E-2</v>
       </c>
-      <c r="M9">
+      <c r="W9">
         <v>2022.5291</v>
       </c>
-      <c r="N9">
+      <c r="X9">
         <v>55</v>
       </c>
-      <c r="P9">
+      <c r="Z9">
         <v>68.642600000000002</v>
       </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="3"/>
+      <c r="AA9" s="1">
+        <f t="shared" si="4"/>
         <v>1.1785119231722593E-2</v>
       </c>
-      <c r="R9">
+      <c r="AB9">
         <v>2014.7118</v>
       </c>
-      <c r="S9">
+      <c r="AC9">
         <v>55.5</v>
       </c>
-      <c r="U9">
+      <c r="AJ9">
         <v>68.386099999999999</v>
       </c>
-      <c r="V9" s="1">
-        <f t="shared" si="4"/>
+      <c r="AK9" s="1">
+        <f t="shared" si="5"/>
         <v>1.116534127550963E-2</v>
       </c>
-      <c r="W9">
+      <c r="AL9">
         <v>1981.8964000000001</v>
       </c>
-      <c r="X9">
+      <c r="AM9">
         <v>56.2</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10">
+    <row r="10" spans="1:39">
+      <c r="F10">
         <v>97.220100000000002</v>
       </c>
-      <c r="B10" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>1.7083852816428529E-2</v>
       </c>
-      <c r="C10">
+      <c r="H10">
         <v>2009.8982000000001</v>
       </c>
-      <c r="D10" s="1">
+      <c r="I10" s="1">
         <v>49</v>
       </c>
-      <c r="F10">
+      <c r="K10">
+        <v>99.915700000000001</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6750374053322602E-2</v>
+      </c>
+      <c r="M10">
+        <v>2007.0826999999999</v>
+      </c>
+      <c r="N10">
+        <v>49.3</v>
+      </c>
+      <c r="P10">
         <v>99.1511</v>
       </c>
-      <c r="G10" s="1">
+      <c r="Q10" s="1">
         <f t="shared" si="1"/>
         <v>1.6506351671855591E-2</v>
       </c>
-      <c r="H10">
+      <c r="R10">
         <v>2014.17</v>
       </c>
-      <c r="I10">
+      <c r="S10">
         <v>49.6</v>
       </c>
-      <c r="K10">
+      <c r="U10">
         <v>88.894300000000001</v>
       </c>
-      <c r="L10" s="1">
+      <c r="V10" s="1">
         <f t="shared" si="2"/>
         <v>1.463286255395904E-2</v>
       </c>
-      <c r="M10">
+      <c r="W10">
         <v>1998.7155</v>
       </c>
-      <c r="N10">
+      <c r="X10">
         <v>51.5</v>
       </c>
-      <c r="P10">
+      <c r="Z10">
         <v>89.793800000000005</v>
       </c>
-      <c r="Q10" s="1">
-        <f t="shared" si="3"/>
+      <c r="AA10" s="1">
+        <f t="shared" si="4"/>
         <v>1.4045295388402898E-2</v>
       </c>
-      <c r="R10">
+      <c r="AB10">
         <v>2009.2591</v>
       </c>
-      <c r="S10">
+      <c r="AC10">
         <v>52.3</v>
       </c>
-      <c r="U10">
+      <c r="AJ10">
         <v>89.623400000000004</v>
       </c>
-      <c r="V10" s="1">
-        <f t="shared" si="4"/>
+      <c r="AK10" s="1">
+        <f t="shared" si="5"/>
         <v>1.341691142644502E-2</v>
       </c>
-      <c r="W10">
+      <c r="AL10">
         <v>2008.7973</v>
       </c>
-      <c r="X10">
+      <c r="AM10">
         <v>53.1</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
-      <c r="A11">
+    <row r="11" spans="1:39">
+      <c r="F11">
         <v>111.3887</v>
       </c>
-      <c r="B11" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>1.8303896303530093E-2</v>
       </c>
-      <c r="C11">
+      <c r="H11">
         <v>2024.2645</v>
       </c>
-      <c r="D11" s="1">
+      <c r="I11" s="1">
         <v>48</v>
       </c>
-      <c r="F11">
+      <c r="K11">
+        <v>109.7045</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7475926912063754E-2</v>
+      </c>
+      <c r="M11">
+        <v>2006.0835999999999</v>
+      </c>
+      <c r="N11">
+        <v>48.6</v>
+      </c>
+      <c r="P11">
         <v>111.2299</v>
       </c>
-      <c r="G11" s="1">
+      <c r="Q11" s="1">
         <f t="shared" si="1"/>
         <v>1.7582056946915885E-2</v>
       </c>
-      <c r="H11">
+      <c r="R11">
         <v>2018.2664</v>
       </c>
-      <c r="I11">
+      <c r="S11">
         <v>48.6</v>
       </c>
-      <c r="K11">
+      <c r="U11">
         <v>104.4515</v>
       </c>
-      <c r="L11" s="1">
+      <c r="V11" s="1">
         <f t="shared" si="2"/>
         <v>1.61707928E-2</v>
       </c>
-      <c r="M11">
+      <c r="W11">
         <v>2021.3490999999999</v>
       </c>
-      <c r="N11">
+      <c r="X11">
         <v>50</v>
       </c>
-      <c r="P11">
+      <c r="Z11">
         <v>101.4919</v>
       </c>
-      <c r="Q11" s="1">
-        <f t="shared" si="3"/>
+      <c r="AA11" s="1">
+        <f t="shared" si="4"/>
         <v>1.5251127394441051E-2</v>
       </c>
-      <c r="R11">
+      <c r="AB11">
         <v>2023.0772999999999</v>
       </c>
-      <c r="S11">
+      <c r="AC11">
         <v>51</v>
       </c>
-      <c r="U11">
+      <c r="AJ11">
         <v>105.02290000000001</v>
       </c>
-      <c r="V11" s="1">
-        <f t="shared" si="4"/>
+      <c r="AK11" s="1">
+        <f t="shared" si="5"/>
         <v>1.4906399860166354E-2</v>
       </c>
-      <c r="W11">
+      <c r="AL11">
         <v>2036.0781999999999</v>
       </c>
-      <c r="X11">
+      <c r="AM11">
         <v>51.5</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" t="s">
+    <row r="13" spans="1:39">
+      <c r="F13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="14" spans="1:39">
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="2" t="s">
+      <c r="Z14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Z15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="AJ15" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:39">
+      <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="U16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Z16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="AJ16" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="6:36">
+      <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Z17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="AJ17" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="6:36">
+      <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="AJ18" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="6:36">
+      <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Z19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="AJ19" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="20" spans="6:36">
       <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="P20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="U20" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="3" t="s">
+      <c r="Z20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="6:36">
+      <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="AJ21" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1476,35 +1651,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C48D848-6634-4F6B-BFDC-8628502FF890}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:39">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AE1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1565,681 +1749,926 @@
       <c r="X2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3">
+      <c r="Z2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="F3">
         <v>0.95409999999999995</v>
-      </c>
-      <c r="B3" s="1">
-        <f>C3/D3^3</f>
-        <v>2.7266972946498913E-4</v>
-      </c>
-      <c r="C3">
-        <v>1990.8664000000001</v>
-      </c>
-      <c r="D3">
-        <v>194</v>
-      </c>
-      <c r="F3">
-        <v>0.96960000000000002</v>
       </c>
       <c r="G3" s="1">
         <f>H3/I3^3</f>
-        <v>2.5751821088138813E-4</v>
+        <v>2.7266972946498913E-4</v>
       </c>
       <c r="H3">
-        <v>1998.9573</v>
+        <v>1990.8664000000001</v>
       </c>
       <c r="I3">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K3">
-        <v>0.96640000000000004</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="L3" s="1">
         <f>M3/N3^3</f>
-        <v>2.3950261722373696E-4</v>
+        <v>2.6330269301445461E-4</v>
       </c>
       <c r="M3">
-        <v>1988.7736</v>
+        <v>2013.0473</v>
       </c>
       <c r="N3">
-        <v>202.5</v>
+        <v>197</v>
       </c>
       <c r="P3">
-        <v>0.98160000000000003</v>
+        <v>0.96960000000000002</v>
       </c>
       <c r="Q3" s="1">
         <f>R3/S3^3</f>
-        <v>2.2834092817123692E-4</v>
+        <v>2.5751821088138813E-4</v>
       </c>
       <c r="R3">
-        <v>2010.6845000000001</v>
+        <v>1998.9573</v>
       </c>
       <c r="S3">
-        <v>206.5</v>
+        <v>198</v>
       </c>
       <c r="U3">
-        <v>0.96960000000000002</v>
+        <v>0.96640000000000004</v>
       </c>
       <c r="V3" s="1">
         <f>W3/X3^3</f>
+        <v>2.3950261722373696E-4</v>
+      </c>
+      <c r="W3">
+        <v>1988.7736</v>
+      </c>
+      <c r="X3">
+        <v>202.5</v>
+      </c>
+      <c r="Z3">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="AA3" s="1">
+        <f>AB3/AC3^3</f>
+        <v>2.2834092817123692E-4</v>
+      </c>
+      <c r="AB3">
+        <v>2010.6845000000001</v>
+      </c>
+      <c r="AC3">
+        <v>206.5</v>
+      </c>
+      <c r="AE3">
+        <v>0.9708</v>
+      </c>
+      <c r="AF3" s="1">
+        <f>AG3/AH3^3</f>
+        <v>2.2201229437514224E-4</v>
+      </c>
+      <c r="AG3">
+        <v>1997.8690999999999</v>
+      </c>
+      <c r="AH3">
+        <v>208</v>
+      </c>
+      <c r="AJ3">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="AK3" s="1">
+        <f>AL3/AM3^3</f>
         <v>2.1278194949638535E-4</v>
       </c>
-      <c r="W3">
+      <c r="AL3">
         <v>1984.6827000000001</v>
       </c>
-      <c r="X3">
+      <c r="AM3">
         <v>210.5</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4">
+    <row r="4" spans="1:39">
+      <c r="F4">
         <v>3.8292999999999999</v>
       </c>
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B10" si="0">C4/D4^3</f>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G10" si="0">H4/I4^3</f>
         <v>9.1598707328174791E-4</v>
       </c>
-      <c r="C4">
+      <c r="H4">
         <v>2012.4236000000001</v>
       </c>
-      <c r="D4">
+      <c r="I4">
         <v>130</v>
       </c>
-      <c r="F4">
+      <c r="K4">
+        <v>3.8597000000000001</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L10" si="1">M4/N4^3</f>
+        <v>8.753367003367003E-4</v>
+      </c>
+      <c r="M4">
+        <v>2013.2464</v>
+      </c>
+      <c r="N4">
+        <v>132</v>
+      </c>
+      <c r="P4">
         <v>3.8224999999999998</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G10" si="1">H4/I4^3</f>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q10" si="2">R4/S4^3</f>
         <v>8.5395974814644155E-4</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>2009.0572999999999</v>
       </c>
-      <c r="I4">
+      <c r="S4">
         <v>133</v>
       </c>
-      <c r="K4">
+      <c r="U4">
         <v>4.0373000000000001</v>
       </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L10" si="2">M4/N4^3</f>
+      <c r="V4" s="1">
+        <f t="shared" ref="V4:V10" si="3">W4/X4^3</f>
         <v>8.4755492760489766E-4</v>
       </c>
-      <c r="M4">
+      <c r="W4">
         <v>2007.5127</v>
       </c>
-      <c r="N4">
+      <c r="X4">
         <v>133.30000000000001</v>
       </c>
-      <c r="P4">
+      <c r="Z4">
         <v>4.1012000000000004</v>
       </c>
-      <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q10" si="3">R4/S4^3</f>
+      <c r="AA4" s="1">
+        <f t="shared" ref="AA4:AA10" si="4">AB4/AC4^3</f>
         <v>8.1911798819113283E-4</v>
       </c>
-      <c r="R4">
+      <c r="AB4">
         <v>1984.15</v>
       </c>
-      <c r="S4">
+      <c r="AC4">
         <v>134.30000000000001</v>
       </c>
-      <c r="U4">
+      <c r="AE4">
+        <v>4.1353</v>
+      </c>
+      <c r="AF4" s="1">
+        <f t="shared" ref="AF4:AF10" si="5">AG4/AH4^3</f>
+        <v>8.0872754196694081E-4</v>
+      </c>
+      <c r="AG4">
+        <v>2011.9636</v>
+      </c>
+      <c r="AH4">
+        <v>135.5</v>
+      </c>
+      <c r="AJ4">
         <v>4.0914999999999999</v>
       </c>
-      <c r="V4" s="1">
-        <f t="shared" ref="V4:V10" si="4">W4/X4^3</f>
+      <c r="AK4" s="1">
+        <f t="shared" ref="AK4:AK10" si="6">AL4/AM4^3</f>
         <v>7.749141358379981E-4</v>
       </c>
-      <c r="W4">
+      <c r="AL4">
         <v>2005.6964</v>
       </c>
-      <c r="X4">
+      <c r="AM4">
         <v>137.30000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5">
+    <row r="5" spans="1:39">
+      <c r="F5">
         <v>6.2556000000000003</v>
       </c>
-      <c r="B5" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>1.3235042327607463E-3</v>
       </c>
-      <c r="C5">
+      <c r="H5">
         <v>2012.8844999999999</v>
       </c>
-      <c r="D5">
+      <c r="I5">
         <v>115</v>
       </c>
-      <c r="F5">
+      <c r="K5">
+        <v>6.5434999999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.320754039615353E-3</v>
+      </c>
+      <c r="M5">
+        <v>2008.7018</v>
+      </c>
+      <c r="N5">
+        <v>115</v>
+      </c>
+      <c r="P5">
         <v>6.6199000000000003</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
+      <c r="Q5" s="1">
+        <f t="shared" si="2"/>
         <v>1.3083384422902049E-3</v>
       </c>
-      <c r="H5">
+      <c r="R5">
         <v>2015.8864000000001</v>
       </c>
-      <c r="I5">
+      <c r="S5">
         <v>115.5</v>
       </c>
-      <c r="K5">
+      <c r="U5">
         <v>6.9206000000000003</v>
       </c>
-      <c r="L5" s="1">
-        <f t="shared" si="2"/>
+      <c r="V5" s="1">
+        <f t="shared" si="3"/>
         <v>1.270622420764029E-3</v>
       </c>
-      <c r="M5">
+      <c r="W5">
         <v>2009.0663999999999</v>
       </c>
-      <c r="N5">
+      <c r="X5">
         <v>116.5</v>
       </c>
-      <c r="P5">
+      <c r="Z5">
         <v>7.2358000000000002</v>
       </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="3"/>
+      <c r="AA5" s="1">
+        <f t="shared" si="4"/>
         <v>1.2546616794886644E-3</v>
       </c>
-      <c r="R5">
+      <c r="AB5">
         <v>1994.0645</v>
       </c>
-      <c r="S5">
+      <c r="AC5">
         <v>116.7</v>
       </c>
-      <c r="U5">
+      <c r="AE5">
+        <v>7.0602999999999998</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" si="5"/>
+        <v>1.207693509032754E-3</v>
+      </c>
+      <c r="AG5">
+        <v>2009.61</v>
+      </c>
+      <c r="AH5">
+        <v>118.5</v>
+      </c>
+      <c r="AJ5">
         <v>7.1098999999999997</v>
       </c>
-      <c r="V5" s="1">
-        <f t="shared" si="4"/>
+      <c r="AK5" s="1">
+        <f t="shared" si="6"/>
         <v>1.1815308287985379E-3</v>
       </c>
-      <c r="W5">
+      <c r="AL5">
         <v>2021.3363999999999</v>
       </c>
-      <c r="X5">
+      <c r="AM5">
         <v>119.6</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6">
+    <row r="6" spans="1:39">
+      <c r="F6">
         <v>16.639199999999999</v>
       </c>
-      <c r="B6" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>2.4484918210384071E-3</v>
       </c>
-      <c r="C6">
+      <c r="H6">
         <v>2040.1755000000001</v>
       </c>
-      <c r="D6">
+      <c r="I6">
         <v>94.1</v>
       </c>
-      <c r="F6">
+      <c r="K6">
+        <v>17.206399999999999</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4173131028572504E-3</v>
+      </c>
+      <c r="M6">
+        <v>2020.6244999999999</v>
+      </c>
+      <c r="N6">
+        <v>94.2</v>
+      </c>
+      <c r="P6">
         <v>17.007000000000001</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" si="1"/>
+      <c r="Q6" s="1">
+        <f t="shared" si="2"/>
         <v>2.3644147492863934E-3</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>1995.35</v>
       </c>
-      <c r="I6">
+      <c r="S6">
         <v>94.5</v>
       </c>
-      <c r="K6">
+      <c r="U6">
         <v>17.784199999999998</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="2"/>
+      <c r="V6" s="1">
+        <f t="shared" si="3"/>
         <v>2.3446447589702013E-3</v>
       </c>
-      <c r="M6">
+      <c r="W6">
         <v>1991.2555</v>
       </c>
-      <c r="N6">
+      <c r="X6">
         <v>94.7</v>
       </c>
-      <c r="P6">
+      <c r="Z6">
         <v>18.9514</v>
       </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="3"/>
+      <c r="AA6" s="1">
+        <f t="shared" si="4"/>
         <v>2.3516089086872663E-3</v>
       </c>
-      <c r="R6">
+      <c r="AB6">
         <v>1997.17</v>
       </c>
-      <c r="S6">
+      <c r="AC6">
         <v>94.7</v>
       </c>
-      <c r="U6">
+      <c r="AE6">
+        <v>18.792100000000001</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3283393853710541E-3</v>
+      </c>
+      <c r="AG6">
+        <v>2008.8945000000001</v>
+      </c>
+      <c r="AH6">
+        <v>95.2</v>
+      </c>
+      <c r="AJ6">
         <v>19.0578</v>
       </c>
-      <c r="V6" s="1">
-        <f t="shared" si="4"/>
+      <c r="AK6" s="1">
+        <f t="shared" si="6"/>
         <v>2.2685520305702699E-3</v>
       </c>
-      <c r="W6">
+      <c r="AL6">
         <v>2032.2627</v>
       </c>
-      <c r="X6">
+      <c r="AM6">
         <v>96.4</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7">
+    <row r="7" spans="1:39">
+      <c r="F7">
         <v>28.022600000000001</v>
       </c>
-      <c r="B7" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>3.2096027947620611E-3</v>
       </c>
-      <c r="C7">
+      <c r="H7">
         <v>2006.0863999999999</v>
       </c>
-      <c r="D7">
+      <c r="I7">
         <v>85.5</v>
       </c>
-      <c r="F7">
+      <c r="K7">
+        <v>30.060099999999998</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2519769495926074E-3</v>
+      </c>
+      <c r="M7">
+        <v>2004.1773000000001</v>
+      </c>
+      <c r="N7">
+        <v>85.1</v>
+      </c>
+      <c r="P7">
         <v>30.25</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" si="1"/>
+      <c r="Q7" s="1">
+        <f t="shared" si="2"/>
         <v>3.1961332229670301E-3</v>
       </c>
-      <c r="H7">
+      <c r="R7">
         <v>2011.7191</v>
-      </c>
-      <c r="I7">
-        <v>85.7</v>
-      </c>
-      <c r="K7">
-        <v>31.477900000000002</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="2"/>
-        <v>3.1843350115771129E-3</v>
-      </c>
-      <c r="M7">
-        <v>2018.3581999999999</v>
-      </c>
-      <c r="N7">
-        <v>85.9</v>
-      </c>
-      <c r="P7">
-        <v>34.390999999999998</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="3"/>
-        <v>3.2071115352824537E-3</v>
-      </c>
-      <c r="R7">
-        <v>2018.6291000000001</v>
       </c>
       <c r="S7">
         <v>85.7</v>
       </c>
       <c r="U7">
+        <v>31.477900000000002</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1843350115771129E-3</v>
+      </c>
+      <c r="W7">
+        <v>2018.3581999999999</v>
+      </c>
+      <c r="X7">
+        <v>85.9</v>
+      </c>
+      <c r="Z7">
+        <v>34.390999999999998</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2071115352824537E-3</v>
+      </c>
+      <c r="AB7">
+        <v>2018.6291000000001</v>
+      </c>
+      <c r="AC7">
+        <v>85.7</v>
+      </c>
+      <c r="AE7">
+        <v>33.100999999999999</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1592992822364078E-3</v>
+      </c>
+      <c r="AG7">
+        <v>2023.5436</v>
+      </c>
+      <c r="AH7">
+        <v>86.2</v>
+      </c>
+      <c r="AJ7">
         <v>33.722099999999998</v>
       </c>
-      <c r="V7" s="1">
-        <f t="shared" si="4"/>
+      <c r="AK7" s="1">
+        <f t="shared" si="6"/>
         <v>3.1019138251977812E-3</v>
       </c>
-      <c r="W7">
+      <c r="AL7">
         <v>1972.9909</v>
       </c>
-      <c r="X7">
+      <c r="AM7">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8">
+    <row r="8" spans="1:39">
+      <c r="F8">
         <v>49.976700000000001</v>
       </c>
-      <c r="B8" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>4.0937144931739678E-3</v>
       </c>
-      <c r="C8">
+      <c r="H8">
         <v>2018.3608999999999</v>
       </c>
-      <c r="D8">
+      <c r="I8">
         <v>79</v>
       </c>
-      <c r="F8">
+      <c r="K8">
+        <v>51.439799999999998</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0625534694010007E-3</v>
+      </c>
+      <c r="M8">
+        <v>2002.9973</v>
+      </c>
+      <c r="N8">
+        <v>79</v>
+      </c>
+      <c r="P8">
         <v>49.839100000000002</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="1"/>
+      <c r="Q8" s="1">
+        <f t="shared" si="2"/>
         <v>4.0114521599405517E-3</v>
       </c>
-      <c r="H8">
+      <c r="R8">
         <v>2007.9973</v>
-      </c>
-      <c r="I8">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="K8">
-        <v>54.530500000000004</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="2"/>
-        <v>4.0217248166984285E-3</v>
-      </c>
-      <c r="M8">
-        <v>2005.5427</v>
-      </c>
-      <c r="N8">
-        <v>79.3</v>
-      </c>
-      <c r="P8">
-        <v>57.0199</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="3"/>
-        <v>4.0446889236928551E-3</v>
-      </c>
-      <c r="R8">
-        <v>2024.6344999999999</v>
       </c>
       <c r="S8">
         <v>79.400000000000006</v>
       </c>
       <c r="U8">
+        <v>54.530500000000004</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0217248166984285E-3</v>
+      </c>
+      <c r="W8">
+        <v>2005.5427</v>
+      </c>
+      <c r="X8">
+        <v>79.3</v>
+      </c>
+      <c r="Z8">
+        <v>57.0199</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0446889236928551E-3</v>
+      </c>
+      <c r="AB8">
+        <v>2024.6344999999999</v>
+      </c>
+      <c r="AC8">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AE8">
+        <v>58.343299999999999</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0339630693071345E-3</v>
+      </c>
+      <c r="AG8">
+        <v>2019.2655</v>
+      </c>
+      <c r="AH8">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AJ8">
         <v>57.500999999999998</v>
       </c>
-      <c r="V8" s="1">
-        <f t="shared" si="4"/>
+      <c r="AK8" s="1">
+        <f t="shared" si="6"/>
         <v>3.9729976823462288E-3</v>
       </c>
-      <c r="W8">
+      <c r="AL8">
         <v>2003.8145</v>
       </c>
-      <c r="X8">
+      <c r="AM8">
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9">
+    <row r="9" spans="1:39">
+      <c r="F9">
         <v>68.578400000000002</v>
       </c>
-      <c r="B9" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>4.6389337518890046E-3</v>
       </c>
-      <c r="C9">
+      <c r="H9">
         <v>1996.4527</v>
       </c>
-      <c r="D9">
+      <c r="I9">
         <v>75.5</v>
       </c>
-      <c r="F9">
+      <c r="K9">
+        <v>72.459000000000003</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6574134384176303E-3</v>
+      </c>
+      <c r="M9">
+        <v>1996.4518</v>
+      </c>
+      <c r="N9">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="P9">
         <v>73.569900000000004</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="1"/>
+      <c r="Q9" s="1">
+        <f t="shared" si="2"/>
         <v>4.6393534975728897E-3</v>
       </c>
-      <c r="H9">
+      <c r="R9">
         <v>2012.5427</v>
-      </c>
-      <c r="I9">
-        <v>75.7</v>
-      </c>
-      <c r="K9">
-        <v>79.846100000000007</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="2"/>
-        <v>4.6865120727951192E-3</v>
-      </c>
-      <c r="M9">
-        <v>2033</v>
-      </c>
-      <c r="N9">
-        <v>75.7</v>
-      </c>
-      <c r="P9">
-        <v>81.407799999999995</v>
-      </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="3"/>
-        <v>4.6318133537760842E-3</v>
-      </c>
-      <c r="R9">
-        <v>2009.2718</v>
       </c>
       <c r="S9">
         <v>75.7</v>
       </c>
       <c r="U9">
+        <v>79.846100000000007</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6865120727951192E-3</v>
+      </c>
+      <c r="W9">
+        <v>2033</v>
+      </c>
+      <c r="X9">
+        <v>75.7</v>
+      </c>
+      <c r="Z9">
+        <v>81.407799999999995</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="4"/>
+        <v>4.6318133537760842E-3</v>
+      </c>
+      <c r="AB9">
+        <v>2009.2718</v>
+      </c>
+      <c r="AC9">
+        <v>75.7</v>
+      </c>
+      <c r="AE9">
+        <v>80.206800000000001</v>
+      </c>
+      <c r="AF9" s="1">
+        <f t="shared" si="5"/>
+        <v>4.6175608706514066E-3</v>
+      </c>
+      <c r="AG9">
+        <v>2003.0890999999999</v>
+      </c>
+      <c r="AH9">
+        <v>75.7</v>
+      </c>
+      <c r="AJ9">
         <v>83.064899999999994</v>
       </c>
-      <c r="V9" s="1">
-        <f t="shared" si="4"/>
+      <c r="AK9" s="1">
+        <f t="shared" si="6"/>
         <v>4.6165522270702006E-3</v>
       </c>
-      <c r="W9">
+      <c r="AL9">
         <v>1994.7255</v>
       </c>
-      <c r="X9">
+      <c r="AM9">
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10">
+    <row r="10" spans="1:39">
+      <c r="F10">
         <v>98.968800000000002</v>
       </c>
-      <c r="B10" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>5.285854812208491E-3</v>
       </c>
-      <c r="C10">
+      <c r="H10">
         <v>2006</v>
       </c>
-      <c r="D10">
+      <c r="I10">
         <v>72.400000000000006</v>
       </c>
-      <c r="F10">
+      <c r="K10">
+        <v>105.13030000000001</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3028457475373875E-3</v>
+      </c>
+      <c r="M10">
+        <v>1995.8163999999999</v>
+      </c>
+      <c r="N10">
+        <v>72.2</v>
+      </c>
+      <c r="P10">
         <v>103.28919999999999</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
+      <c r="Q10" s="1">
+        <f t="shared" si="2"/>
         <v>5.2574926753758315E-3</v>
       </c>
-      <c r="H10">
+      <c r="R10">
         <v>2011.8172999999999</v>
       </c>
-      <c r="I10">
+      <c r="S10">
         <v>72.599999999999994</v>
       </c>
-      <c r="K10">
+      <c r="U10">
         <v>106.8145</v>
       </c>
-      <c r="L10" s="1">
-        <f t="shared" si="2"/>
+      <c r="V10" s="1">
+        <f t="shared" si="3"/>
         <v>5.2441103026329731E-3</v>
       </c>
-      <c r="M10">
+      <c r="W10">
         <v>2015</v>
       </c>
-      <c r="N10">
+      <c r="X10">
         <v>72.7</v>
       </c>
-      <c r="P10">
+      <c r="Z10">
         <v>114.21850000000001</v>
       </c>
-      <c r="Q10" s="1">
-        <f t="shared" si="3"/>
+      <c r="AA10" s="1">
+        <f t="shared" si="4"/>
         <v>5.272494602684902E-3</v>
       </c>
-      <c r="R10">
+      <c r="AB10">
         <v>2025.9064000000001</v>
       </c>
-      <c r="S10">
+      <c r="AC10">
         <v>72.7</v>
       </c>
-      <c r="U10">
+      <c r="AE10">
+        <v>114.80540000000001</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" si="5"/>
+        <v>5.2623280555453462E-3</v>
+      </c>
+      <c r="AG10">
+        <v>2022</v>
+      </c>
+      <c r="AH10">
+        <v>72.7</v>
+      </c>
+      <c r="AJ10">
         <v>119.239</v>
       </c>
-      <c r="V10" s="1">
-        <f t="shared" si="4"/>
+      <c r="AK10" s="1">
+        <f t="shared" si="6"/>
         <v>5.2788742161208038E-3</v>
       </c>
-      <c r="W10">
+      <c r="AL10">
         <v>2019.9991</v>
       </c>
-      <c r="X10">
+      <c r="AM10">
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" t="s">
+    <row r="13" spans="1:39">
+      <c r="F13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="14" spans="1:39">
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="2" t="s">
+      <c r="Z14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="F15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Z15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="AJ15" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:39">
+      <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="U16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Z16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="AJ16" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="6:36">
+      <c r="F17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Z17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="AJ17" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="6:36">
+      <c r="F18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="AJ18" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="6:36">
+      <c r="F19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Z19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="AJ19" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="20" spans="6:36">
       <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="P20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="U20" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="3" t="s">
+      <c r="Z20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="6:36">
+      <c r="F21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="AJ21" s="3" t="s">
         <v>41</v>
       </c>
     </row>

--- a/H2_and_He.xlsx
+++ b/H2_and_He.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0411AAA-946F-4566-AF34-07E78F8C9192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B510A5D-14D6-4096-8A0D-E0D48241C5D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="400" windowWidth="15560" windowHeight="10660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12350" yWindow="410" windowWidth="15560" windowHeight="10660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
     <sheet name="He" sheetId="2" r:id="rId2"/>
+    <sheet name="N2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
   <si>
     <t>233.15K</t>
   </si>
@@ -648,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -783,11 +784,24 @@
       </c>
     </row>
     <row r="3" spans="1:39">
+      <c r="A3">
+        <v>0.1036</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B13" si="0">C3/D3^3</f>
+        <v>9.7143279238595396E-5</v>
+      </c>
+      <c r="C3">
+        <v>1998.3172999999999</v>
+      </c>
+      <c r="D3">
+        <v>274</v>
+      </c>
       <c r="F3" s="1">
         <v>1.0177</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G11" si="0">H3/I3^3</f>
+        <f t="shared" ref="G3:G11" si="1">H3/I3^3</f>
         <v>3.136675474944583E-4</v>
       </c>
       <c r="H3" s="1">
@@ -813,7 +827,7 @@
         <v>1.0263</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q11" si="1">R3/S3^3</f>
+        <f t="shared" ref="Q3:Q11" si="2">R3/S3^3</f>
         <v>2.9030801866161248E-4</v>
       </c>
       <c r="R3">
@@ -826,7 +840,7 @@
         <v>1.0175000000000001</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V11" si="2">W3/X3^3</f>
+        <f t="shared" ref="V3:V11" si="3">W3/X3^3</f>
         <v>2.6875289199076183E-4</v>
       </c>
       <c r="W3">
@@ -848,6 +862,19 @@
       <c r="AC3">
         <v>200</v>
       </c>
+      <c r="AE3">
+        <v>1.0181</v>
+      </c>
+      <c r="AF3" s="1">
+        <f>AG3/AH3^3</f>
+        <v>2.4625897762985767E-4</v>
+      </c>
+      <c r="AG3">
+        <v>1999.7709</v>
+      </c>
+      <c r="AH3">
+        <v>201</v>
+      </c>
       <c r="AJ3">
         <v>1.0255000000000001</v>
       </c>
@@ -863,11 +890,24 @@
       </c>
     </row>
     <row r="4" spans="1:39">
+      <c r="A4">
+        <v>0.2069</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9549265867317535E-4</v>
+      </c>
+      <c r="C4">
+        <v>2003.1335999999999</v>
+      </c>
+      <c r="D4">
+        <v>217.2</v>
+      </c>
       <c r="F4" s="1">
         <v>4.9810999999999996</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.498292486851991E-3</v>
       </c>
       <c r="H4" s="1">
@@ -880,7 +920,7 @@
         <v>4.9454000000000002</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L11" si="3">M4/N4^3</f>
+        <f t="shared" ref="L4:L11" si="4">M4/N4^3</f>
         <v>1.3906076455907801E-3</v>
       </c>
       <c r="M4">
@@ -893,7 +933,7 @@
         <v>5.0174000000000003</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3832965901238966E-3</v>
       </c>
       <c r="R4">
@@ -906,7 +946,7 @@
         <v>4.9654999999999996</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2801272435501517E-3</v>
       </c>
       <c r="W4">
@@ -919,7 +959,7 @@
         <v>4.9600999999999997</v>
       </c>
       <c r="AA4" s="1">
-        <f t="shared" ref="AA4:AA11" si="4">AB4/AC4^3</f>
+        <f t="shared" ref="AA4:AA11" si="5">AB4/AC4^3</f>
         <v>1.1883691093837435E-3</v>
       </c>
       <c r="AB4">
@@ -928,11 +968,24 @@
       <c r="AC4">
         <v>119</v>
       </c>
+      <c r="AE4">
+        <v>5.0194000000000001</v>
+      </c>
+      <c r="AF4" s="1">
+        <f t="shared" ref="AF4:AF11" si="6">AG4/AH4^3</f>
+        <v>1.1726090669011442E-3</v>
+      </c>
+      <c r="AG4">
+        <v>2001.0454999999999</v>
+      </c>
+      <c r="AH4">
+        <v>119.5</v>
+      </c>
       <c r="AJ4">
         <v>4.8895999999999997</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" ref="AK4:AK11" si="5">AL4/AM4^3</f>
+        <f t="shared" ref="AK4:AK11" si="7">AL4/AM4^3</f>
         <v>1.106269767398781E-3</v>
       </c>
       <c r="AL4">
@@ -943,11 +996,24 @@
       </c>
     </row>
     <row r="5" spans="1:39">
+      <c r="A5">
+        <v>0.30580000000000002</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9079921271322351E-4</v>
+      </c>
+      <c r="C5">
+        <v>1994.5917999999999</v>
+      </c>
+      <c r="D5">
+        <v>190</v>
+      </c>
       <c r="F5" s="1">
         <v>9.5379000000000005</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7792268861454045E-3</v>
       </c>
       <c r="H5" s="1">
@@ -960,7 +1026,7 @@
         <v>9.4514999999999993</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6081152913202039E-3</v>
       </c>
       <c r="M5">
@@ -973,7 +1039,7 @@
         <v>9.5813000000000006</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.585994262143503E-3</v>
       </c>
       <c r="R5">
@@ -986,7 +1052,7 @@
         <v>9.7542000000000009</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4186235227261783E-3</v>
       </c>
       <c r="W5">
@@ -999,7 +1065,7 @@
         <v>9.5838999999999999</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.24174959247089E-3</v>
       </c>
       <c r="AB5">
@@ -1008,11 +1074,24 @@
       <c r="AC5">
         <v>96.5</v>
       </c>
+      <c r="AE5">
+        <v>9.7431999999999999</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" si="6"/>
+        <v>2.2341889254960169E-3</v>
+      </c>
+      <c r="AG5">
+        <v>1989.0473</v>
+      </c>
+      <c r="AH5">
+        <v>96.2</v>
+      </c>
       <c r="AJ5">
         <v>9.798</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1344897739778348E-3</v>
       </c>
       <c r="AL5">
@@ -1023,11 +1102,24 @@
       </c>
     </row>
     <row r="6" spans="1:39">
+      <c r="A6">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9345804089051364E-4</v>
+      </c>
+      <c r="C6">
+        <v>2002.3145</v>
+      </c>
+      <c r="D6">
+        <v>159.5</v>
+      </c>
       <c r="F6">
         <v>14.216100000000001</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9917685546874996E-3</v>
       </c>
       <c r="H6">
@@ -1040,7 +1132,7 @@
         <v>13.8584</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7497774917629612E-3</v>
       </c>
       <c r="M6">
@@ -1053,7 +1145,7 @@
         <v>14.373799999999999</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.738136688738731E-3</v>
       </c>
       <c r="R6">
@@ -1066,7 +1158,7 @@
         <v>14.0288</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4174751361417148E-3</v>
       </c>
       <c r="W6">
@@ -1079,7 +1171,7 @@
         <v>14.048299999999999</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.222639204625565E-3</v>
       </c>
       <c r="AB6">
@@ -1088,11 +1180,24 @@
       <c r="AC6">
         <v>85.5</v>
       </c>
+      <c r="AE6">
+        <v>14.126300000000001</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" si="6"/>
+        <v>3.1983604592172293E-3</v>
+      </c>
+      <c r="AG6">
+        <v>1992.0536</v>
+      </c>
+      <c r="AH6">
+        <v>85.4</v>
+      </c>
       <c r="AJ6">
         <v>14.0624</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0312287227255139E-3</v>
       </c>
       <c r="AL6">
@@ -1103,11 +1208,24 @@
       </c>
     </row>
     <row r="7" spans="1:39">
+      <c r="A7">
+        <v>0.72519999999999996</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0184665321825813E-4</v>
+      </c>
+      <c r="C7">
+        <v>2009.5890999999999</v>
+      </c>
+      <c r="D7">
+        <v>142</v>
+      </c>
       <c r="F7">
         <v>25.3126</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6520265112965608E-3</v>
       </c>
       <c r="H7">
@@ -1120,7 +1238,7 @@
         <v>25.8262</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4048687592865236E-3</v>
       </c>
       <c r="M7">
@@ -1133,7 +1251,7 @@
         <v>25.855599999999999</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3019515332924381E-3</v>
       </c>
       <c r="R7">
@@ -1146,7 +1264,7 @@
         <v>26.050799999999999</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.901442397742547E-3</v>
       </c>
       <c r="W7">
@@ -1159,7 +1277,7 @@
         <v>26.1372</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.5883618589524005E-3</v>
       </c>
       <c r="AB7">
@@ -1168,11 +1286,24 @@
       <c r="AC7">
         <v>71.3</v>
       </c>
+      <c r="AE7">
+        <v>26.503699999999998</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="6"/>
+        <v>5.5925652847855717E-3</v>
+      </c>
+      <c r="AG7">
+        <v>2018.6035999999999</v>
+      </c>
+      <c r="AH7">
+        <v>71.2</v>
+      </c>
       <c r="AJ7">
         <v>26.626300000000001</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.3597388331618652E-3</v>
       </c>
       <c r="AL7">
@@ -1183,11 +1314,24 @@
       </c>
     </row>
     <row r="8" spans="1:39">
+      <c r="A8">
+        <v>1.054</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0158792192000001E-3</v>
+      </c>
+      <c r="C8">
+        <v>1984.1391000000001</v>
+      </c>
+      <c r="D8">
+        <v>125</v>
+      </c>
       <c r="F8">
         <v>62.979799999999997</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3190189503632576E-2</v>
       </c>
       <c r="H8">
@@ -1200,7 +1344,7 @@
         <v>63.472000000000001</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.264287184812213E-2</v>
       </c>
       <c r="M8">
@@ -1213,7 +1357,7 @@
         <v>62.996400000000001</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2522783041924158E-2</v>
       </c>
       <c r="R8">
@@ -1226,7 +1370,7 @@
         <v>51.951000000000001</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0219640514166222E-2</v>
       </c>
       <c r="W8">
@@ -1239,7 +1383,7 @@
         <v>52.004399999999997</v>
       </c>
       <c r="AA8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.7096411999279385E-3</v>
       </c>
       <c r="AB8">
@@ -1248,11 +1392,24 @@
       <c r="AC8">
         <v>59</v>
       </c>
+      <c r="AE8">
+        <v>52.290700000000001</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="6"/>
+        <v>9.5825101334743208E-3</v>
+      </c>
+      <c r="AG8">
+        <v>2008.3463999999999</v>
+      </c>
+      <c r="AH8">
+        <v>59.4</v>
+      </c>
       <c r="AJ8">
         <v>53.247599999999998</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.3495443456670865E-3</v>
       </c>
       <c r="AL8">
@@ -1263,11 +1420,24 @@
       </c>
     </row>
     <row r="9" spans="1:39">
+      <c r="A9">
+        <v>2.1093000000000002</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0830337165722457E-3</v>
+      </c>
+      <c r="C9">
+        <v>2039.5954999999999</v>
+      </c>
+      <c r="D9">
+        <v>99.3</v>
+      </c>
       <c r="F9">
         <v>85.995599999999996</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5923534400000001E-2</v>
       </c>
       <c r="H9">
@@ -1280,7 +1450,7 @@
         <v>87.375799999999998</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5126884535265134E-2</v>
       </c>
       <c r="M9">
@@ -1293,7 +1463,7 @@
         <v>87.375799999999998</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5126884535265134E-2</v>
       </c>
       <c r="R9">
@@ -1306,7 +1476,7 @@
         <v>67.136399999999995</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2156448384673177E-2</v>
       </c>
       <c r="W9">
@@ -1319,7 +1489,7 @@
         <v>68.642600000000002</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1785119231722593E-2</v>
       </c>
       <c r="AB9">
@@ -1328,11 +1498,24 @@
       <c r="AC9">
         <v>55.5</v>
       </c>
+      <c r="AE9">
+        <v>70.361000000000004</v>
+      </c>
+      <c r="AF9" s="1">
+        <f t="shared" si="6"/>
+        <v>6.8323442085749374E-3</v>
+      </c>
+      <c r="AG9">
+        <v>2027.4364</v>
+      </c>
+      <c r="AH9">
+        <v>66.7</v>
+      </c>
       <c r="AJ9">
         <v>68.386099999999999</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.116534127550963E-2</v>
       </c>
       <c r="AL9">
@@ -1343,11 +1526,24 @@
       </c>
     </row>
     <row r="10" spans="1:39">
+      <c r="A10">
+        <v>3.3711000000000002</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4096351783877575E-3</v>
+      </c>
+      <c r="C10">
+        <v>1999.3290999999999</v>
+      </c>
+      <c r="D10">
+        <v>83.7</v>
+      </c>
       <c r="F10">
         <v>97.220100000000002</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7083852816428529E-2</v>
       </c>
       <c r="H10">
@@ -1360,7 +1556,7 @@
         <v>99.915700000000001</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6750374053322602E-2</v>
       </c>
       <c r="M10">
@@ -1373,7 +1569,7 @@
         <v>99.1511</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6506351671855591E-2</v>
       </c>
       <c r="R10">
@@ -1386,7 +1582,7 @@
         <v>88.894300000000001</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.463286255395904E-2</v>
       </c>
       <c r="W10">
@@ -1399,7 +1595,7 @@
         <v>89.793800000000005</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4045295388402898E-2</v>
       </c>
       <c r="AB10">
@@ -1408,11 +1604,24 @@
       <c r="AC10">
         <v>52.3</v>
       </c>
+      <c r="AE10">
+        <v>93.055899999999994</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4117183779527762E-2</v>
+      </c>
+      <c r="AG10">
+        <v>2007.9809</v>
+      </c>
+      <c r="AH10">
+        <v>52.2</v>
+      </c>
       <c r="AJ10">
         <v>89.623400000000004</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.341691142644502E-2</v>
       </c>
       <c r="AL10">
@@ -1423,11 +1632,24 @@
       </c>
     </row>
     <row r="11" spans="1:39">
+      <c r="A11">
+        <v>4.4962999999999997</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7016612173574968E-3</v>
+      </c>
+      <c r="C11">
+        <v>2015.4191000000001</v>
+      </c>
+      <c r="D11">
+        <v>75.400000000000006</v>
+      </c>
       <c r="F11">
         <v>111.3887</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8303896303530093E-2</v>
       </c>
       <c r="H11">
@@ -1440,7 +1662,7 @@
         <v>109.7045</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7475926912063754E-2</v>
       </c>
       <c r="M11">
@@ -1453,7 +1675,7 @@
         <v>111.2299</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7582056946915885E-2</v>
       </c>
       <c r="R11">
@@ -1466,7 +1688,7 @@
         <v>104.4515</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.61707928E-2</v>
       </c>
       <c r="W11">
@@ -1476,23 +1698,36 @@
         <v>50</v>
       </c>
       <c r="Z11">
-        <v>101.4919</v>
+        <v>103.81740000000001</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="4"/>
-        <v>1.5251127394441051E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.5407687908650757E-2</v>
       </c>
       <c r="AB11">
-        <v>2023.0772999999999</v>
+        <v>2007.9891</v>
       </c>
       <c r="AC11">
-        <v>51</v>
+        <v>50.7</v>
+      </c>
+      <c r="AE11">
+        <v>103.8372</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5421308249821833E-2</v>
+      </c>
+      <c r="AG11">
+        <v>1997.8955000000001</v>
+      </c>
+      <c r="AH11">
+        <v>50.6</v>
       </c>
       <c r="AJ11">
         <v>105.02290000000001</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4906399860166354E-2</v>
       </c>
       <c r="AL11">
@@ -1502,7 +1737,35 @@
         <v>51.5</v>
       </c>
     </row>
+    <row r="12" spans="1:39">
+      <c r="A12">
+        <v>5.2613000000000003</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4757817885214164E-3</v>
+      </c>
+      <c r="C12">
+        <v>1993.1536000000001</v>
+      </c>
+      <c r="D12">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
     <row r="13" spans="1:39">
+      <c r="A13">
+        <v>6.2336999999999998</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3660157950238957E-3</v>
+      </c>
+      <c r="C13">
+        <v>1984.0690999999999</v>
+      </c>
+      <c r="D13">
+        <v>67.8</v>
+      </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
@@ -1653,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C48D848-6634-4F6B-BFDC-8628502FF890}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1788,6 +2051,19 @@
       </c>
     </row>
     <row r="3" spans="1:39">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B14" si="0">C3/D3^3</f>
+        <v>9.2043840025125387E-5</v>
+      </c>
+      <c r="C3">
+        <v>1994.6791000000001</v>
+      </c>
+      <c r="D3">
+        <v>278.8</v>
+      </c>
       <c r="F3">
         <v>0.95409999999999995</v>
       </c>
@@ -1881,11 +2157,24 @@
       </c>
     </row>
     <row r="4" spans="1:39">
+      <c r="A4">
+        <v>0.19489999999999999</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7641693058984912E-4</v>
+      </c>
+      <c r="C4">
+        <v>2009.4991</v>
+      </c>
+      <c r="D4">
+        <v>225</v>
+      </c>
       <c r="F4">
         <v>3.8292999999999999</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G10" si="0">H4/I4^3</f>
+        <f t="shared" ref="G4:G10" si="1">H4/I4^3</f>
         <v>9.1598707328174791E-4</v>
       </c>
       <c r="H4">
@@ -1898,7 +2187,7 @@
         <v>3.8597000000000001</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L10" si="1">M4/N4^3</f>
+        <f t="shared" ref="L4:L10" si="2">M4/N4^3</f>
         <v>8.753367003367003E-4</v>
       </c>
       <c r="M4">
@@ -1911,7 +2200,7 @@
         <v>3.8224999999999998</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q10" si="2">R4/S4^3</f>
+        <f t="shared" ref="Q4:Q10" si="3">R4/S4^3</f>
         <v>8.5395974814644155E-4</v>
       </c>
       <c r="R4">
@@ -1924,7 +2213,7 @@
         <v>4.0373000000000001</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" ref="V4:V10" si="3">W4/X4^3</f>
+        <f t="shared" ref="V4:V10" si="4">W4/X4^3</f>
         <v>8.4755492760489766E-4</v>
       </c>
       <c r="W4">
@@ -1937,7 +2226,7 @@
         <v>4.1012000000000004</v>
       </c>
       <c r="AA4" s="1">
-        <f t="shared" ref="AA4:AA10" si="4">AB4/AC4^3</f>
+        <f t="shared" ref="AA4:AA10" si="5">AB4/AC4^3</f>
         <v>8.1911798819113283E-4</v>
       </c>
       <c r="AB4">
@@ -1950,7 +2239,7 @@
         <v>4.1353</v>
       </c>
       <c r="AF4" s="1">
-        <f t="shared" ref="AF4:AF10" si="5">AG4/AH4^3</f>
+        <f t="shared" ref="AF4:AF10" si="6">AG4/AH4^3</f>
         <v>8.0872754196694081E-4</v>
       </c>
       <c r="AG4">
@@ -1963,7 +2252,7 @@
         <v>4.0914999999999999</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" ref="AK4:AK10" si="6">AL4/AM4^3</f>
+        <f t="shared" ref="AK4:AK10" si="7">AL4/AM4^3</f>
         <v>7.749141358379981E-4</v>
       </c>
       <c r="AL4">
@@ -1974,11 +2263,24 @@
       </c>
     </row>
     <row r="5" spans="1:39">
+      <c r="A5">
+        <v>0.2918</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5259466951687301E-4</v>
+      </c>
+      <c r="C5">
+        <v>1990.5972999999999</v>
+      </c>
+      <c r="D5">
+        <v>199</v>
+      </c>
       <c r="F5">
         <v>6.2556000000000003</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3235042327607463E-3</v>
       </c>
       <c r="H5">
@@ -1991,7 +2293,7 @@
         <v>6.5434999999999999</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.320754039615353E-3</v>
       </c>
       <c r="M5">
@@ -2004,7 +2306,7 @@
         <v>6.6199000000000003</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3083384422902049E-3</v>
       </c>
       <c r="R5">
@@ -2017,7 +2319,7 @@
         <v>6.9206000000000003</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.270622420764029E-3</v>
       </c>
       <c r="W5">
@@ -2030,7 +2332,7 @@
         <v>7.2358000000000002</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2546616794886644E-3</v>
       </c>
       <c r="AB5">
@@ -2043,7 +2345,7 @@
         <v>7.0602999999999998</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.207693509032754E-3</v>
       </c>
       <c r="AG5">
@@ -2056,7 +2358,7 @@
         <v>7.1098999999999997</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1815308287985379E-3</v>
       </c>
       <c r="AL5">
@@ -2067,11 +2369,24 @@
       </c>
     </row>
     <row r="6" spans="1:39">
+      <c r="A6">
+        <v>0.5121</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3191262577134935E-4</v>
+      </c>
+      <c r="C6">
+        <v>1993.6026999999999</v>
+      </c>
+      <c r="D6">
+        <v>166.5</v>
+      </c>
       <c r="F6">
         <v>16.639199999999999</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4484918210384071E-3</v>
       </c>
       <c r="H6">
@@ -2084,7 +2399,7 @@
         <v>17.206399999999999</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4173131028572504E-3</v>
       </c>
       <c r="M6">
@@ -2097,7 +2412,7 @@
         <v>17.007000000000001</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3644147492863934E-3</v>
       </c>
       <c r="R6">
@@ -2110,7 +2425,7 @@
         <v>17.784199999999998</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3446447589702013E-3</v>
       </c>
       <c r="W6">
@@ -2123,7 +2438,7 @@
         <v>18.9514</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3516089086872663E-3</v>
       </c>
       <c r="AB6">
@@ -2136,7 +2451,7 @@
         <v>18.792100000000001</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3283393853710541E-3</v>
       </c>
       <c r="AG6">
@@ -2149,7 +2464,7 @@
         <v>19.0578</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2685520305702699E-3</v>
       </c>
       <c r="AL6">
@@ -2160,11 +2475,24 @@
       </c>
     </row>
     <row r="7" spans="1:39">
+      <c r="A7">
+        <v>0.72060000000000002</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7811583725705072E-4</v>
+      </c>
+      <c r="C7">
+        <v>1990.4245000000001</v>
+      </c>
+      <c r="D7">
+        <v>151</v>
+      </c>
       <c r="F7">
         <v>28.022600000000001</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2096027947620611E-3</v>
       </c>
       <c r="H7">
@@ -2177,7 +2505,7 @@
         <v>30.060099999999998</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2519769495926074E-3</v>
       </c>
       <c r="M7">
@@ -2190,7 +2518,7 @@
         <v>30.25</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1961332229670301E-3</v>
       </c>
       <c r="R7">
@@ -2203,7 +2531,7 @@
         <v>31.477900000000002</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1843350115771129E-3</v>
       </c>
       <c r="W7">
@@ -2216,7 +2544,7 @@
         <v>34.390999999999998</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2071115352824537E-3</v>
       </c>
       <c r="AB7">
@@ -2229,7 +2557,7 @@
         <v>33.100999999999999</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1592992822364078E-3</v>
       </c>
       <c r="AG7">
@@ -2242,7 +2570,7 @@
         <v>33.722099999999998</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1019138251977812E-3</v>
       </c>
       <c r="AL7">
@@ -2253,11 +2581,24 @@
       </c>
     </row>
     <row r="8" spans="1:39">
+      <c r="A8">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.778274107403806E-4</v>
+      </c>
+      <c r="C8">
+        <v>1998.7873</v>
+      </c>
+      <c r="D8">
+        <v>143.4</v>
+      </c>
       <c r="F8">
         <v>49.976700000000001</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0937144931739678E-3</v>
       </c>
       <c r="H8">
@@ -2270,7 +2611,7 @@
         <v>51.439799999999998</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0625534694010007E-3</v>
       </c>
       <c r="M8">
@@ -2283,7 +2624,7 @@
         <v>49.839100000000002</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0114521599405517E-3</v>
       </c>
       <c r="R8">
@@ -2296,7 +2637,7 @@
         <v>54.530500000000004</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0217248166984285E-3</v>
       </c>
       <c r="W8">
@@ -2309,7 +2650,7 @@
         <v>57.0199</v>
       </c>
       <c r="AA8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0446889236928551E-3</v>
       </c>
       <c r="AB8">
@@ -2322,7 +2663,7 @@
         <v>58.343299999999999</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0339630693071345E-3</v>
       </c>
       <c r="AG8">
@@ -2335,7 +2676,7 @@
         <v>57.500999999999998</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9729976823462288E-3</v>
       </c>
       <c r="AL8">
@@ -2346,11 +2687,24 @@
       </c>
     </row>
     <row r="9" spans="1:39">
+      <c r="A9">
+        <v>1.5598000000000001</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0548282723809204E-3</v>
+      </c>
+      <c r="C9">
+        <v>2011.1609000000001</v>
+      </c>
+      <c r="D9">
+        <v>124</v>
+      </c>
       <c r="F9">
         <v>68.578400000000002</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6389337518890046E-3</v>
       </c>
       <c r="H9">
@@ -2363,7 +2717,7 @@
         <v>72.459000000000003</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6574134384176303E-3</v>
       </c>
       <c r="M9">
@@ -2376,7 +2730,7 @@
         <v>73.569900000000004</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6393534975728897E-3</v>
       </c>
       <c r="R9">
@@ -2389,7 +2743,7 @@
         <v>79.846100000000007</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6865120727951192E-3</v>
       </c>
       <c r="W9">
@@ -2402,7 +2756,7 @@
         <v>81.407799999999995</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6318133537760842E-3</v>
       </c>
       <c r="AB9">
@@ -2415,7 +2769,7 @@
         <v>80.206800000000001</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.6175608706514066E-3</v>
       </c>
       <c r="AG9">
@@ -2428,7 +2782,7 @@
         <v>83.064899999999994</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.6165522270702006E-3</v>
       </c>
       <c r="AL9">
@@ -2439,11 +2793,24 @@
       </c>
     </row>
     <row r="10" spans="1:39">
+      <c r="A10">
+        <v>2.0432000000000001</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2902351128442143E-3</v>
+      </c>
+      <c r="C10">
+        <v>1993.1609000000001</v>
+      </c>
+      <c r="D10">
+        <v>115.6</v>
+      </c>
       <c r="F10">
         <v>98.968800000000002</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.285854812208491E-3</v>
       </c>
       <c r="H10">
@@ -2456,7 +2823,7 @@
         <v>105.13030000000001</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3028457475373875E-3</v>
       </c>
       <c r="M10">
@@ -2469,7 +2836,7 @@
         <v>103.28919999999999</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2574926753758315E-3</v>
       </c>
       <c r="R10">
@@ -2482,7 +2849,7 @@
         <v>106.8145</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2441103026329731E-3</v>
       </c>
       <c r="W10">
@@ -2495,7 +2862,7 @@
         <v>114.21850000000001</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.272494602684902E-3</v>
       </c>
       <c r="AB10">
@@ -2508,7 +2875,7 @@
         <v>114.80540000000001</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.2623280555453462E-3</v>
       </c>
       <c r="AG10">
@@ -2521,7 +2888,7 @@
         <v>119.239</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.2788742161208038E-3</v>
       </c>
       <c r="AL10">
@@ -2531,12 +2898,68 @@
         <v>72.599999999999994</v>
       </c>
     </row>
+    <row r="11" spans="1:39">
+      <c r="A11">
+        <v>2.8759999999999999</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6136782266343217E-3</v>
+      </c>
+      <c r="C11">
+        <v>1999.0781999999999</v>
+      </c>
+      <c r="D11">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12">
+        <v>4.2931999999999997</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0392040798650262E-3</v>
+      </c>
+      <c r="C12">
+        <v>2002.7182</v>
+      </c>
+      <c r="D12">
+        <v>99.4</v>
+      </c>
+    </row>
     <row r="13" spans="1:39">
+      <c r="A13">
+        <v>5.0247999999999999</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1873671073867639E-3</v>
+      </c>
+      <c r="C13">
+        <v>1996.3508999999999</v>
+      </c>
+      <c r="D13">
+        <v>97</v>
+      </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:39">
+      <c r="A14">
+        <v>5.7519999999999998</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3682689086776763E-3</v>
+      </c>
+      <c r="C14">
+        <v>1992.2645</v>
+      </c>
+      <c r="D14">
+        <v>94.4</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
@@ -2677,4 +3100,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F77F63-7358-4861-9669-CB838F1D87BA}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>C3/D3^3</f>
+        <v>4.9565266866974249E-5</v>
+      </c>
+      <c r="C3">
+        <v>2000.1373000000001</v>
+      </c>
+      <c r="D3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>0.1055</v>
+      </c>
+      <c r="B4" s="1">
+        <f>C4/D4^3</f>
+        <v>1.0223054009315834E-4</v>
+      </c>
+      <c r="C4">
+        <v>2001.0454999999999</v>
+      </c>
+      <c r="D4">
+        <v>269.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="B5" s="1">
+        <f>C5/D5^3</f>
+        <v>2.2281594549831702E-4</v>
+      </c>
+      <c r="C5">
+        <v>1999.3226999999999</v>
+      </c>
+      <c r="D5">
+        <v>207.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>0.2747</v>
+      </c>
+      <c r="B6" s="1">
+        <f>C6/D6^3</f>
+        <v>2.9697474770538549E-4</v>
+      </c>
+      <c r="C6">
+        <v>1998.5981999999999</v>
+      </c>
+      <c r="D6">
+        <v>188.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="B7" s="1">
+        <f>C7/D7^3</f>
+        <v>3.208172529368725E-4</v>
+      </c>
+      <c r="C7">
+        <v>2005.0563999999999</v>
+      </c>
+      <c r="D7">
+        <v>184.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/H2_and_He.xlsx
+++ b/H2_and_He.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B510A5D-14D6-4096-8A0D-E0D48241C5D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8A14B7-0A7D-42D3-82C0-293311A459AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12350" yWindow="410" windowWidth="15560" windowHeight="10660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="740" windowWidth="15560" windowHeight="10660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="78">
   <si>
     <t>233.15K</t>
   </si>
@@ -309,6 +309,22 @@
   </si>
   <si>
     <t>77K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>243.15K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>263.15K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>283.15K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>303.15K</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -647,44 +663,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM21"/>
+  <dimension ref="A1:BL21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:64">
       <c r="A1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="U1" t="s">
         <v>71</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AE1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AO1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT1" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AY1" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="BD1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:64">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -757,7 +791,6 @@
       <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
         <v>1</v>
       </c>
@@ -782,1002 +815,1119 @@
       <c r="AM2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:39">
+      <c r="AO2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64">
       <c r="A3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B3" s="1" t="e">
+        <f>C3/D3^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3">
         <v>0.1036</v>
       </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B13" si="0">C3/D3^3</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G13" si="0">H3/I3^3</f>
         <v>9.7143279238595396E-5</v>
       </c>
-      <c r="C3">
+      <c r="H3">
         <v>1998.3172999999999</v>
       </c>
-      <c r="D3">
+      <c r="I3">
         <v>274</v>
       </c>
-      <c r="F3" s="1">
+      <c r="K3" s="1">
         <v>1.0177</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G11" si="1">H3/I3^3</f>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L11" si="1">M3/N3^3</f>
         <v>3.136675474944583E-4</v>
       </c>
-      <c r="H3" s="1">
+      <c r="M3" s="1">
         <v>2018.4055000000001</v>
       </c>
-      <c r="I3" s="1">
+      <c r="N3" s="1">
         <v>186</v>
       </c>
-      <c r="K3">
+      <c r="U3">
         <v>1.0195000000000001</v>
       </c>
-      <c r="L3" s="1">
-        <f>M3/N3^3</f>
+      <c r="V3" s="1">
+        <f>W3/X3^3</f>
         <v>2.9592389223418586E-4</v>
       </c>
-      <c r="M3">
+      <c r="W3">
         <v>1997.8617999999999</v>
       </c>
-      <c r="N3">
+      <c r="X3">
         <v>189</v>
       </c>
-      <c r="P3">
+      <c r="Z3">
         <v>1.0263</v>
       </c>
-      <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q11" si="2">R3/S3^3</f>
+      <c r="AA3" s="1">
+        <f t="shared" ref="AA3:AA11" si="2">AB3/AC3^3</f>
         <v>2.9030801866161248E-4</v>
       </c>
-      <c r="R3">
+      <c r="AB3">
         <v>1991.2227</v>
       </c>
-      <c r="S3">
+      <c r="AC3">
         <v>190</v>
       </c>
-      <c r="U3">
+      <c r="AJ3">
         <v>1.0175000000000001</v>
       </c>
-      <c r="V3" s="1">
-        <f t="shared" ref="V3:V11" si="3">W3/X3^3</f>
+      <c r="AK3" s="1">
+        <f t="shared" ref="AK3:AK11" si="3">AL3/AM3^3</f>
         <v>2.6875289199076183E-4</v>
       </c>
-      <c r="W3">
+      <c r="AL3">
         <v>1992.7691</v>
       </c>
-      <c r="X3">
+      <c r="AM3">
         <v>195</v>
       </c>
-      <c r="Z3">
+      <c r="AT3">
         <v>1.0268999999999999</v>
       </c>
-      <c r="AA3" s="1">
-        <f>AB3/AC3^3</f>
+      <c r="AU3" s="1">
+        <f>AV3/AW3^3</f>
         <v>2.5117602499999999E-4</v>
       </c>
-      <c r="AB3">
+      <c r="AV3">
         <v>2009.4082000000001</v>
       </c>
-      <c r="AC3">
+      <c r="AW3">
         <v>200</v>
       </c>
-      <c r="AE3">
+      <c r="AY3">
         <v>1.0181</v>
       </c>
-      <c r="AF3" s="1">
-        <f>AG3/AH3^3</f>
+      <c r="AZ3" s="1">
+        <f>BA3/BB3^3</f>
         <v>2.4625897762985767E-4</v>
       </c>
-      <c r="AG3">
+      <c r="BA3">
         <v>1999.7709</v>
       </c>
-      <c r="AH3">
+      <c r="BB3">
         <v>201</v>
       </c>
-      <c r="AJ3">
+      <c r="BI3">
         <v>1.0255000000000001</v>
       </c>
-      <c r="AK3" s="1">
-        <f>AL3/AM3^3</f>
+      <c r="BJ3" s="1">
+        <f>BK3/BL3^3</f>
         <v>2.3564612483446926E-4</v>
       </c>
-      <c r="AL3">
+      <c r="BK3">
         <v>1994.6782000000001</v>
       </c>
-      <c r="AM3">
+      <c r="BL3">
         <v>203.8</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:64">
       <c r="A4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B4" s="1" t="e">
+        <f>C4/D4^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4">
         <v>0.2069</v>
       </c>
-      <c r="B4" s="1">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>1.9549265867317535E-4</v>
       </c>
-      <c r="C4">
+      <c r="H4">
         <v>2003.1335999999999</v>
       </c>
-      <c r="D4">
+      <c r="I4">
         <v>217.2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="K4" s="1">
         <v>4.9810999999999996</v>
       </c>
-      <c r="G4" s="1">
+      <c r="L4" s="1">
         <f t="shared" si="1"/>
         <v>1.498292486851991E-3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="M4" s="1">
         <v>1994.2273</v>
       </c>
-      <c r="I4" s="1">
+      <c r="N4" s="1">
         <v>110</v>
       </c>
-      <c r="K4">
+      <c r="U4">
         <v>4.9454000000000002</v>
       </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L11" si="4">M4/N4^3</f>
+      <c r="V4" s="1">
+        <f t="shared" ref="V4:V11" si="4">W4/X4^3</f>
         <v>1.3906076455907801E-3</v>
       </c>
-      <c r="M4">
+      <c r="W4">
         <v>2006.5036</v>
       </c>
-      <c r="N4">
+      <c r="X4">
         <v>113</v>
       </c>
-      <c r="P4">
+      <c r="Z4">
         <v>5.0174000000000003</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="AA4" s="1">
         <f t="shared" si="2"/>
         <v>1.3832965901238966E-3</v>
       </c>
-      <c r="R4">
+      <c r="AB4">
         <v>1995.9545000000001</v>
       </c>
-      <c r="S4">
+      <c r="AC4">
         <v>113</v>
       </c>
-      <c r="U4">
+      <c r="AJ4">
         <v>4.9654999999999996</v>
       </c>
-      <c r="V4" s="1">
+      <c r="AK4" s="1">
         <f t="shared" si="3"/>
         <v>1.2801272435501517E-3</v>
       </c>
-      <c r="W4">
+      <c r="AL4">
         <v>1982.6827000000001</v>
       </c>
-      <c r="X4">
+      <c r="AM4">
         <v>115.7</v>
       </c>
-      <c r="Z4">
+      <c r="AT4">
         <v>4.9600999999999997</v>
       </c>
-      <c r="AA4" s="1">
-        <f t="shared" ref="AA4:AA11" si="5">AB4/AC4^3</f>
+      <c r="AU4" s="1">
+        <f t="shared" ref="AU4:AU11" si="5">AV4/AW4^3</f>
         <v>1.1883691093837435E-3</v>
       </c>
-      <c r="AB4">
+      <c r="AV4">
         <v>2002.5908999999999</v>
       </c>
-      <c r="AC4">
+      <c r="AW4">
         <v>119</v>
       </c>
-      <c r="AE4">
+      <c r="AY4">
         <v>5.0194000000000001</v>
       </c>
-      <c r="AF4" s="1">
-        <f t="shared" ref="AF4:AF11" si="6">AG4/AH4^3</f>
+      <c r="AZ4" s="1">
+        <f t="shared" ref="AZ4:AZ11" si="6">BA4/BB4^3</f>
         <v>1.1726090669011442E-3</v>
       </c>
-      <c r="AG4">
+      <c r="BA4">
         <v>2001.0454999999999</v>
       </c>
-      <c r="AH4">
+      <c r="BB4">
         <v>119.5</v>
       </c>
-      <c r="AJ4">
+      <c r="BI4">
         <v>4.8895999999999997</v>
       </c>
-      <c r="AK4" s="1">
-        <f t="shared" ref="AK4:AK11" si="7">AL4/AM4^3</f>
+      <c r="BJ4" s="1">
+        <f t="shared" ref="BJ4:BJ11" si="7">BK4/BL4^3</f>
         <v>1.106269767398781E-3</v>
       </c>
-      <c r="AL4">
+      <c r="BK4">
         <v>1998.9545000000001</v>
       </c>
-      <c r="AM4">
+      <c r="BL4">
         <v>121.8</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:64">
       <c r="A5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B5" s="1" t="e">
+        <f>C5/D5^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5">
         <v>0.30580000000000002</v>
       </c>
-      <c r="B5" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>2.9079921271322351E-4</v>
       </c>
-      <c r="C5">
+      <c r="H5">
         <v>1994.5917999999999</v>
       </c>
-      <c r="D5">
+      <c r="I5">
         <v>190</v>
       </c>
-      <c r="F5" s="1">
+      <c r="K5" s="1">
         <v>9.5379000000000005</v>
       </c>
-      <c r="G5" s="1">
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
         <v>2.7792268861454045E-3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="M5" s="1">
         <v>2026.0563999999999</v>
       </c>
-      <c r="I5" s="1">
+      <c r="N5" s="1">
         <v>90</v>
       </c>
-      <c r="K5">
+      <c r="U5">
         <v>9.4514999999999993</v>
       </c>
-      <c r="L5" s="1">
+      <c r="V5" s="1">
         <f t="shared" si="4"/>
         <v>2.6081152913202039E-3</v>
       </c>
-      <c r="M5">
+      <c r="W5">
         <v>2017.6918000000001</v>
       </c>
-      <c r="N5">
+      <c r="X5">
         <v>91.8</v>
       </c>
-      <c r="P5">
+      <c r="Z5">
         <v>9.5813000000000006</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="AA5" s="1">
         <f t="shared" si="2"/>
         <v>2.585994262143503E-3</v>
       </c>
-      <c r="R5">
+      <c r="AB5">
         <v>2013.6827000000001</v>
       </c>
-      <c r="S5">
+      <c r="AC5">
         <v>92</v>
       </c>
-      <c r="U5">
+      <c r="AJ5">
         <v>9.7542000000000009</v>
       </c>
-      <c r="V5" s="1">
+      <c r="AK5" s="1">
         <f t="shared" si="3"/>
         <v>2.4186235227261783E-3</v>
       </c>
-      <c r="W5">
+      <c r="AL5">
         <v>2008.87</v>
       </c>
-      <c r="X5">
+      <c r="AM5">
         <v>94</v>
       </c>
-      <c r="Z5">
+      <c r="AT5">
         <v>9.5838999999999999</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AU5" s="1">
         <f t="shared" si="5"/>
         <v>2.24174959247089E-3</v>
       </c>
-      <c r="AB5">
+      <c r="AV5">
         <v>2014.5082</v>
       </c>
-      <c r="AC5">
+      <c r="AW5">
         <v>96.5</v>
       </c>
-      <c r="AE5">
+      <c r="AY5">
         <v>9.7431999999999999</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AZ5" s="1">
         <f t="shared" si="6"/>
         <v>2.2341889254960169E-3</v>
       </c>
-      <c r="AG5">
+      <c r="BA5">
         <v>1989.0473</v>
       </c>
-      <c r="AH5">
+      <c r="BB5">
         <v>96.2</v>
       </c>
-      <c r="AJ5">
+      <c r="BI5">
         <v>9.798</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="BJ5" s="1">
         <f t="shared" si="7"/>
         <v>2.1344897739778348E-3</v>
       </c>
-      <c r="AL5">
+      <c r="BK5">
         <v>1996.69</v>
       </c>
-      <c r="AM5">
+      <c r="BL5">
         <v>97.8</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:64">
       <c r="A6">
+        <v>0.01</v>
+      </c>
+      <c r="B6" s="1" t="e">
+        <f>C6/D6^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6">
         <v>0.51980000000000004</v>
       </c>
-      <c r="B6" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>4.9345804089051364E-4</v>
       </c>
-      <c r="C6">
+      <c r="H6">
         <v>2002.3145</v>
       </c>
-      <c r="D6">
+      <c r="I6">
         <v>159.5</v>
       </c>
-      <c r="F6">
+      <c r="K6">
         <v>14.216100000000001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="L6" s="1">
         <f t="shared" si="1"/>
         <v>3.9917685546874996E-3</v>
       </c>
-      <c r="H6">
+      <c r="M6">
         <v>2043.7855</v>
       </c>
-      <c r="I6" s="1">
+      <c r="N6" s="1">
         <v>80</v>
       </c>
-      <c r="K6">
+      <c r="U6">
         <v>13.8584</v>
       </c>
-      <c r="L6" s="1">
+      <c r="V6" s="1">
         <f t="shared" si="4"/>
         <v>3.7497774917629612E-3</v>
       </c>
-      <c r="M6">
+      <c r="W6">
         <v>1992.7855</v>
       </c>
-      <c r="N6">
+      <c r="X6">
         <v>81</v>
       </c>
-      <c r="P6">
+      <c r="Z6">
         <v>14.373799999999999</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="AA6" s="1">
         <f t="shared" si="2"/>
         <v>3.738136688738731E-3</v>
       </c>
-      <c r="R6">
+      <c r="AB6">
         <v>1986.5990999999999</v>
       </c>
-      <c r="S6">
+      <c r="AC6">
         <v>81</v>
       </c>
-      <c r="U6">
+      <c r="AJ6">
         <v>14.0288</v>
       </c>
-      <c r="V6" s="1">
+      <c r="AK6" s="1">
         <f t="shared" si="3"/>
         <v>3.4174751361417148E-3</v>
       </c>
-      <c r="W6">
+      <c r="AL6">
         <v>1989.5954999999999</v>
       </c>
-      <c r="X6">
+      <c r="AM6">
         <v>83.5</v>
       </c>
-      <c r="Z6">
+      <c r="AT6">
         <v>14.048299999999999</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AU6" s="1">
         <f t="shared" si="5"/>
         <v>3.222639204625565E-3</v>
       </c>
-      <c r="AB6">
+      <c r="AV6">
         <v>2014.2345</v>
       </c>
-      <c r="AC6">
+      <c r="AW6">
         <v>85.5</v>
       </c>
-      <c r="AE6">
+      <c r="AY6">
         <v>14.126300000000001</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AZ6" s="1">
         <f t="shared" si="6"/>
         <v>3.1983604592172293E-3</v>
       </c>
-      <c r="AG6">
+      <c r="BA6">
         <v>1992.0536</v>
       </c>
-      <c r="AH6">
+      <c r="BB6">
         <v>85.4</v>
       </c>
-      <c r="AJ6">
+      <c r="BI6">
         <v>14.0624</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="BJ6" s="1">
         <f t="shared" si="7"/>
         <v>3.0312287227255139E-3</v>
       </c>
-      <c r="AL6">
+      <c r="BK6">
         <v>2009.8708999999999</v>
       </c>
-      <c r="AM6">
+      <c r="BL6">
         <v>87.2</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:64">
       <c r="A7">
+        <v>0.03</v>
+      </c>
+      <c r="B7" s="1" t="e">
+        <f>C7/D7^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7">
         <v>0.72519999999999996</v>
       </c>
-      <c r="B7" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>7.0184665321825813E-4</v>
       </c>
-      <c r="C7">
+      <c r="H7">
         <v>2009.5890999999999</v>
       </c>
-      <c r="D7">
+      <c r="I7">
         <v>142</v>
       </c>
-      <c r="F7">
+      <c r="K7">
         <v>25.3126</v>
       </c>
-      <c r="G7" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="1"/>
         <v>6.6520265112965608E-3</v>
       </c>
-      <c r="H7">
+      <c r="M7">
         <v>2091.61</v>
       </c>
-      <c r="I7" s="1">
+      <c r="N7" s="1">
         <v>68</v>
       </c>
-      <c r="K7">
+      <c r="U7">
         <v>25.8262</v>
       </c>
-      <c r="L7" s="1">
+      <c r="V7" s="1">
         <f t="shared" si="4"/>
         <v>6.4048687592865236E-3</v>
       </c>
-      <c r="M7">
+      <c r="W7">
         <v>2022.7936</v>
       </c>
-      <c r="N7">
+      <c r="X7">
         <v>68.099999999999994</v>
       </c>
-      <c r="P7">
+      <c r="Z7">
         <v>25.855599999999999</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="AA7" s="1">
         <f t="shared" si="2"/>
         <v>6.3019515332924381E-3</v>
       </c>
-      <c r="R7">
+      <c r="AB7">
         <v>2007.8773000000001</v>
       </c>
-      <c r="S7">
+      <c r="AC7">
         <v>68.3</v>
       </c>
-      <c r="U7">
+      <c r="AJ7">
         <v>26.050799999999999</v>
       </c>
-      <c r="V7" s="1">
+      <c r="AK7" s="1">
         <f t="shared" si="3"/>
         <v>5.901442397742547E-3</v>
       </c>
-      <c r="W7">
+      <c r="AL7">
         <v>2050.3317999999999</v>
       </c>
-      <c r="X7">
+      <c r="AM7">
         <v>70.3</v>
       </c>
-      <c r="Z7">
+      <c r="AT7">
         <v>26.1372</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AU7" s="1">
         <f t="shared" si="5"/>
         <v>5.5883618589524005E-3</v>
       </c>
-      <c r="AB7">
+      <c r="AV7">
         <v>2025.5972999999999</v>
       </c>
-      <c r="AC7">
+      <c r="AW7">
         <v>71.3</v>
       </c>
-      <c r="AE7">
+      <c r="AY7">
         <v>26.503699999999998</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AZ7" s="1">
         <f t="shared" si="6"/>
         <v>5.5925652847855717E-3</v>
       </c>
-      <c r="AG7">
+      <c r="BA7">
         <v>2018.6035999999999</v>
       </c>
-      <c r="AH7">
+      <c r="BB7">
         <v>71.2</v>
       </c>
-      <c r="AJ7">
+      <c r="BI7">
         <v>26.626300000000001</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="BJ7" s="1">
         <f t="shared" si="7"/>
         <v>5.3597388331618652E-3</v>
       </c>
-      <c r="AL7">
+      <c r="BK7">
         <v>2000.5118</v>
       </c>
-      <c r="AM7">
+      <c r="BL7">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:64">
       <c r="A8">
+        <v>0.05</v>
+      </c>
+      <c r="B8" s="1" t="e">
+        <f>C8/D8^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8">
         <v>1.054</v>
       </c>
-      <c r="B8" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>1.0158792192000001E-3</v>
       </c>
-      <c r="C8">
+      <c r="H8">
         <v>1984.1391000000001</v>
       </c>
-      <c r="D8">
+      <c r="I8">
         <v>125</v>
       </c>
-      <c r="F8">
+      <c r="K8">
         <v>62.979799999999997</v>
       </c>
-      <c r="G8" s="1">
+      <c r="L8" s="1">
         <f t="shared" si="1"/>
         <v>1.3190189503632576E-2</v>
       </c>
-      <c r="H8">
+      <c r="M8">
         <v>2076.98</v>
       </c>
-      <c r="I8" s="1">
+      <c r="N8" s="1">
         <v>54</v>
       </c>
-      <c r="K8">
+      <c r="U8">
         <v>63.472000000000001</v>
       </c>
-      <c r="L8" s="1">
+      <c r="V8" s="1">
         <f t="shared" si="4"/>
         <v>1.264287184812213E-2</v>
       </c>
-      <c r="M8">
+      <c r="W8">
         <v>2024.1618000000001</v>
       </c>
-      <c r="N8">
+      <c r="X8">
         <v>54.3</v>
       </c>
-      <c r="P8">
+      <c r="Z8">
         <v>62.996400000000001</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="AA8" s="1">
         <f t="shared" si="2"/>
         <v>1.2522783041924158E-2</v>
       </c>
-      <c r="R8">
+      <c r="AB8">
         <v>2027.1709000000001</v>
       </c>
-      <c r="S8">
+      <c r="AC8">
         <v>54.5</v>
       </c>
-      <c r="U8">
+      <c r="AJ8">
         <v>51.951000000000001</v>
       </c>
-      <c r="V8" s="1">
+      <c r="AK8" s="1">
         <f t="shared" si="3"/>
         <v>1.0219640514166222E-2</v>
       </c>
-      <c r="W8">
+      <c r="AL8">
         <v>1993.9745</v>
       </c>
-      <c r="X8">
+      <c r="AM8">
         <v>58</v>
       </c>
-      <c r="Z8">
+      <c r="AT8">
         <v>52.004399999999997</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AU8" s="1">
         <f t="shared" si="5"/>
         <v>9.7096411999279385E-3</v>
       </c>
-      <c r="AB8">
+      <c r="AV8">
         <v>1994.1564000000001</v>
       </c>
-      <c r="AC8">
+      <c r="AW8">
         <v>59</v>
       </c>
-      <c r="AE8">
+      <c r="AY8">
         <v>52.290700000000001</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AZ8" s="1">
         <f t="shared" si="6"/>
         <v>9.5825101334743208E-3</v>
       </c>
-      <c r="AG8">
+      <c r="BA8">
         <v>2008.3463999999999</v>
       </c>
-      <c r="AH8">
+      <c r="BB8">
         <v>59.4</v>
       </c>
-      <c r="AJ8">
+      <c r="BI8">
         <v>53.247599999999998</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="BJ8" s="1">
         <f t="shared" si="7"/>
         <v>9.3495443456670865E-3</v>
       </c>
-      <c r="AL8">
+      <c r="BK8">
         <v>1969.4336000000001</v>
       </c>
-      <c r="AM8">
+      <c r="BL8">
         <v>59.5</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:64">
       <c r="A9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B9" s="1" t="e">
+        <f>C9/D9^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9">
         <v>2.1093000000000002</v>
       </c>
-      <c r="B9" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>2.0830337165722457E-3</v>
       </c>
-      <c r="C9">
+      <c r="H9">
         <v>2039.5954999999999</v>
       </c>
-      <c r="D9">
+      <c r="I9">
         <v>99.3</v>
       </c>
-      <c r="F9">
+      <c r="K9">
         <v>85.995599999999996</v>
       </c>
-      <c r="G9" s="1">
+      <c r="L9" s="1">
         <f t="shared" si="1"/>
         <v>1.5923534400000001E-2</v>
       </c>
-      <c r="H9">
+      <c r="M9">
         <v>1990.4418000000001</v>
       </c>
-      <c r="I9" s="1">
+      <c r="N9" s="1">
         <v>50</v>
       </c>
-      <c r="K9">
+      <c r="U9">
         <v>87.375799999999998</v>
       </c>
-      <c r="L9" s="1">
+      <c r="V9" s="1">
         <f t="shared" si="4"/>
         <v>1.5126884535265134E-2</v>
       </c>
-      <c r="M9">
+      <c r="W9">
         <v>1983.0817999999999</v>
       </c>
-      <c r="N9">
+      <c r="X9">
         <v>50.8</v>
       </c>
-      <c r="P9">
+      <c r="Z9">
         <v>87.375799999999998</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="AA9" s="1">
         <f t="shared" si="2"/>
         <v>1.5126884535265134E-2</v>
       </c>
-      <c r="R9">
+      <c r="AB9">
         <v>1983.0817999999999</v>
       </c>
-      <c r="S9">
+      <c r="AC9">
         <v>50.8</v>
       </c>
-      <c r="U9">
+      <c r="AJ9">
         <v>67.136399999999995</v>
       </c>
-      <c r="V9" s="1">
+      <c r="AK9" s="1">
         <f t="shared" si="3"/>
         <v>1.2156448384673177E-2</v>
       </c>
-      <c r="W9">
+      <c r="AL9">
         <v>2022.5291</v>
       </c>
-      <c r="X9">
+      <c r="AM9">
         <v>55</v>
       </c>
-      <c r="Z9">
+      <c r="AT9">
         <v>68.642600000000002</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AU9" s="1">
         <f t="shared" si="5"/>
         <v>1.1785119231722593E-2</v>
       </c>
-      <c r="AB9">
+      <c r="AV9">
         <v>2014.7118</v>
       </c>
-      <c r="AC9">
+      <c r="AW9">
         <v>55.5</v>
       </c>
-      <c r="AE9">
+      <c r="AY9">
         <v>70.361000000000004</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AZ9" s="1">
         <f t="shared" si="6"/>
         <v>6.8323442085749374E-3</v>
       </c>
-      <c r="AG9">
+      <c r="BA9">
         <v>2027.4364</v>
       </c>
-      <c r="AH9">
+      <c r="BB9">
         <v>66.7</v>
       </c>
-      <c r="AJ9">
+      <c r="BI9">
         <v>68.386099999999999</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="BJ9" s="1">
         <f t="shared" si="7"/>
         <v>1.116534127550963E-2</v>
       </c>
-      <c r="AL9">
+      <c r="BK9">
         <v>1981.8964000000001</v>
       </c>
-      <c r="AM9">
+      <c r="BL9">
         <v>56.2</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:64">
       <c r="A10">
+        <v>0.1036</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ref="B10" si="8">C10/D10^3</f>
+        <v>9.7143279238595396E-5</v>
+      </c>
+      <c r="C10">
+        <v>1998.3172999999999</v>
+      </c>
+      <c r="D10">
+        <v>274</v>
+      </c>
+      <c r="F10">
         <v>3.3711000000000002</v>
       </c>
-      <c r="B10" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>3.4096351783877575E-3</v>
       </c>
-      <c r="C10">
+      <c r="H10">
         <v>1999.3290999999999</v>
       </c>
-      <c r="D10">
+      <c r="I10">
         <v>83.7</v>
       </c>
-      <c r="F10">
+      <c r="K10">
         <v>97.220100000000002</v>
       </c>
-      <c r="G10" s="1">
+      <c r="L10" s="1">
         <f t="shared" si="1"/>
         <v>1.7083852816428529E-2</v>
       </c>
-      <c r="H10">
+      <c r="M10">
         <v>2009.8982000000001</v>
       </c>
-      <c r="I10" s="1">
+      <c r="N10" s="1">
         <v>49</v>
       </c>
-      <c r="K10">
+      <c r="U10">
         <v>99.915700000000001</v>
       </c>
-      <c r="L10" s="1">
+      <c r="V10" s="1">
         <f t="shared" si="4"/>
         <v>1.6750374053322602E-2</v>
       </c>
-      <c r="M10">
+      <c r="W10">
         <v>2007.0826999999999</v>
       </c>
-      <c r="N10">
+      <c r="X10">
         <v>49.3</v>
       </c>
-      <c r="P10">
+      <c r="Z10">
         <v>99.1511</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="AA10" s="1">
         <f t="shared" si="2"/>
         <v>1.6506351671855591E-2</v>
       </c>
-      <c r="R10">
+      <c r="AB10">
         <v>2014.17</v>
       </c>
-      <c r="S10">
+      <c r="AC10">
         <v>49.6</v>
       </c>
-      <c r="U10">
+      <c r="AJ10">
         <v>88.894300000000001</v>
       </c>
-      <c r="V10" s="1">
+      <c r="AK10" s="1">
         <f t="shared" si="3"/>
         <v>1.463286255395904E-2</v>
       </c>
-      <c r="W10">
+      <c r="AL10">
         <v>1998.7155</v>
       </c>
-      <c r="X10">
+      <c r="AM10">
         <v>51.5</v>
       </c>
-      <c r="Z10">
+      <c r="AT10">
         <v>89.793800000000005</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AU10" s="1">
         <f t="shared" si="5"/>
         <v>1.4045295388402898E-2</v>
       </c>
-      <c r="AB10">
+      <c r="AV10">
         <v>2009.2591</v>
       </c>
-      <c r="AC10">
+      <c r="AW10">
         <v>52.3</v>
       </c>
-      <c r="AE10">
+      <c r="AY10">
         <v>93.055899999999994</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AZ10" s="1">
         <f t="shared" si="6"/>
         <v>1.4117183779527762E-2</v>
       </c>
-      <c r="AG10">
+      <c r="BA10">
         <v>2007.9809</v>
       </c>
-      <c r="AH10">
+      <c r="BB10">
         <v>52.2</v>
       </c>
-      <c r="AJ10">
+      <c r="BI10">
         <v>89.623400000000004</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="BJ10" s="1">
         <f t="shared" si="7"/>
         <v>1.341691142644502E-2</v>
       </c>
-      <c r="AL10">
+      <c r="BK10">
         <v>2008.7973</v>
       </c>
-      <c r="AM10">
+      <c r="BL10">
         <v>53.1</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
-      <c r="A11">
+    <row r="11" spans="1:64">
+      <c r="F11">
         <v>4.4962999999999997</v>
       </c>
-      <c r="B11" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>4.7016612173574968E-3</v>
       </c>
-      <c r="C11">
+      <c r="H11">
         <v>2015.4191000000001</v>
       </c>
-      <c r="D11">
+      <c r="I11">
         <v>75.400000000000006</v>
       </c>
-      <c r="F11">
+      <c r="K11">
         <v>111.3887</v>
       </c>
-      <c r="G11" s="1">
+      <c r="L11" s="1">
         <f t="shared" si="1"/>
         <v>1.8303896303530093E-2</v>
       </c>
-      <c r="H11">
+      <c r="M11">
         <v>2024.2645</v>
       </c>
-      <c r="I11" s="1">
+      <c r="N11" s="1">
         <v>48</v>
       </c>
-      <c r="K11">
+      <c r="U11">
         <v>109.7045</v>
       </c>
-      <c r="L11" s="1">
+      <c r="V11" s="1">
         <f t="shared" si="4"/>
         <v>1.7475926912063754E-2</v>
       </c>
-      <c r="M11">
+      <c r="W11">
         <v>2006.0835999999999</v>
       </c>
-      <c r="N11">
+      <c r="X11">
         <v>48.6</v>
       </c>
-      <c r="P11">
+      <c r="Z11">
         <v>111.2299</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="AA11" s="1">
         <f t="shared" si="2"/>
         <v>1.7582056946915885E-2</v>
       </c>
-      <c r="R11">
+      <c r="AB11">
         <v>2018.2664</v>
       </c>
-      <c r="S11">
+      <c r="AC11">
         <v>48.6</v>
       </c>
-      <c r="U11">
+      <c r="AJ11">
         <v>104.4515</v>
       </c>
-      <c r="V11" s="1">
+      <c r="AK11" s="1">
         <f t="shared" si="3"/>
         <v>1.61707928E-2</v>
       </c>
-      <c r="W11">
+      <c r="AL11">
         <v>2021.3490999999999</v>
       </c>
-      <c r="X11">
+      <c r="AM11">
         <v>50</v>
       </c>
-      <c r="Z11">
+      <c r="AT11">
         <v>103.81740000000001</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AU11" s="1">
         <f t="shared" si="5"/>
         <v>1.5407687908650757E-2</v>
       </c>
-      <c r="AB11">
+      <c r="AV11">
         <v>2007.9891</v>
       </c>
-      <c r="AC11">
+      <c r="AW11">
         <v>50.7</v>
       </c>
-      <c r="AE11">
+      <c r="AY11">
         <v>103.8372</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AZ11" s="1">
         <f t="shared" si="6"/>
         <v>1.5421308249821833E-2</v>
       </c>
-      <c r="AG11">
+      <c r="BA11">
         <v>1997.8955000000001</v>
       </c>
-      <c r="AH11">
+      <c r="BB11">
         <v>50.6</v>
       </c>
-      <c r="AJ11">
+      <c r="BI11">
         <v>105.02290000000001</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="BJ11" s="1">
         <f t="shared" si="7"/>
         <v>1.4906399860166354E-2</v>
       </c>
-      <c r="AL11">
+      <c r="BK11">
         <v>2036.0781999999999</v>
       </c>
-      <c r="AM11">
+      <c r="BL11">
         <v>51.5</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
-      <c r="A12">
+    <row r="12" spans="1:64">
+      <c r="F12">
         <v>5.2613000000000003</v>
       </c>
-      <c r="B12" s="1">
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>5.4757817885214164E-3</v>
       </c>
-      <c r="C12">
+      <c r="H12">
         <v>1993.1536000000001</v>
       </c>
-      <c r="D12">
+      <c r="I12">
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13">
+    <row r="13" spans="1:64">
+      <c r="F13">
         <v>6.2336999999999998</v>
       </c>
-      <c r="B13" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>6.3660157950238957E-3</v>
       </c>
-      <c r="C13">
+      <c r="H13">
         <v>1984.0690999999999</v>
       </c>
-      <c r="D13">
+      <c r="I13">
         <v>67.8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="K13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="2" t="s">
+    <row r="14" spans="1:64">
+      <c r="K14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Z14" s="2" t="s">
@@ -1786,100 +1936,100 @@
       <c r="AJ14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="F15" s="2" t="s">
+      <c r="AT14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64">
+      <c r="K15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Z15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="AJ15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z15" s="2" t="s">
+      <c r="AT15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AJ15" s="2" t="s">
+      <c r="BI15" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="F16" s="2" t="s">
+    <row r="16" spans="1:64">
+      <c r="K16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Z16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="AJ16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="AT16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AJ16" s="2" t="s">
+      <c r="BI16" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="6:36">
-      <c r="F17" s="2" t="s">
+    <row r="17" spans="11:61">
+      <c r="K17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Z17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="AJ17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="AT17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AJ17" s="2" t="s">
+      <c r="BI17" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="6:36">
-      <c r="F18" s="2" t="s">
+    <row r="18" spans="11:61">
+      <c r="K18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="AJ18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="AT18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AJ18" s="2" t="s">
+      <c r="BI18" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="6:36">
-      <c r="F19" s="2" t="s">
+    <row r="19" spans="11:61">
+      <c r="K19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Z19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="AJ19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z19" s="2" t="s">
+      <c r="AT19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AJ19" s="2" t="s">
+      <c r="BI19" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="6:36">
-      <c r="F20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U20" s="2" t="s">
+    <row r="20" spans="11:61">
+      <c r="K20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Z20" s="2" t="s">
@@ -1888,21 +2038,27 @@
       <c r="AJ20" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="6:36">
-      <c r="F21" s="3" t="s">
+      <c r="AT20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="11:61">
+      <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="AJ21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="AT21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AJ21" s="3" t="s">
+      <c r="BI21" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1914,44 +2070,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C48D848-6634-4F6B-BFDC-8628502FF890}">
-  <dimension ref="A1:AM21"/>
+  <dimension ref="A1:BL21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:64">
       <c r="A1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="U1" t="s">
         <v>71</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AE1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AO1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT1" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AY1" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="BD1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:64">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2024,7 +2198,6 @@
       <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2049,924 +2222,1041 @@
       <c r="AM2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:39">
+      <c r="AO2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64">
       <c r="A3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B3" s="1" t="e">
+        <f>C3/D3^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3">
         <v>0.1</v>
       </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B14" si="0">C3/D3^3</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G14" si="0">H3/I3^3</f>
         <v>9.2043840025125387E-5</v>
       </c>
-      <c r="C3">
+      <c r="H3">
         <v>1994.6791000000001</v>
       </c>
-      <c r="D3">
+      <c r="I3">
         <v>278.8</v>
       </c>
-      <c r="F3">
+      <c r="K3">
         <v>0.95409999999999995</v>
-      </c>
-      <c r="G3" s="1">
-        <f>H3/I3^3</f>
-        <v>2.7266972946498913E-4</v>
-      </c>
-      <c r="H3">
-        <v>1990.8664000000001</v>
-      </c>
-      <c r="I3">
-        <v>194</v>
-      </c>
-      <c r="K3">
-        <v>0.97119999999999995</v>
       </c>
       <c r="L3" s="1">
         <f>M3/N3^3</f>
-        <v>2.6330269301445461E-4</v>
+        <v>2.7266972946498913E-4</v>
       </c>
       <c r="M3">
-        <v>2013.0473</v>
+        <v>1990.8664000000001</v>
       </c>
       <c r="N3">
-        <v>197</v>
-      </c>
-      <c r="P3">
-        <v>0.96960000000000002</v>
-      </c>
-      <c r="Q3" s="1">
-        <f>R3/S3^3</f>
-        <v>2.5751821088138813E-4</v>
-      </c>
-      <c r="R3">
-        <v>1998.9573</v>
-      </c>
-      <c r="S3">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="U3">
-        <v>0.96640000000000004</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="V3" s="1">
         <f>W3/X3^3</f>
-        <v>2.3950261722373696E-4</v>
+        <v>2.6330269301445461E-4</v>
       </c>
       <c r="W3">
-        <v>1988.7736</v>
+        <v>2013.0473</v>
       </c>
       <c r="X3">
-        <v>202.5</v>
+        <v>197</v>
       </c>
       <c r="Z3">
-        <v>0.98160000000000003</v>
+        <v>0.96960000000000002</v>
       </c>
       <c r="AA3" s="1">
         <f>AB3/AC3^3</f>
-        <v>2.2834092817123692E-4</v>
+        <v>2.5751821088138813E-4</v>
       </c>
       <c r="AB3">
-        <v>2010.6845000000001</v>
+        <v>1998.9573</v>
       </c>
       <c r="AC3">
-        <v>206.5</v>
-      </c>
-      <c r="AE3">
-        <v>0.9708</v>
-      </c>
-      <c r="AF3" s="1">
-        <f>AG3/AH3^3</f>
-        <v>2.2201229437514224E-4</v>
-      </c>
-      <c r="AG3">
-        <v>1997.8690999999999</v>
-      </c>
-      <c r="AH3">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="AJ3">
-        <v>0.96960000000000002</v>
+        <v>0.96640000000000004</v>
       </c>
       <c r="AK3" s="1">
         <f>AL3/AM3^3</f>
+        <v>2.3950261722373696E-4</v>
+      </c>
+      <c r="AL3">
+        <v>1988.7736</v>
+      </c>
+      <c r="AM3">
+        <v>202.5</v>
+      </c>
+      <c r="AT3">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="AU3" s="1">
+        <f>AV3/AW3^3</f>
+        <v>2.2834092817123692E-4</v>
+      </c>
+      <c r="AV3">
+        <v>2010.6845000000001</v>
+      </c>
+      <c r="AW3">
+        <v>206.5</v>
+      </c>
+      <c r="AY3">
+        <v>0.9708</v>
+      </c>
+      <c r="AZ3" s="1">
+        <f>BA3/BB3^3</f>
+        <v>2.2201229437514224E-4</v>
+      </c>
+      <c r="BA3">
+        <v>1997.8690999999999</v>
+      </c>
+      <c r="BB3">
+        <v>208</v>
+      </c>
+      <c r="BI3">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="BJ3" s="1">
+        <f>BK3/BL3^3</f>
         <v>2.1278194949638535E-4</v>
       </c>
-      <c r="AL3">
+      <c r="BK3">
         <v>1984.6827000000001</v>
       </c>
-      <c r="AM3">
+      <c r="BL3">
         <v>210.5</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:64">
       <c r="A4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B4" s="1" t="e">
+        <f>C4/D4^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4">
         <v>0.19489999999999999</v>
       </c>
-      <c r="B4" s="1">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>1.7641693058984912E-4</v>
       </c>
-      <c r="C4">
+      <c r="H4">
         <v>2009.4991</v>
       </c>
-      <c r="D4">
+      <c r="I4">
         <v>225</v>
       </c>
-      <c r="F4">
+      <c r="K4">
         <v>3.8292999999999999</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G10" si="1">H4/I4^3</f>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L10" si="1">M4/N4^3</f>
         <v>9.1598707328174791E-4</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>2012.4236000000001</v>
       </c>
-      <c r="I4">
+      <c r="N4">
         <v>130</v>
       </c>
-      <c r="K4">
+      <c r="U4">
         <v>3.8597000000000001</v>
       </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L10" si="2">M4/N4^3</f>
+      <c r="V4" s="1">
+        <f t="shared" ref="V4:V10" si="2">W4/X4^3</f>
         <v>8.753367003367003E-4</v>
       </c>
-      <c r="M4">
+      <c r="W4">
         <v>2013.2464</v>
       </c>
-      <c r="N4">
+      <c r="X4">
         <v>132</v>
       </c>
-      <c r="P4">
+      <c r="Z4">
         <v>3.8224999999999998</v>
       </c>
-      <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q10" si="3">R4/S4^3</f>
+      <c r="AA4" s="1">
+        <f t="shared" ref="AA4:AA10" si="3">AB4/AC4^3</f>
         <v>8.5395974814644155E-4</v>
       </c>
-      <c r="R4">
+      <c r="AB4">
         <v>2009.0572999999999</v>
       </c>
-      <c r="S4">
+      <c r="AC4">
         <v>133</v>
       </c>
-      <c r="U4">
+      <c r="AJ4">
         <v>4.0373000000000001</v>
       </c>
-      <c r="V4" s="1">
-        <f t="shared" ref="V4:V10" si="4">W4/X4^3</f>
+      <c r="AK4" s="1">
+        <f t="shared" ref="AK4:AK10" si="4">AL4/AM4^3</f>
         <v>8.4755492760489766E-4</v>
       </c>
-      <c r="W4">
+      <c r="AL4">
         <v>2007.5127</v>
       </c>
-      <c r="X4">
+      <c r="AM4">
         <v>133.30000000000001</v>
       </c>
-      <c r="Z4">
+      <c r="AT4">
         <v>4.1012000000000004</v>
       </c>
-      <c r="AA4" s="1">
-        <f t="shared" ref="AA4:AA10" si="5">AB4/AC4^3</f>
+      <c r="AU4" s="1">
+        <f t="shared" ref="AU4:AU10" si="5">AV4/AW4^3</f>
         <v>8.1911798819113283E-4</v>
       </c>
-      <c r="AB4">
+      <c r="AV4">
         <v>1984.15</v>
       </c>
-      <c r="AC4">
+      <c r="AW4">
         <v>134.30000000000001</v>
       </c>
-      <c r="AE4">
+      <c r="AY4">
         <v>4.1353</v>
       </c>
-      <c r="AF4" s="1">
-        <f t="shared" ref="AF4:AF10" si="6">AG4/AH4^3</f>
+      <c r="AZ4" s="1">
+        <f t="shared" ref="AZ4:AZ10" si="6">BA4/BB4^3</f>
         <v>8.0872754196694081E-4</v>
       </c>
-      <c r="AG4">
+      <c r="BA4">
         <v>2011.9636</v>
       </c>
-      <c r="AH4">
+      <c r="BB4">
         <v>135.5</v>
       </c>
-      <c r="AJ4">
+      <c r="BI4">
         <v>4.0914999999999999</v>
       </c>
-      <c r="AK4" s="1">
-        <f t="shared" ref="AK4:AK10" si="7">AL4/AM4^3</f>
+      <c r="BJ4" s="1">
+        <f t="shared" ref="BJ4:BJ10" si="7">BK4/BL4^3</f>
         <v>7.749141358379981E-4</v>
       </c>
-      <c r="AL4">
+      <c r="BK4">
         <v>2005.6964</v>
       </c>
-      <c r="AM4">
+      <c r="BL4">
         <v>137.30000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:64">
       <c r="A5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B5" s="1" t="e">
+        <f>C5/D5^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5">
         <v>0.2918</v>
       </c>
-      <c r="B5" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>2.5259466951687301E-4</v>
       </c>
-      <c r="C5">
+      <c r="H5">
         <v>1990.5972999999999</v>
       </c>
-      <c r="D5">
+      <c r="I5">
         <v>199</v>
       </c>
-      <c r="F5">
+      <c r="K5">
         <v>6.2556000000000003</v>
       </c>
-      <c r="G5" s="1">
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
         <v>1.3235042327607463E-3</v>
       </c>
-      <c r="H5">
+      <c r="M5">
         <v>2012.8844999999999</v>
       </c>
-      <c r="I5">
+      <c r="N5">
         <v>115</v>
       </c>
-      <c r="K5">
+      <c r="U5">
         <v>6.5434999999999999</v>
       </c>
-      <c r="L5" s="1">
+      <c r="V5" s="1">
         <f t="shared" si="2"/>
         <v>1.320754039615353E-3</v>
       </c>
-      <c r="M5">
+      <c r="W5">
         <v>2008.7018</v>
       </c>
-      <c r="N5">
+      <c r="X5">
         <v>115</v>
       </c>
-      <c r="P5">
+      <c r="Z5">
         <v>6.6199000000000003</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="AA5" s="1">
         <f t="shared" si="3"/>
         <v>1.3083384422902049E-3</v>
       </c>
-      <c r="R5">
+      <c r="AB5">
         <v>2015.8864000000001</v>
       </c>
-      <c r="S5">
+      <c r="AC5">
         <v>115.5</v>
       </c>
-      <c r="U5">
+      <c r="AJ5">
         <v>6.9206000000000003</v>
       </c>
-      <c r="V5" s="1">
+      <c r="AK5" s="1">
         <f t="shared" si="4"/>
         <v>1.270622420764029E-3</v>
       </c>
-      <c r="W5">
+      <c r="AL5">
         <v>2009.0663999999999</v>
       </c>
-      <c r="X5">
+      <c r="AM5">
         <v>116.5</v>
       </c>
-      <c r="Z5">
+      <c r="AT5">
         <v>7.2358000000000002</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AU5" s="1">
         <f t="shared" si="5"/>
         <v>1.2546616794886644E-3</v>
       </c>
-      <c r="AB5">
+      <c r="AV5">
         <v>1994.0645</v>
       </c>
-      <c r="AC5">
+      <c r="AW5">
         <v>116.7</v>
       </c>
-      <c r="AE5">
+      <c r="AY5">
         <v>7.0602999999999998</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AZ5" s="1">
         <f t="shared" si="6"/>
         <v>1.207693509032754E-3</v>
       </c>
-      <c r="AG5">
+      <c r="BA5">
         <v>2009.61</v>
       </c>
-      <c r="AH5">
+      <c r="BB5">
         <v>118.5</v>
       </c>
-      <c r="AJ5">
+      <c r="BI5">
         <v>7.1098999999999997</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="BJ5" s="1">
         <f t="shared" si="7"/>
         <v>1.1815308287985379E-3</v>
       </c>
-      <c r="AL5">
+      <c r="BK5">
         <v>2021.3363999999999</v>
       </c>
-      <c r="AM5">
+      <c r="BL5">
         <v>119.6</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:64">
       <c r="A6">
+        <v>0.01</v>
+      </c>
+      <c r="B6" s="1" t="e">
+        <f>C6/D6^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6">
         <v>0.5121</v>
       </c>
-      <c r="B6" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>4.3191262577134935E-4</v>
       </c>
-      <c r="C6">
+      <c r="H6">
         <v>1993.6026999999999</v>
       </c>
-      <c r="D6">
+      <c r="I6">
         <v>166.5</v>
       </c>
-      <c r="F6">
+      <c r="K6">
         <v>16.639199999999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="L6" s="1">
         <f t="shared" si="1"/>
         <v>2.4484918210384071E-3</v>
       </c>
-      <c r="H6">
+      <c r="M6">
         <v>2040.1755000000001</v>
       </c>
-      <c r="I6">
+      <c r="N6">
         <v>94.1</v>
       </c>
-      <c r="K6">
+      <c r="U6">
         <v>17.206399999999999</v>
       </c>
-      <c r="L6" s="1">
+      <c r="V6" s="1">
         <f t="shared" si="2"/>
         <v>2.4173131028572504E-3</v>
       </c>
-      <c r="M6">
+      <c r="W6">
         <v>2020.6244999999999</v>
       </c>
-      <c r="N6">
+      <c r="X6">
         <v>94.2</v>
       </c>
-      <c r="P6">
+      <c r="Z6">
         <v>17.007000000000001</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="AA6" s="1">
         <f t="shared" si="3"/>
         <v>2.3644147492863934E-3</v>
       </c>
-      <c r="R6">
+      <c r="AB6">
         <v>1995.35</v>
       </c>
-      <c r="S6">
+      <c r="AC6">
         <v>94.5</v>
       </c>
-      <c r="U6">
+      <c r="AJ6">
         <v>17.784199999999998</v>
       </c>
-      <c r="V6" s="1">
+      <c r="AK6" s="1">
         <f t="shared" si="4"/>
         <v>2.3446447589702013E-3</v>
       </c>
-      <c r="W6">
+      <c r="AL6">
         <v>1991.2555</v>
       </c>
-      <c r="X6">
+      <c r="AM6">
         <v>94.7</v>
       </c>
-      <c r="Z6">
+      <c r="AT6">
         <v>18.9514</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AU6" s="1">
         <f t="shared" si="5"/>
         <v>2.3516089086872663E-3</v>
       </c>
-      <c r="AB6">
+      <c r="AV6">
         <v>1997.17</v>
       </c>
-      <c r="AC6">
+      <c r="AW6">
         <v>94.7</v>
       </c>
-      <c r="AE6">
+      <c r="AY6">
         <v>18.792100000000001</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AZ6" s="1">
         <f t="shared" si="6"/>
         <v>2.3283393853710541E-3</v>
       </c>
-      <c r="AG6">
+      <c r="BA6">
         <v>2008.8945000000001</v>
       </c>
-      <c r="AH6">
+      <c r="BB6">
         <v>95.2</v>
       </c>
-      <c r="AJ6">
+      <c r="BI6">
         <v>19.0578</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="BJ6" s="1">
         <f t="shared" si="7"/>
         <v>2.2685520305702699E-3</v>
       </c>
-      <c r="AL6">
+      <c r="BK6">
         <v>2032.2627</v>
       </c>
-      <c r="AM6">
+      <c r="BL6">
         <v>96.4</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:64">
       <c r="A7">
+        <v>0.03</v>
+      </c>
+      <c r="B7" s="1" t="e">
+        <f>C7/D7^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7">
         <v>0.72060000000000002</v>
       </c>
-      <c r="B7" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>5.7811583725705072E-4</v>
       </c>
-      <c r="C7">
+      <c r="H7">
         <v>1990.4245000000001</v>
       </c>
-      <c r="D7">
+      <c r="I7">
         <v>151</v>
       </c>
-      <c r="F7">
+      <c r="K7">
         <v>28.022600000000001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="1"/>
         <v>3.2096027947620611E-3</v>
       </c>
-      <c r="H7">
+      <c r="M7">
         <v>2006.0863999999999</v>
       </c>
-      <c r="I7">
+      <c r="N7">
         <v>85.5</v>
       </c>
-      <c r="K7">
+      <c r="U7">
         <v>30.060099999999998</v>
       </c>
-      <c r="L7" s="1">
+      <c r="V7" s="1">
         <f t="shared" si="2"/>
         <v>3.2519769495926074E-3</v>
       </c>
-      <c r="M7">
+      <c r="W7">
         <v>2004.1773000000001</v>
       </c>
-      <c r="N7">
+      <c r="X7">
         <v>85.1</v>
       </c>
-      <c r="P7">
+      <c r="Z7">
         <v>30.25</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="AA7" s="1">
         <f t="shared" si="3"/>
         <v>3.1961332229670301E-3</v>
       </c>
-      <c r="R7">
+      <c r="AB7">
         <v>2011.7191</v>
       </c>
-      <c r="S7">
+      <c r="AC7">
         <v>85.7</v>
       </c>
-      <c r="U7">
+      <c r="AJ7">
         <v>31.477900000000002</v>
       </c>
-      <c r="V7" s="1">
+      <c r="AK7" s="1">
         <f t="shared" si="4"/>
         <v>3.1843350115771129E-3</v>
       </c>
-      <c r="W7">
+      <c r="AL7">
         <v>2018.3581999999999</v>
       </c>
-      <c r="X7">
+      <c r="AM7">
         <v>85.9</v>
       </c>
-      <c r="Z7">
+      <c r="AT7">
         <v>34.390999999999998</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AU7" s="1">
         <f t="shared" si="5"/>
         <v>3.2071115352824537E-3</v>
       </c>
-      <c r="AB7">
+      <c r="AV7">
         <v>2018.6291000000001</v>
       </c>
-      <c r="AC7">
+      <c r="AW7">
         <v>85.7</v>
       </c>
-      <c r="AE7">
+      <c r="AY7">
         <v>33.100999999999999</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AZ7" s="1">
         <f t="shared" si="6"/>
         <v>3.1592992822364078E-3</v>
       </c>
-      <c r="AG7">
+      <c r="BA7">
         <v>2023.5436</v>
       </c>
-      <c r="AH7">
+      <c r="BB7">
         <v>86.2</v>
       </c>
-      <c r="AJ7">
+      <c r="BI7">
         <v>33.722099999999998</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="BJ7" s="1">
         <f t="shared" si="7"/>
         <v>3.1019138251977812E-3</v>
       </c>
-      <c r="AL7">
+      <c r="BK7">
         <v>1972.9909</v>
       </c>
-      <c r="AM7">
+      <c r="BL7">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:64">
       <c r="A8">
+        <v>0.05</v>
+      </c>
+      <c r="B8" s="1" t="e">
+        <f>C8/D8^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8">
         <v>0.88880000000000003</v>
       </c>
-      <c r="B8" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>6.778274107403806E-4</v>
       </c>
-      <c r="C8">
+      <c r="H8">
         <v>1998.7873</v>
       </c>
-      <c r="D8">
+      <c r="I8">
         <v>143.4</v>
       </c>
-      <c r="F8">
+      <c r="K8">
         <v>49.976700000000001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="L8" s="1">
         <f t="shared" si="1"/>
         <v>4.0937144931739678E-3</v>
       </c>
-      <c r="H8">
+      <c r="M8">
         <v>2018.3608999999999</v>
       </c>
-      <c r="I8">
+      <c r="N8">
         <v>79</v>
       </c>
-      <c r="K8">
+      <c r="U8">
         <v>51.439799999999998</v>
       </c>
-      <c r="L8" s="1">
+      <c r="V8" s="1">
         <f t="shared" si="2"/>
         <v>4.0625534694010007E-3</v>
       </c>
-      <c r="M8">
+      <c r="W8">
         <v>2002.9973</v>
       </c>
-      <c r="N8">
+      <c r="X8">
         <v>79</v>
       </c>
-      <c r="P8">
+      <c r="Z8">
         <v>49.839100000000002</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="AA8" s="1">
         <f t="shared" si="3"/>
         <v>4.0114521599405517E-3</v>
       </c>
-      <c r="R8">
+      <c r="AB8">
         <v>2007.9973</v>
       </c>
-      <c r="S8">
+      <c r="AC8">
         <v>79.400000000000006</v>
       </c>
-      <c r="U8">
+      <c r="AJ8">
         <v>54.530500000000004</v>
       </c>
-      <c r="V8" s="1">
+      <c r="AK8" s="1">
         <f t="shared" si="4"/>
         <v>4.0217248166984285E-3</v>
       </c>
-      <c r="W8">
+      <c r="AL8">
         <v>2005.5427</v>
       </c>
-      <c r="X8">
+      <c r="AM8">
         <v>79.3</v>
       </c>
-      <c r="Z8">
+      <c r="AT8">
         <v>57.0199</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AU8" s="1">
         <f t="shared" si="5"/>
         <v>4.0446889236928551E-3</v>
       </c>
-      <c r="AB8">
+      <c r="AV8">
         <v>2024.6344999999999</v>
       </c>
-      <c r="AC8">
+      <c r="AW8">
         <v>79.400000000000006</v>
       </c>
-      <c r="AE8">
+      <c r="AY8">
         <v>58.343299999999999</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AZ8" s="1">
         <f t="shared" si="6"/>
         <v>4.0339630693071345E-3</v>
       </c>
-      <c r="AG8">
+      <c r="BA8">
         <v>2019.2655</v>
       </c>
-      <c r="AH8">
+      <c r="BB8">
         <v>79.400000000000006</v>
       </c>
-      <c r="AJ8">
+      <c r="BI8">
         <v>57.500999999999998</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="BJ8" s="1">
         <f t="shared" si="7"/>
         <v>3.9729976823462288E-3</v>
       </c>
-      <c r="AL8">
+      <c r="BK8">
         <v>2003.8145</v>
       </c>
-      <c r="AM8">
+      <c r="BL8">
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:64">
       <c r="A9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B9" s="1" t="e">
+        <f>C9/D9^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9">
         <v>1.5598000000000001</v>
       </c>
-      <c r="B9" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>1.0548282723809204E-3</v>
       </c>
-      <c r="C9">
+      <c r="H9">
         <v>2011.1609000000001</v>
       </c>
-      <c r="D9">
+      <c r="I9">
         <v>124</v>
       </c>
-      <c r="F9">
+      <c r="K9">
         <v>68.578400000000002</v>
       </c>
-      <c r="G9" s="1">
+      <c r="L9" s="1">
         <f t="shared" si="1"/>
         <v>4.6389337518890046E-3</v>
       </c>
-      <c r="H9">
+      <c r="M9">
         <v>1996.4527</v>
       </c>
-      <c r="I9">
+      <c r="N9">
         <v>75.5</v>
       </c>
-      <c r="K9">
+      <c r="U9">
         <v>72.459000000000003</v>
       </c>
-      <c r="L9" s="1">
+      <c r="V9" s="1">
         <f t="shared" si="2"/>
         <v>4.6574134384176303E-3</v>
       </c>
-      <c r="M9">
+      <c r="W9">
         <v>1996.4518</v>
       </c>
-      <c r="N9">
+      <c r="X9">
         <v>75.400000000000006</v>
       </c>
-      <c r="P9">
+      <c r="Z9">
         <v>73.569900000000004</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="AA9" s="1">
         <f t="shared" si="3"/>
         <v>4.6393534975728897E-3</v>
       </c>
-      <c r="R9">
+      <c r="AB9">
         <v>2012.5427</v>
       </c>
-      <c r="S9">
+      <c r="AC9">
         <v>75.7</v>
       </c>
-      <c r="U9">
+      <c r="AJ9">
         <v>79.846100000000007</v>
       </c>
-      <c r="V9" s="1">
+      <c r="AK9" s="1">
         <f t="shared" si="4"/>
         <v>4.6865120727951192E-3</v>
       </c>
-      <c r="W9">
+      <c r="AL9">
         <v>2033</v>
       </c>
-      <c r="X9">
+      <c r="AM9">
         <v>75.7</v>
       </c>
-      <c r="Z9">
+      <c r="AT9">
         <v>81.407799999999995</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AU9" s="1">
         <f t="shared" si="5"/>
         <v>4.6318133537760842E-3</v>
       </c>
-      <c r="AB9">
+      <c r="AV9">
         <v>2009.2718</v>
       </c>
-      <c r="AC9">
+      <c r="AW9">
         <v>75.7</v>
       </c>
-      <c r="AE9">
+      <c r="AY9">
         <v>80.206800000000001</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AZ9" s="1">
         <f t="shared" si="6"/>
         <v>4.6175608706514066E-3</v>
       </c>
-      <c r="AG9">
+      <c r="BA9">
         <v>2003.0890999999999</v>
       </c>
-      <c r="AH9">
+      <c r="BB9">
         <v>75.7</v>
       </c>
-      <c r="AJ9">
+      <c r="BI9">
         <v>83.064899999999994</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="BJ9" s="1">
         <f t="shared" si="7"/>
         <v>4.6165522270702006E-3</v>
       </c>
-      <c r="AL9">
+      <c r="BK9">
         <v>1994.7255</v>
       </c>
-      <c r="AM9">
+      <c r="BL9">
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:64">
       <c r="A10">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ref="B10" si="8">C10/D10^3</f>
+        <v>9.2043840025125387E-5</v>
+      </c>
+      <c r="C10">
+        <v>1994.6791000000001</v>
+      </c>
+      <c r="D10">
+        <v>278.8</v>
+      </c>
+      <c r="F10">
         <v>2.0432000000000001</v>
       </c>
-      <c r="B10" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>1.2902351128442143E-3</v>
       </c>
-      <c r="C10">
+      <c r="H10">
         <v>1993.1609000000001</v>
       </c>
-      <c r="D10">
+      <c r="I10">
         <v>115.6</v>
       </c>
-      <c r="F10">
+      <c r="K10">
         <v>98.968800000000002</v>
       </c>
-      <c r="G10" s="1">
+      <c r="L10" s="1">
         <f t="shared" si="1"/>
         <v>5.285854812208491E-3</v>
       </c>
-      <c r="H10">
+      <c r="M10">
         <v>2006</v>
       </c>
-      <c r="I10">
+      <c r="N10">
         <v>72.400000000000006</v>
       </c>
-      <c r="K10">
+      <c r="U10">
         <v>105.13030000000001</v>
       </c>
-      <c r="L10" s="1">
+      <c r="V10" s="1">
         <f t="shared" si="2"/>
         <v>5.3028457475373875E-3</v>
       </c>
-      <c r="M10">
+      <c r="W10">
         <v>1995.8163999999999</v>
       </c>
-      <c r="N10">
+      <c r="X10">
         <v>72.2</v>
       </c>
-      <c r="P10">
+      <c r="Z10">
         <v>103.28919999999999</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="AA10" s="1">
         <f t="shared" si="3"/>
         <v>5.2574926753758315E-3</v>
       </c>
-      <c r="R10">
+      <c r="AB10">
         <v>2011.8172999999999</v>
       </c>
-      <c r="S10">
+      <c r="AC10">
         <v>72.599999999999994</v>
       </c>
-      <c r="U10">
+      <c r="AJ10">
         <v>106.8145</v>
       </c>
-      <c r="V10" s="1">
+      <c r="AK10" s="1">
         <f t="shared" si="4"/>
         <v>5.2441103026329731E-3</v>
       </c>
-      <c r="W10">
+      <c r="AL10">
         <v>2015</v>
       </c>
-      <c r="X10">
+      <c r="AM10">
         <v>72.7</v>
       </c>
-      <c r="Z10">
+      <c r="AT10">
         <v>114.21850000000001</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AU10" s="1">
         <f t="shared" si="5"/>
         <v>5.272494602684902E-3</v>
       </c>
-      <c r="AB10">
+      <c r="AV10">
         <v>2025.9064000000001</v>
       </c>
-      <c r="AC10">
+      <c r="AW10">
         <v>72.7</v>
       </c>
-      <c r="AE10">
+      <c r="AY10">
         <v>114.80540000000001</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AZ10" s="1">
         <f t="shared" si="6"/>
         <v>5.2623280555453462E-3</v>
       </c>
-      <c r="AG10">
+      <c r="BA10">
         <v>2022</v>
       </c>
-      <c r="AH10">
+      <c r="BB10">
         <v>72.7</v>
       </c>
-      <c r="AJ10">
+      <c r="BI10">
         <v>119.239</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="BJ10" s="1">
         <f t="shared" si="7"/>
         <v>5.2788742161208038E-3</v>
       </c>
-      <c r="AL10">
+      <c r="BK10">
         <v>2019.9991</v>
       </c>
-      <c r="AM10">
+      <c r="BL10">
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
-      <c r="A11">
+    <row r="11" spans="1:64">
+      <c r="F11">
         <v>2.8759999999999999</v>
       </c>
-      <c r="B11" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>1.6136782266343217E-3</v>
       </c>
-      <c r="C11">
+      <c r="H11">
         <v>1999.0781999999999</v>
       </c>
-      <c r="D11">
+      <c r="I11">
         <v>107.4</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
-      <c r="A12">
+    <row r="12" spans="1:64">
+      <c r="F12">
         <v>4.2931999999999997</v>
       </c>
-      <c r="B12" s="1">
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>2.0392040798650262E-3</v>
       </c>
-      <c r="C12">
+      <c r="H12">
         <v>2002.7182</v>
       </c>
-      <c r="D12">
+      <c r="I12">
         <v>99.4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13">
+    <row r="13" spans="1:64">
+      <c r="F13">
         <v>5.0247999999999999</v>
       </c>
-      <c r="B13" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>2.1873671073867639E-3</v>
       </c>
-      <c r="C13">
+      <c r="H13">
         <v>1996.3508999999999</v>
       </c>
-      <c r="D13">
+      <c r="I13">
         <v>97</v>
       </c>
-      <c r="F13" t="s">
+      <c r="K13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14">
+    <row r="14" spans="1:64">
+      <c r="F14">
         <v>5.7519999999999998</v>
       </c>
-      <c r="B14" s="1">
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>2.3682689086776763E-3</v>
       </c>
-      <c r="C14">
+      <c r="H14">
         <v>1992.2645</v>
       </c>
-      <c r="D14">
+      <c r="I14">
         <v>94.4</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Z14" s="2" t="s">
@@ -2975,100 +3265,100 @@
       <c r="AJ14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="F15" s="2" t="s">
+      <c r="AT14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64">
+      <c r="K15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Z15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="AJ15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z15" s="2" t="s">
+      <c r="AT15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AJ15" s="2" t="s">
+      <c r="BI15" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="F16" s="2" t="s">
+    <row r="16" spans="1:64">
+      <c r="K16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Z16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="AJ16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="AT16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AJ16" s="2" t="s">
+      <c r="BI16" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="6:36">
-      <c r="F17" s="2" t="s">
+    <row r="17" spans="11:61">
+      <c r="K17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Z17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="AJ17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="AT17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ17" s="2" t="s">
+      <c r="BI17" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="6:36">
-      <c r="F18" s="2" t="s">
+    <row r="18" spans="11:61">
+      <c r="K18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="AJ18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="AT18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AJ18" s="2" t="s">
+      <c r="BI18" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="6:36">
-      <c r="F19" s="2" t="s">
+    <row r="19" spans="11:61">
+      <c r="K19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Z19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="AJ19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Z19" s="2" t="s">
+      <c r="AT19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AJ19" s="2" t="s">
+      <c r="BI19" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="6:36">
-      <c r="F20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U20" s="2" t="s">
+    <row r="20" spans="11:61">
+      <c r="K20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Z20" s="2" t="s">
@@ -3077,21 +3367,27 @@
       <c r="AJ20" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="6:36">
-      <c r="F21" s="3" t="s">
+      <c r="AT20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="11:61">
+      <c r="K21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="AJ21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="AT21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AJ21" s="3" t="s">
+      <c r="BI21" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3104,20 +3400,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F77F63-7358-4861-9669-CB838F1D87BA}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3130,105 +3429,222 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
-        <v>5.1700000000000003E-2</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="B3" s="1">
         <f>C3/D3^3</f>
+        <v>2.9067902871927532E-6</v>
+      </c>
+      <c r="C3">
+        <v>2001.2245</v>
+      </c>
+      <c r="D3">
+        <v>883</v>
+      </c>
+      <c r="F3">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <f>H3/I3^3</f>
         <v>4.9565266866974249E-5</v>
       </c>
-      <c r="C3">
+      <c r="H3">
         <v>2000.1373000000001</v>
       </c>
-      <c r="D3">
+      <c r="I3">
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9">
       <c r="A4">
-        <v>0.1055</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="B4" s="1">
         <f>C4/D4^3</f>
+        <v>4.8351785350983342E-6</v>
+      </c>
+      <c r="C4">
+        <v>1999.3154999999999</v>
+      </c>
+      <c r="D4">
+        <v>745</v>
+      </c>
+      <c r="F4">
+        <v>0.1055</v>
+      </c>
+      <c r="G4" s="1">
+        <f>H4/I4^3</f>
         <v>1.0223054009315834E-4</v>
       </c>
-      <c r="C4">
+      <c r="H4">
         <v>2001.0454999999999</v>
       </c>
-      <c r="D4">
+      <c r="I4">
         <v>269.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:9">
       <c r="A5">
-        <v>0.21779999999999999</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="B5" s="1">
         <f>C5/D5^3</f>
+        <v>6.7579527374000769E-6</v>
+      </c>
+      <c r="C5">
+        <v>1999.9545000000001</v>
+      </c>
+      <c r="D5">
+        <v>666.4</v>
+      </c>
+      <c r="F5">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <f>H5/I5^3</f>
         <v>2.2281594549831702E-4</v>
       </c>
-      <c r="C5">
+      <c r="H5">
         <v>1999.3226999999999</v>
       </c>
-      <c r="D5">
+      <c r="I5">
         <v>207.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6">
-        <v>0.2747</v>
+        <v>1.03E-2</v>
       </c>
       <c r="B6" s="1">
         <f>C6/D6^3</f>
+        <v>9.6639591770039656E-6</v>
+      </c>
+      <c r="C6">
+        <v>1999.9509</v>
+      </c>
+      <c r="D6">
+        <v>591.5</v>
+      </c>
+      <c r="F6">
+        <v>0.2747</v>
+      </c>
+      <c r="G6" s="1">
+        <f>H6/I6^3</f>
         <v>2.9697474770538549E-4</v>
       </c>
-      <c r="C6">
+      <c r="H6">
         <v>1998.5981999999999</v>
       </c>
-      <c r="D6">
+      <c r="I6">
         <v>188.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:9">
       <c r="A7">
-        <v>0.30349999999999999</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="B7" s="1">
         <f>C7/D7^3</f>
+        <v>2.9694115215911302E-5</v>
+      </c>
+      <c r="C7">
+        <v>2001.9518</v>
+      </c>
+      <c r="D7">
+        <v>407</v>
+      </c>
+      <c r="F7">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <f>H7/I7^3</f>
         <v>3.208172529368725E-4</v>
       </c>
-      <c r="C7">
+      <c r="H7">
         <v>2005.0563999999999</v>
       </c>
-      <c r="D7">
+      <c r="I7">
         <v>184.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="1"/>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <f>C8/D8^3</f>
+        <v>4.9565266866974249E-5</v>
+      </c>
+      <c r="C8">
+        <v>2000.1373000000001</v>
+      </c>
+      <c r="D8">
+        <v>343</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="B9" s="1">
+        <f>C9/D9^3</f>
+        <v>7.0621274636031324E-5</v>
+      </c>
+      <c r="C9">
+        <v>1999.7718</v>
+      </c>
+      <c r="D9">
+        <v>304.8</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>0.1055</v>
+      </c>
+      <c r="B10" s="1">
+        <f>C10/D10^3</f>
+        <v>1.0223054009315834E-4</v>
+      </c>
+      <c r="C10">
+        <v>2001.0454999999999</v>
+      </c>
+      <c r="D10">
+        <v>269.5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/H2_and_He.xlsx
+++ b/H2_and_He.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8A14B7-0A7D-42D3-82C0-293311A459AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665784B2-2871-4CF0-905B-58603E159721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="740" windowWidth="15560" windowHeight="10660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="740" windowWidth="15560" windowHeight="10660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL21"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -879,17 +879,26 @@
     </row>
     <row r="3" spans="1:64">
       <c r="A3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="B3" s="1" t="e">
-        <f>C3/D3^3</f>
-        <v>#DIV/0!</v>
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B9" si="0">C3/D3^3</f>
+        <v>2.8884379790713934E-6</v>
+      </c>
+      <c r="C3">
+        <v>2002.1327000000001</v>
+      </c>
+      <c r="D3">
+        <v>885</v>
+      </c>
+      <c r="E3">
+        <v>885</v>
       </c>
       <c r="F3">
         <v>0.1036</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G13" si="0">H3/I3^3</f>
+        <f t="shared" ref="G3:G13" si="1">H3/I3^3</f>
         <v>9.7143279238595396E-5</v>
       </c>
       <c r="H3">
@@ -902,7 +911,7 @@
         <v>1.0177</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L11" si="1">M3/N3^3</f>
+        <f t="shared" ref="L3:L11" si="2">M3/N3^3</f>
         <v>3.136675474944583E-4</v>
       </c>
       <c r="M3" s="1">
@@ -928,7 +937,7 @@
         <v>1.0263</v>
       </c>
       <c r="AA3" s="1">
-        <f t="shared" ref="AA3:AA11" si="2">AB3/AC3^3</f>
+        <f t="shared" ref="AA3:AA11" si="3">AB3/AC3^3</f>
         <v>2.9030801866161248E-4</v>
       </c>
       <c r="AB3">
@@ -941,7 +950,7 @@
         <v>1.0175000000000001</v>
       </c>
       <c r="AK3" s="1">
-        <f t="shared" ref="AK3:AK11" si="3">AL3/AM3^3</f>
+        <f t="shared" ref="AK3:AK11" si="4">AL3/AM3^3</f>
         <v>2.6875289199076183E-4</v>
       </c>
       <c r="AL3">
@@ -992,17 +1001,26 @@
     </row>
     <row r="4" spans="1:64">
       <c r="A4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="B4" s="1" t="e">
-        <f>C4/D4^3</f>
-        <v>#DIV/0!</v>
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8350131851013443E-6</v>
+      </c>
+      <c r="C4">
+        <v>1995.2245</v>
+      </c>
+      <c r="D4">
+        <v>744.5</v>
+      </c>
+      <c r="E4">
+        <v>747</v>
       </c>
       <c r="F4">
         <v>0.2069</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9549265867317535E-4</v>
       </c>
       <c r="H4">
@@ -1015,7 +1033,7 @@
         <v>4.9810999999999996</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.498292486851991E-3</v>
       </c>
       <c r="M4" s="1">
@@ -1028,7 +1046,7 @@
         <v>4.9454000000000002</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" ref="V4:V11" si="4">W4/X4^3</f>
+        <f t="shared" ref="V4:V11" si="5">W4/X4^3</f>
         <v>1.3906076455907801E-3</v>
       </c>
       <c r="W4">
@@ -1041,7 +1059,7 @@
         <v>5.0174000000000003</v>
       </c>
       <c r="AA4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3832965901238966E-3</v>
       </c>
       <c r="AB4">
@@ -1054,7 +1072,7 @@
         <v>4.9654999999999996</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2801272435501517E-3</v>
       </c>
       <c r="AL4">
@@ -1067,7 +1085,7 @@
         <v>4.9600999999999997</v>
       </c>
       <c r="AU4" s="1">
-        <f t="shared" ref="AU4:AU11" si="5">AV4/AW4^3</f>
+        <f t="shared" ref="AU4:AU11" si="6">AV4/AW4^3</f>
         <v>1.1883691093837435E-3</v>
       </c>
       <c r="AV4">
@@ -1080,7 +1098,7 @@
         <v>5.0194000000000001</v>
       </c>
       <c r="AZ4" s="1">
-        <f t="shared" ref="AZ4:AZ11" si="6">BA4/BB4^3</f>
+        <f t="shared" ref="AZ4:AZ11" si="7">BA4/BB4^3</f>
         <v>1.1726090669011442E-3</v>
       </c>
       <c r="BA4">
@@ -1093,7 +1111,7 @@
         <v>4.8895999999999997</v>
       </c>
       <c r="BJ4" s="1">
-        <f t="shared" ref="BJ4:BJ11" si="7">BK4/BL4^3</f>
+        <f t="shared" ref="BJ4:BJ11" si="8">BK4/BL4^3</f>
         <v>1.106269767398781E-3</v>
       </c>
       <c r="BK4">
@@ -1105,17 +1123,26 @@
     </row>
     <row r="5" spans="1:64">
       <c r="A5">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="B5" s="1" t="e">
-        <f>C5/D5^3</f>
-        <v>#DIV/0!</v>
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7646178047473348E-6</v>
+      </c>
+      <c r="C5">
+        <v>1999.2245</v>
+      </c>
+      <c r="D5">
+        <v>666.1</v>
+      </c>
+      <c r="E5">
+        <v>668.1</v>
       </c>
       <c r="F5">
         <v>0.30580000000000002</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9079921271322351E-4</v>
       </c>
       <c r="H5">
@@ -1128,7 +1155,7 @@
         <v>9.5379000000000005</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7792268861454045E-3</v>
       </c>
       <c r="M5" s="1">
@@ -1141,7 +1168,7 @@
         <v>9.4514999999999993</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6081152913202039E-3</v>
       </c>
       <c r="W5">
@@ -1154,7 +1181,7 @@
         <v>9.5813000000000006</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.585994262143503E-3</v>
       </c>
       <c r="AB5">
@@ -1167,7 +1194,7 @@
         <v>9.7542000000000009</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4186235227261783E-3</v>
       </c>
       <c r="AL5">
@@ -1180,7 +1207,7 @@
         <v>9.5838999999999999</v>
       </c>
       <c r="AU5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.24174959247089E-3</v>
       </c>
       <c r="AV5">
@@ -1193,7 +1220,7 @@
         <v>9.7431999999999999</v>
       </c>
       <c r="AZ5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2341889254960169E-3</v>
       </c>
       <c r="BA5">
@@ -1206,7 +1233,7 @@
         <v>9.798</v>
       </c>
       <c r="BJ5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1344897739778348E-3</v>
       </c>
       <c r="BK5">
@@ -1218,17 +1245,26 @@
     </row>
     <row r="6" spans="1:64">
       <c r="A6">
-        <v>0.01</v>
-      </c>
-      <c r="B6" s="1" t="e">
-        <f>C6/D6^3</f>
-        <v>#DIV/0!</v>
+        <v>1.03E-2</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6491331993230909E-6</v>
+      </c>
+      <c r="C6">
+        <v>2001.9509</v>
+      </c>
+      <c r="D6">
+        <v>592</v>
+      </c>
+      <c r="E6">
+        <v>593</v>
       </c>
       <c r="F6">
         <v>0.51980000000000004</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9345804089051364E-4</v>
       </c>
       <c r="H6">
@@ -1241,7 +1277,7 @@
         <v>14.216100000000001</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9917685546874996E-3</v>
       </c>
       <c r="M6">
@@ -1254,7 +1290,7 @@
         <v>13.8584</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7497774917629612E-3</v>
       </c>
       <c r="W6">
@@ -1267,7 +1303,7 @@
         <v>14.373799999999999</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.738136688738731E-3</v>
       </c>
       <c r="AB6">
@@ -1280,7 +1316,7 @@
         <v>14.0288</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4174751361417148E-3</v>
       </c>
       <c r="AL6">
@@ -1293,7 +1329,7 @@
         <v>14.048299999999999</v>
       </c>
       <c r="AU6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.222639204625565E-3</v>
       </c>
       <c r="AV6">
@@ -1306,7 +1342,7 @@
         <v>14.126300000000001</v>
       </c>
       <c r="AZ6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1983604592172293E-3</v>
       </c>
       <c r="BA6">
@@ -1319,7 +1355,7 @@
         <v>14.0624</v>
       </c>
       <c r="BJ6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0312287227255139E-3</v>
       </c>
       <c r="BK6">
@@ -1331,17 +1367,26 @@
     </row>
     <row r="7" spans="1:64">
       <c r="A7">
-        <v>0.03</v>
-      </c>
-      <c r="B7" s="1" t="e">
-        <f>C7/D7^3</f>
-        <v>#DIV/0!</v>
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9021988943863265E-5</v>
+      </c>
+      <c r="C7">
+        <v>2000.2245</v>
+      </c>
+      <c r="D7">
+        <v>410</v>
+      </c>
+      <c r="E7">
+        <v>413</v>
       </c>
       <c r="F7">
         <v>0.72519999999999996</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0184665321825813E-4</v>
       </c>
       <c r="H7">
@@ -1354,7 +1399,7 @@
         <v>25.3126</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6520265112965608E-3</v>
       </c>
       <c r="M7">
@@ -1367,7 +1412,7 @@
         <v>25.8262</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4048687592865236E-3</v>
       </c>
       <c r="W7">
@@ -1380,7 +1425,7 @@
         <v>25.855599999999999</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3019515332924381E-3</v>
       </c>
       <c r="AB7">
@@ -1393,7 +1438,7 @@
         <v>26.050799999999999</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.901442397742547E-3</v>
       </c>
       <c r="AL7">
@@ -1406,7 +1451,7 @@
         <v>26.1372</v>
       </c>
       <c r="AU7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5883618589524005E-3</v>
       </c>
       <c r="AV7">
@@ -1419,7 +1464,7 @@
         <v>26.503699999999998</v>
       </c>
       <c r="AZ7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.5925652847855717E-3</v>
       </c>
       <c r="BA7">
@@ -1432,7 +1477,7 @@
         <v>26.626300000000001</v>
       </c>
       <c r="BJ7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.3597388331618652E-3</v>
       </c>
       <c r="BK7">
@@ -1444,17 +1489,26 @@
     </row>
     <row r="8" spans="1:64">
       <c r="A8">
-        <v>0.05</v>
-      </c>
-      <c r="B8" s="1" t="e">
-        <f>C8/D8^3</f>
-        <v>#DIV/0!</v>
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8168538856024773E-5</v>
+      </c>
+      <c r="C8">
+        <v>1995.2245</v>
+      </c>
+      <c r="D8">
+        <v>346</v>
+      </c>
+      <c r="E8">
+        <v>349</v>
       </c>
       <c r="F8">
         <v>1.054</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0158792192000001E-3</v>
       </c>
       <c r="H8">
@@ -1467,7 +1521,7 @@
         <v>62.979799999999997</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3190189503632576E-2</v>
       </c>
       <c r="M8">
@@ -1480,7 +1534,7 @@
         <v>63.472000000000001</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.264287184812213E-2</v>
       </c>
       <c r="W8">
@@ -1493,7 +1547,7 @@
         <v>62.996400000000001</v>
       </c>
       <c r="AA8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2522783041924158E-2</v>
       </c>
       <c r="AB8">
@@ -1506,7 +1560,7 @@
         <v>51.951000000000001</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0219640514166222E-2</v>
       </c>
       <c r="AL8">
@@ -1519,7 +1573,7 @@
         <v>52.004399999999997</v>
       </c>
       <c r="AU8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7096411999279385E-3</v>
       </c>
       <c r="AV8">
@@ -1532,7 +1586,7 @@
         <v>52.290700000000001</v>
       </c>
       <c r="AZ8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.5825101334743208E-3</v>
       </c>
       <c r="BA8">
@@ -1545,7 +1599,7 @@
         <v>53.247599999999998</v>
       </c>
       <c r="BJ8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.3495443456670865E-3</v>
       </c>
       <c r="BK8">
@@ -1557,17 +1611,26 @@
     </row>
     <row r="9" spans="1:64">
       <c r="A9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B9" s="1" t="e">
-        <f>C9/D9^3</f>
-        <v>#DIV/0!</v>
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8077136814346208E-5</v>
+      </c>
+      <c r="C9">
+        <v>2002.6782000000001</v>
+      </c>
+      <c r="D9">
+        <v>308.7</v>
+      </c>
+      <c r="E9">
+        <v>311.7</v>
       </c>
       <c r="F9">
         <v>2.1093000000000002</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0830337165722457E-3</v>
       </c>
       <c r="H9">
@@ -1580,7 +1643,7 @@
         <v>85.995599999999996</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5923534400000001E-2</v>
       </c>
       <c r="M9">
@@ -1593,7 +1656,7 @@
         <v>87.375799999999998</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5126884535265134E-2</v>
       </c>
       <c r="W9">
@@ -1606,7 +1669,7 @@
         <v>87.375799999999998</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5126884535265134E-2</v>
       </c>
       <c r="AB9">
@@ -1619,7 +1682,7 @@
         <v>67.136399999999995</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2156448384673177E-2</v>
       </c>
       <c r="AL9">
@@ -1632,7 +1695,7 @@
         <v>68.642600000000002</v>
       </c>
       <c r="AU9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1785119231722593E-2</v>
       </c>
       <c r="AV9">
@@ -1645,7 +1708,7 @@
         <v>70.361000000000004</v>
       </c>
       <c r="AZ9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.8323442085749374E-3</v>
       </c>
       <c r="BA9">
@@ -1658,7 +1721,7 @@
         <v>68.386099999999999</v>
       </c>
       <c r="BJ9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.116534127550963E-2</v>
       </c>
       <c r="BK9">
@@ -1673,7 +1736,7 @@
         <v>0.1036</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10" si="8">C10/D10^3</f>
+        <f t="shared" ref="B10" si="9">C10/D10^3</f>
         <v>9.7143279238595396E-5</v>
       </c>
       <c r="C10">
@@ -1682,11 +1745,14 @@
       <c r="D10">
         <v>274</v>
       </c>
+      <c r="E10">
+        <v>278.8</v>
+      </c>
       <c r="F10">
         <v>3.3711000000000002</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4096351783877575E-3</v>
       </c>
       <c r="H10">
@@ -1699,7 +1765,7 @@
         <v>97.220100000000002</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7083852816428529E-2</v>
       </c>
       <c r="M10">
@@ -1712,7 +1778,7 @@
         <v>99.915700000000001</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6750374053322602E-2</v>
       </c>
       <c r="W10">
@@ -1725,7 +1791,7 @@
         <v>99.1511</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6506351671855591E-2</v>
       </c>
       <c r="AB10">
@@ -1738,7 +1804,7 @@
         <v>88.894300000000001</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.463286255395904E-2</v>
       </c>
       <c r="AL10">
@@ -1751,7 +1817,7 @@
         <v>89.793800000000005</v>
       </c>
       <c r="AU10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4045295388402898E-2</v>
       </c>
       <c r="AV10">
@@ -1764,7 +1830,7 @@
         <v>93.055899999999994</v>
       </c>
       <c r="AZ10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4117183779527762E-2</v>
       </c>
       <c r="BA10">
@@ -1777,7 +1843,7 @@
         <v>89.623400000000004</v>
       </c>
       <c r="BJ10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.341691142644502E-2</v>
       </c>
       <c r="BK10">
@@ -1792,7 +1858,7 @@
         <v>4.4962999999999997</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7016612173574968E-3</v>
       </c>
       <c r="H11">
@@ -1805,7 +1871,7 @@
         <v>111.3887</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8303896303530093E-2</v>
       </c>
       <c r="M11">
@@ -1818,7 +1884,7 @@
         <v>109.7045</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7475926912063754E-2</v>
       </c>
       <c r="W11">
@@ -1831,7 +1897,7 @@
         <v>111.2299</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7582056946915885E-2</v>
       </c>
       <c r="AB11">
@@ -1844,7 +1910,7 @@
         <v>104.4515</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.61707928E-2</v>
       </c>
       <c r="AL11">
@@ -1857,7 +1923,7 @@
         <v>103.81740000000001</v>
       </c>
       <c r="AU11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5407687908650757E-2</v>
       </c>
       <c r="AV11">
@@ -1870,7 +1936,7 @@
         <v>103.8372</v>
       </c>
       <c r="AZ11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5421308249821833E-2</v>
       </c>
       <c r="BA11">
@@ -1883,7 +1949,7 @@
         <v>105.02290000000001</v>
       </c>
       <c r="BJ11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4906399860166354E-2</v>
       </c>
       <c r="BK11">
@@ -1898,7 +1964,7 @@
         <v>5.2613000000000003</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4757817885214164E-3</v>
       </c>
       <c r="H12">
@@ -1913,7 +1979,7 @@
         <v>6.2336999999999998</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3660157950238957E-3</v>
       </c>
       <c r="H13">
@@ -2073,7 +2139,7 @@
   <dimension ref="A1:BL21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D3" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2286,17 +2352,23 @@
     </row>
     <row r="3" spans="1:64">
       <c r="A3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="B3" s="1" t="e">
-        <f>C3/D3^3</f>
-        <v>#DIV/0!</v>
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B9" si="0">C3/D3^3</f>
+        <v>2.8921103225058351E-6</v>
+      </c>
+      <c r="C3">
+        <v>2004.6782000000001</v>
+      </c>
+      <c r="D3">
+        <v>885</v>
       </c>
       <c r="F3">
         <v>0.1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G14" si="0">H3/I3^3</f>
+        <f t="shared" ref="G3:G14" si="1">H3/I3^3</f>
         <v>9.2043840025125387E-5</v>
       </c>
       <c r="H3">
@@ -2399,17 +2471,23 @@
     </row>
     <row r="4" spans="1:64">
       <c r="A4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="B4" s="1" t="e">
-        <f>C4/D4^3</f>
-        <v>#DIV/0!</v>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7997169838319052E-6</v>
+      </c>
+      <c r="C4">
+        <v>2000.6791000000001</v>
+      </c>
+      <c r="D4">
+        <v>747</v>
       </c>
       <c r="F4">
         <v>0.19489999999999999</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7641693058984912E-4</v>
       </c>
       <c r="H4">
@@ -2422,7 +2500,7 @@
         <v>3.8292999999999999</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L10" si="1">M4/N4^3</f>
+        <f t="shared" ref="L4:L10" si="2">M4/N4^3</f>
         <v>9.1598707328174791E-4</v>
       </c>
       <c r="M4">
@@ -2435,7 +2513,7 @@
         <v>3.8597000000000001</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" ref="V4:V10" si="2">W4/X4^3</f>
+        <f t="shared" ref="V4:V10" si="3">W4/X4^3</f>
         <v>8.753367003367003E-4</v>
       </c>
       <c r="W4">
@@ -2448,7 +2526,7 @@
         <v>3.8224999999999998</v>
       </c>
       <c r="AA4" s="1">
-        <f t="shared" ref="AA4:AA10" si="3">AB4/AC4^3</f>
+        <f t="shared" ref="AA4:AA10" si="4">AB4/AC4^3</f>
         <v>8.5395974814644155E-4</v>
       </c>
       <c r="AB4">
@@ -2461,7 +2539,7 @@
         <v>4.0373000000000001</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" ref="AK4:AK10" si="4">AL4/AM4^3</f>
+        <f t="shared" ref="AK4:AK10" si="5">AL4/AM4^3</f>
         <v>8.4755492760489766E-4</v>
       </c>
       <c r="AL4">
@@ -2474,7 +2552,7 @@
         <v>4.1012000000000004</v>
       </c>
       <c r="AU4" s="1">
-        <f t="shared" ref="AU4:AU10" si="5">AV4/AW4^3</f>
+        <f t="shared" ref="AU4:AU10" si="6">AV4/AW4^3</f>
         <v>8.1911798819113283E-4</v>
       </c>
       <c r="AV4">
@@ -2487,7 +2565,7 @@
         <v>4.1353</v>
       </c>
       <c r="AZ4" s="1">
-        <f t="shared" ref="AZ4:AZ10" si="6">BA4/BB4^3</f>
+        <f t="shared" ref="AZ4:AZ10" si="7">BA4/BB4^3</f>
         <v>8.0872754196694081E-4</v>
       </c>
       <c r="BA4">
@@ -2500,7 +2578,7 @@
         <v>4.0914999999999999</v>
       </c>
       <c r="BJ4" s="1">
-        <f t="shared" ref="BJ4:BJ10" si="7">BK4/BL4^3</f>
+        <f t="shared" ref="BJ4:BJ10" si="8">BK4/BL4^3</f>
         <v>7.749141358379981E-4</v>
       </c>
       <c r="BK4">
@@ -2512,17 +2590,23 @@
     </row>
     <row r="5" spans="1:64">
       <c r="A5">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="B5" s="1" t="e">
-        <f>C5/D5^3</f>
-        <v>#DIV/0!</v>
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7229522357242279E-6</v>
+      </c>
+      <c r="C5">
+        <v>2004.8617999999999</v>
+      </c>
+      <c r="D5">
+        <v>668.1</v>
       </c>
       <c r="F5">
         <v>0.2918</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5259466951687301E-4</v>
       </c>
       <c r="H5">
@@ -2535,7 +2619,7 @@
         <v>6.2556000000000003</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3235042327607463E-3</v>
       </c>
       <c r="M5">
@@ -2548,7 +2632,7 @@
         <v>6.5434999999999999</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.320754039615353E-3</v>
       </c>
       <c r="W5">
@@ -2561,7 +2645,7 @@
         <v>6.6199000000000003</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3083384422902049E-3</v>
       </c>
       <c r="AB5">
@@ -2574,7 +2658,7 @@
         <v>6.9206000000000003</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.270622420764029E-3</v>
       </c>
       <c r="AL5">
@@ -2587,7 +2671,7 @@
         <v>7.2358000000000002</v>
       </c>
       <c r="AU5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2546616794886644E-3</v>
       </c>
       <c r="AV5">
@@ -2600,7 +2684,7 @@
         <v>7.0602999999999998</v>
       </c>
       <c r="AZ5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.207693509032754E-3</v>
       </c>
       <c r="BA5">
@@ -2613,7 +2697,7 @@
         <v>7.1098999999999997</v>
       </c>
       <c r="BJ5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1815308287985379E-3</v>
       </c>
       <c r="BK5">
@@ -2625,17 +2709,23 @@
     </row>
     <row r="6" spans="1:64">
       <c r="A6">
-        <v>0.01</v>
-      </c>
-      <c r="B6" s="1" t="e">
-        <f>C6/D6^3</f>
-        <v>#DIV/0!</v>
+        <v>1.03E-2</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5925576984182021E-6</v>
+      </c>
+      <c r="C6">
+        <v>2000.3154999999999</v>
+      </c>
+      <c r="D6">
+        <v>593</v>
       </c>
       <c r="F6">
         <v>0.5121</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3191262577134935E-4</v>
       </c>
       <c r="H6">
@@ -2648,7 +2738,7 @@
         <v>16.639199999999999</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4484918210384071E-3</v>
       </c>
       <c r="M6">
@@ -2661,7 +2751,7 @@
         <v>17.206399999999999</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4173131028572504E-3</v>
       </c>
       <c r="W6">
@@ -2674,7 +2764,7 @@
         <v>17.007000000000001</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3644147492863934E-3</v>
       </c>
       <c r="AB6">
@@ -2687,7 +2777,7 @@
         <v>17.784199999999998</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3446447589702013E-3</v>
       </c>
       <c r="AL6">
@@ -2700,7 +2790,7 @@
         <v>18.9514</v>
       </c>
       <c r="AU6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3516089086872663E-3</v>
       </c>
       <c r="AV6">
@@ -2713,7 +2803,7 @@
         <v>18.792100000000001</v>
       </c>
       <c r="AZ6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3283393853710541E-3</v>
       </c>
       <c r="BA6">
@@ -2726,7 +2816,7 @@
         <v>19.0578</v>
       </c>
       <c r="BJ6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2685520305702699E-3</v>
       </c>
       <c r="BK6">
@@ -2738,17 +2828,23 @@
     </row>
     <row r="7" spans="1:64">
       <c r="A7">
-        <v>0.03</v>
-      </c>
-      <c r="B7" s="1" t="e">
-        <f>C7/D7^3</f>
-        <v>#DIV/0!</v>
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8435440205924062E-5</v>
+      </c>
+      <c r="C7">
+        <v>2003.1344999999999</v>
+      </c>
+      <c r="D7">
+        <v>413</v>
       </c>
       <c r="F7">
         <v>0.72060000000000002</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7811583725705072E-4</v>
       </c>
       <c r="H7">
@@ -2761,7 +2857,7 @@
         <v>28.022600000000001</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2096027947620611E-3</v>
       </c>
       <c r="M7">
@@ -2774,7 +2870,7 @@
         <v>30.060099999999998</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2519769495926074E-3</v>
       </c>
       <c r="W7">
@@ -2787,7 +2883,7 @@
         <v>30.25</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1961332229670301E-3</v>
       </c>
       <c r="AB7">
@@ -2800,7 +2896,7 @@
         <v>31.477900000000002</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1843350115771129E-3</v>
       </c>
       <c r="AL7">
@@ -2813,7 +2909,7 @@
         <v>34.390999999999998</v>
       </c>
       <c r="AU7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2071115352824537E-3</v>
       </c>
       <c r="AV7">
@@ -2826,7 +2922,7 @@
         <v>33.100999999999999</v>
       </c>
       <c r="AZ7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1592992822364078E-3</v>
       </c>
       <c r="BA7">
@@ -2839,7 +2935,7 @@
         <v>33.722099999999998</v>
       </c>
       <c r="BJ7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.1019138251977812E-3</v>
       </c>
       <c r="BK7">
@@ -2851,17 +2947,23 @@
     </row>
     <row r="8" spans="1:64">
       <c r="A8">
-        <v>0.05</v>
-      </c>
-      <c r="B8" s="1" t="e">
-        <f>C8/D8^3</f>
-        <v>#DIV/0!</v>
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7046108301650095E-5</v>
+      </c>
+      <c r="C8">
+        <v>1999.8617999999999</v>
+      </c>
+      <c r="D8">
+        <v>349</v>
       </c>
       <c r="F8">
         <v>0.88880000000000003</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.778274107403806E-4</v>
       </c>
       <c r="H8">
@@ -2874,7 +2976,7 @@
         <v>49.976700000000001</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0937144931739678E-3</v>
       </c>
       <c r="M8">
@@ -2887,7 +2989,7 @@
         <v>51.439799999999998</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0625534694010007E-3</v>
       </c>
       <c r="W8">
@@ -2900,7 +3002,7 @@
         <v>49.839100000000002</v>
       </c>
       <c r="AA8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0114521599405517E-3</v>
       </c>
       <c r="AB8">
@@ -2913,7 +3015,7 @@
         <v>54.530500000000004</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0217248166984285E-3</v>
       </c>
       <c r="AL8">
@@ -2926,7 +3028,7 @@
         <v>57.0199</v>
       </c>
       <c r="AU8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0446889236928551E-3</v>
       </c>
       <c r="AV8">
@@ -2939,7 +3041,7 @@
         <v>58.343299999999999</v>
       </c>
       <c r="AZ8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0339630693071345E-3</v>
       </c>
       <c r="BA8">
@@ -2952,7 +3054,7 @@
         <v>57.500999999999998</v>
       </c>
       <c r="BJ8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9729976823462288E-3</v>
       </c>
       <c r="BK8">
@@ -2964,17 +3066,23 @@
     </row>
     <row r="9" spans="1:64">
       <c r="A9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B9" s="1" t="e">
-        <f>C9/D9^3</f>
-        <v>#DIV/0!</v>
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5716106574598084E-5</v>
+      </c>
+      <c r="C9">
+        <v>1990.1335999999999</v>
+      </c>
+      <c r="D9">
+        <v>311.7</v>
       </c>
       <c r="F9">
         <v>1.5598000000000001</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0548282723809204E-3</v>
       </c>
       <c r="H9">
@@ -2987,7 +3095,7 @@
         <v>68.578400000000002</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6389337518890046E-3</v>
       </c>
       <c r="M9">
@@ -3000,7 +3108,7 @@
         <v>72.459000000000003</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6574134384176303E-3</v>
       </c>
       <c r="W9">
@@ -3013,7 +3121,7 @@
         <v>73.569900000000004</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6393534975728897E-3</v>
       </c>
       <c r="AB9">
@@ -3026,7 +3134,7 @@
         <v>79.846100000000007</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6865120727951192E-3</v>
       </c>
       <c r="AL9">
@@ -3039,7 +3147,7 @@
         <v>81.407799999999995</v>
       </c>
       <c r="AU9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.6318133537760842E-3</v>
       </c>
       <c r="AV9">
@@ -3052,7 +3160,7 @@
         <v>80.206800000000001</v>
       </c>
       <c r="AZ9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.6175608706514066E-3</v>
       </c>
       <c r="BA9">
@@ -3065,7 +3173,7 @@
         <v>83.064899999999994</v>
       </c>
       <c r="BJ9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6165522270702006E-3</v>
       </c>
       <c r="BK9">
@@ -3080,7 +3188,7 @@
         <v>0.1</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10" si="8">C10/D10^3</f>
+        <f t="shared" ref="B10" si="9">C10/D10^3</f>
         <v>9.2043840025125387E-5</v>
       </c>
       <c r="C10">
@@ -3093,7 +3201,7 @@
         <v>2.0432000000000001</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2902351128442143E-3</v>
       </c>
       <c r="H10">
@@ -3106,7 +3214,7 @@
         <v>98.968800000000002</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.285854812208491E-3</v>
       </c>
       <c r="M10">
@@ -3119,7 +3227,7 @@
         <v>105.13030000000001</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3028457475373875E-3</v>
       </c>
       <c r="W10">
@@ -3132,7 +3240,7 @@
         <v>103.28919999999999</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2574926753758315E-3</v>
       </c>
       <c r="AB10">
@@ -3145,7 +3253,7 @@
         <v>106.8145</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2441103026329731E-3</v>
       </c>
       <c r="AL10">
@@ -3158,7 +3266,7 @@
         <v>114.21850000000001</v>
       </c>
       <c r="AU10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.272494602684902E-3</v>
       </c>
       <c r="AV10">
@@ -3171,7 +3279,7 @@
         <v>114.80540000000001</v>
       </c>
       <c r="AZ10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.2623280555453462E-3</v>
       </c>
       <c r="BA10">
@@ -3184,7 +3292,7 @@
         <v>119.239</v>
       </c>
       <c r="BJ10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2788742161208038E-3</v>
       </c>
       <c r="BK10">
@@ -3199,7 +3307,7 @@
         <v>2.8759999999999999</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6136782266343217E-3</v>
       </c>
       <c r="H11">
@@ -3214,7 +3322,7 @@
         <v>4.2931999999999997</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0392040798650262E-3</v>
       </c>
       <c r="H12">
@@ -3229,7 +3337,7 @@
         <v>5.0247999999999999</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1873671073867639E-3</v>
       </c>
       <c r="H13">
@@ -3247,7 +3355,7 @@
         <v>5.7519999999999998</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3682689086776763E-3</v>
       </c>
       <c r="H14">
@@ -3402,8 +3510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F77F63-7358-4861-9669-CB838F1D87BA}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3447,7 +3555,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="B3" s="1">
-        <f>C3/D3^3</f>
+        <f t="shared" ref="B3:B10" si="0">C3/D3^3</f>
         <v>2.9067902871927532E-6</v>
       </c>
       <c r="C3">
@@ -3475,7 +3583,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="B4" s="1">
-        <f>C4/D4^3</f>
+        <f t="shared" si="0"/>
         <v>4.8351785350983342E-6</v>
       </c>
       <c r="C4">
@@ -3503,7 +3611,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="B5" s="1">
-        <f>C5/D5^3</f>
+        <f t="shared" si="0"/>
         <v>6.7579527374000769E-6</v>
       </c>
       <c r="C5">
@@ -3531,7 +3639,7 @@
         <v>1.03E-2</v>
       </c>
       <c r="B6" s="1">
-        <f>C6/D6^3</f>
+        <f t="shared" si="0"/>
         <v>9.6639591770039656E-6</v>
       </c>
       <c r="C6">
@@ -3559,7 +3667,7 @@
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="B7" s="1">
-        <f>C7/D7^3</f>
+        <f t="shared" si="0"/>
         <v>2.9694115215911302E-5</v>
       </c>
       <c r="C7">
@@ -3587,7 +3695,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
       <c r="B8" s="1">
-        <f>C8/D8^3</f>
+        <f t="shared" si="0"/>
         <v>4.9565266866974249E-5</v>
       </c>
       <c r="C8">
@@ -3603,7 +3711,7 @@
         <v>7.2099999999999997E-2</v>
       </c>
       <c r="B9" s="1">
-        <f>C9/D9^3</f>
+        <f t="shared" si="0"/>
         <v>7.0621274636031324E-5</v>
       </c>
       <c r="C9">
@@ -3619,7 +3727,7 @@
         <v>0.1055</v>
       </c>
       <c r="B10" s="1">
-        <f>C10/D10^3</f>
+        <f t="shared" si="0"/>
         <v>1.0223054009315834E-4</v>
       </c>
       <c r="C10">

--- a/H2_and_He.xlsx
+++ b/H2_and_He.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665784B2-2871-4CF0-905B-58603E159721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A4C9FD-73F8-410D-81D4-76F935876888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="740" windowWidth="15560" windowHeight="10660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,7 +666,7 @@
   <dimension ref="A1:BL21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -891,9 +891,6 @@
       <c r="D3">
         <v>885</v>
       </c>
-      <c r="E3">
-        <v>885</v>
-      </c>
       <c r="F3">
         <v>0.1036</v>
       </c>
@@ -920,6 +917,10 @@
       <c r="N3" s="1">
         <v>186</v>
       </c>
+      <c r="Q3" s="1" t="e">
+        <f t="shared" ref="Q3:Q11" si="3">R3/S3^3</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U3">
         <v>1.0195000000000001</v>
       </c>
@@ -937,7 +938,7 @@
         <v>1.0263</v>
       </c>
       <c r="AA3" s="1">
-        <f t="shared" ref="AA3:AA11" si="3">AB3/AC3^3</f>
+        <f t="shared" ref="AA3:AA11" si="4">AB3/AC3^3</f>
         <v>2.9030801866161248E-4</v>
       </c>
       <c r="AB3">
@@ -946,11 +947,15 @@
       <c r="AC3">
         <v>190</v>
       </c>
+      <c r="AF3" s="1" t="e">
+        <f t="shared" ref="AF3:AF11" si="5">AG3/AH3^3</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ3">
         <v>1.0175000000000001</v>
       </c>
       <c r="AK3" s="1">
-        <f t="shared" ref="AK3:AK11" si="4">AL3/AM3^3</f>
+        <f t="shared" ref="AK3:AK11" si="6">AL3/AM3^3</f>
         <v>2.6875289199076183E-4</v>
       </c>
       <c r="AL3">
@@ -958,6 +963,10 @@
       </c>
       <c r="AM3">
         <v>195</v>
+      </c>
+      <c r="AP3" s="1" t="e">
+        <f t="shared" ref="AP3:AP11" si="7">AQ3/AR3^3</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AT3">
         <v>1.0268999999999999</v>
@@ -985,6 +994,10 @@
       <c r="BB3">
         <v>201</v>
       </c>
+      <c r="BE3" s="1" t="e">
+        <f t="shared" ref="BE3:BE11" si="8">BF3/BG3^3</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI3">
         <v>1.0255000000000001</v>
       </c>
@@ -1013,9 +1026,6 @@
       <c r="D4">
         <v>744.5</v>
       </c>
-      <c r="E4">
-        <v>747</v>
-      </c>
       <c r="F4">
         <v>0.2069</v>
       </c>
@@ -1042,11 +1052,15 @@
       <c r="N4" s="1">
         <v>110</v>
       </c>
+      <c r="Q4" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U4">
         <v>4.9454000000000002</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" ref="V4:V11" si="5">W4/X4^3</f>
+        <f t="shared" ref="V4:V11" si="9">W4/X4^3</f>
         <v>1.3906076455907801E-3</v>
       </c>
       <c r="W4">
@@ -1059,7 +1073,7 @@
         <v>5.0174000000000003</v>
       </c>
       <c r="AA4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3832965901238966E-3</v>
       </c>
       <c r="AB4">
@@ -1068,11 +1082,15 @@
       <c r="AC4">
         <v>113</v>
       </c>
+      <c r="AF4" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ4">
         <v>4.9654999999999996</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2801272435501517E-3</v>
       </c>
       <c r="AL4">
@@ -1081,11 +1099,15 @@
       <c r="AM4">
         <v>115.7</v>
       </c>
+      <c r="AP4" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT4">
         <v>4.9600999999999997</v>
       </c>
       <c r="AU4" s="1">
-        <f t="shared" ref="AU4:AU11" si="6">AV4/AW4^3</f>
+        <f t="shared" ref="AU4:AU11" si="10">AV4/AW4^3</f>
         <v>1.1883691093837435E-3</v>
       </c>
       <c r="AV4">
@@ -1098,7 +1120,7 @@
         <v>5.0194000000000001</v>
       </c>
       <c r="AZ4" s="1">
-        <f t="shared" ref="AZ4:AZ11" si="7">BA4/BB4^3</f>
+        <f t="shared" ref="AZ4:AZ11" si="11">BA4/BB4^3</f>
         <v>1.1726090669011442E-3</v>
       </c>
       <c r="BA4">
@@ -1107,11 +1129,15 @@
       <c r="BB4">
         <v>119.5</v>
       </c>
+      <c r="BE4" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI4">
         <v>4.8895999999999997</v>
       </c>
       <c r="BJ4" s="1">
-        <f t="shared" ref="BJ4:BJ11" si="8">BK4/BL4^3</f>
+        <f t="shared" ref="BJ4:BJ11" si="12">BK4/BL4^3</f>
         <v>1.106269767398781E-3</v>
       </c>
       <c r="BK4">
@@ -1135,9 +1161,6 @@
       <c r="D5">
         <v>666.1</v>
       </c>
-      <c r="E5">
-        <v>668.1</v>
-      </c>
       <c r="F5">
         <v>0.30580000000000002</v>
       </c>
@@ -1164,11 +1187,15 @@
       <c r="N5" s="1">
         <v>90</v>
       </c>
+      <c r="Q5" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U5">
         <v>9.4514999999999993</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.6081152913202039E-3</v>
       </c>
       <c r="W5">
@@ -1181,7 +1208,7 @@
         <v>9.5813000000000006</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.585994262143503E-3</v>
       </c>
       <c r="AB5">
@@ -1190,11 +1217,15 @@
       <c r="AC5">
         <v>92</v>
       </c>
+      <c r="AF5" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ5">
         <v>9.7542000000000009</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4186235227261783E-3</v>
       </c>
       <c r="AL5">
@@ -1203,11 +1234,15 @@
       <c r="AM5">
         <v>94</v>
       </c>
+      <c r="AP5" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT5">
         <v>9.5838999999999999</v>
       </c>
       <c r="AU5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.24174959247089E-3</v>
       </c>
       <c r="AV5">
@@ -1220,7 +1255,7 @@
         <v>9.7431999999999999</v>
       </c>
       <c r="AZ5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.2341889254960169E-3</v>
       </c>
       <c r="BA5">
@@ -1229,11 +1264,15 @@
       <c r="BB5">
         <v>96.2</v>
       </c>
+      <c r="BE5" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI5">
         <v>9.798</v>
       </c>
       <c r="BJ5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.1344897739778348E-3</v>
       </c>
       <c r="BK5">
@@ -1257,9 +1296,6 @@
       <c r="D6">
         <v>592</v>
       </c>
-      <c r="E6">
-        <v>593</v>
-      </c>
       <c r="F6">
         <v>0.51980000000000004</v>
       </c>
@@ -1286,11 +1322,15 @@
       <c r="N6" s="1">
         <v>80</v>
       </c>
+      <c r="Q6" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U6">
         <v>13.8584</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.7497774917629612E-3</v>
       </c>
       <c r="W6">
@@ -1303,7 +1343,7 @@
         <v>14.373799999999999</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.738136688738731E-3</v>
       </c>
       <c r="AB6">
@@ -1312,11 +1352,15 @@
       <c r="AC6">
         <v>81</v>
       </c>
+      <c r="AF6" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ6">
         <v>14.0288</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.4174751361417148E-3</v>
       </c>
       <c r="AL6">
@@ -1325,11 +1369,15 @@
       <c r="AM6">
         <v>83.5</v>
       </c>
+      <c r="AP6" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT6">
         <v>14.048299999999999</v>
       </c>
       <c r="AU6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.222639204625565E-3</v>
       </c>
       <c r="AV6">
@@ -1342,7 +1390,7 @@
         <v>14.126300000000001</v>
       </c>
       <c r="AZ6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.1983604592172293E-3</v>
       </c>
       <c r="BA6">
@@ -1351,11 +1399,15 @@
       <c r="BB6">
         <v>85.4</v>
       </c>
+      <c r="BE6" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI6">
         <v>14.0624</v>
       </c>
       <c r="BJ6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.0312287227255139E-3</v>
       </c>
       <c r="BK6">
@@ -1379,9 +1431,6 @@
       <c r="D7">
         <v>410</v>
       </c>
-      <c r="E7">
-        <v>413</v>
-      </c>
       <c r="F7">
         <v>0.72519999999999996</v>
       </c>
@@ -1408,11 +1457,15 @@
       <c r="N7" s="1">
         <v>68</v>
       </c>
+      <c r="Q7" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U7">
         <v>25.8262</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.4048687592865236E-3</v>
       </c>
       <c r="W7">
@@ -1425,7 +1478,7 @@
         <v>25.855599999999999</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3019515332924381E-3</v>
       </c>
       <c r="AB7">
@@ -1434,11 +1487,15 @@
       <c r="AC7">
         <v>68.3</v>
       </c>
+      <c r="AF7" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ7">
         <v>26.050799999999999</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.901442397742547E-3</v>
       </c>
       <c r="AL7">
@@ -1447,11 +1504,15 @@
       <c r="AM7">
         <v>70.3</v>
       </c>
+      <c r="AP7" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT7">
         <v>26.1372</v>
       </c>
       <c r="AU7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.5883618589524005E-3</v>
       </c>
       <c r="AV7">
@@ -1464,7 +1525,7 @@
         <v>26.503699999999998</v>
       </c>
       <c r="AZ7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.5925652847855717E-3</v>
       </c>
       <c r="BA7">
@@ -1473,11 +1534,15 @@
       <c r="BB7">
         <v>71.2</v>
       </c>
+      <c r="BE7" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI7">
         <v>26.626300000000001</v>
       </c>
       <c r="BJ7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.3597388331618652E-3</v>
       </c>
       <c r="BK7">
@@ -1501,9 +1566,6 @@
       <c r="D8">
         <v>346</v>
       </c>
-      <c r="E8">
-        <v>349</v>
-      </c>
       <c r="F8">
         <v>1.054</v>
       </c>
@@ -1530,11 +1592,15 @@
       <c r="N8" s="1">
         <v>54</v>
       </c>
+      <c r="Q8" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U8">
         <v>63.472000000000001</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.264287184812213E-2</v>
       </c>
       <c r="W8">
@@ -1547,7 +1613,7 @@
         <v>62.996400000000001</v>
       </c>
       <c r="AA8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2522783041924158E-2</v>
       </c>
       <c r="AB8">
@@ -1556,11 +1622,15 @@
       <c r="AC8">
         <v>54.5</v>
       </c>
+      <c r="AF8" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ8">
         <v>51.951000000000001</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0219640514166222E-2</v>
       </c>
       <c r="AL8">
@@ -1569,11 +1639,15 @@
       <c r="AM8">
         <v>58</v>
       </c>
+      <c r="AP8" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT8">
         <v>52.004399999999997</v>
       </c>
       <c r="AU8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9.7096411999279385E-3</v>
       </c>
       <c r="AV8">
@@ -1586,7 +1660,7 @@
         <v>52.290700000000001</v>
       </c>
       <c r="AZ8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.5825101334743208E-3</v>
       </c>
       <c r="BA8">
@@ -1595,11 +1669,15 @@
       <c r="BB8">
         <v>59.4</v>
       </c>
+      <c r="BE8" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI8">
         <v>53.247599999999998</v>
       </c>
       <c r="BJ8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>9.3495443456670865E-3</v>
       </c>
       <c r="BK8">
@@ -1623,9 +1701,6 @@
       <c r="D9">
         <v>308.7</v>
       </c>
-      <c r="E9">
-        <v>311.7</v>
-      </c>
       <c r="F9">
         <v>2.1093000000000002</v>
       </c>
@@ -1652,11 +1727,15 @@
       <c r="N9" s="1">
         <v>50</v>
       </c>
+      <c r="Q9" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U9">
         <v>87.375799999999998</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5126884535265134E-2</v>
       </c>
       <c r="W9">
@@ -1669,7 +1748,7 @@
         <v>87.375799999999998</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5126884535265134E-2</v>
       </c>
       <c r="AB9">
@@ -1678,11 +1757,15 @@
       <c r="AC9">
         <v>50.8</v>
       </c>
+      <c r="AF9" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ9">
         <v>67.136399999999995</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2156448384673177E-2</v>
       </c>
       <c r="AL9">
@@ -1691,11 +1774,15 @@
       <c r="AM9">
         <v>55</v>
       </c>
+      <c r="AP9" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT9">
         <v>68.642600000000002</v>
       </c>
       <c r="AU9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.1785119231722593E-2</v>
       </c>
       <c r="AV9">
@@ -1708,7 +1795,7 @@
         <v>70.361000000000004</v>
       </c>
       <c r="AZ9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.8323442085749374E-3</v>
       </c>
       <c r="BA9">
@@ -1717,11 +1804,15 @@
       <c r="BB9">
         <v>66.7</v>
       </c>
+      <c r="BE9" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI9">
         <v>68.386099999999999</v>
       </c>
       <c r="BJ9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.116534127550963E-2</v>
       </c>
       <c r="BK9">
@@ -1736,7 +1827,7 @@
         <v>0.1036</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10" si="9">C10/D10^3</f>
+        <f t="shared" ref="B10" si="13">C10/D10^3</f>
         <v>9.7143279238595396E-5</v>
       </c>
       <c r="C10">
@@ -1744,9 +1835,6 @@
       </c>
       <c r="D10">
         <v>274</v>
-      </c>
-      <c r="E10">
-        <v>278.8</v>
       </c>
       <c r="F10">
         <v>3.3711000000000002</v>
@@ -1774,11 +1862,15 @@
       <c r="N10" s="1">
         <v>49</v>
       </c>
+      <c r="Q10" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U10">
         <v>99.915700000000001</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6750374053322602E-2</v>
       </c>
       <c r="W10">
@@ -1791,7 +1883,7 @@
         <v>99.1511</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6506351671855591E-2</v>
       </c>
       <c r="AB10">
@@ -1800,11 +1892,15 @@
       <c r="AC10">
         <v>49.6</v>
       </c>
+      <c r="AF10" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ10">
         <v>88.894300000000001</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.463286255395904E-2</v>
       </c>
       <c r="AL10">
@@ -1813,11 +1909,15 @@
       <c r="AM10">
         <v>51.5</v>
       </c>
+      <c r="AP10" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT10">
         <v>89.793800000000005</v>
       </c>
       <c r="AU10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4045295388402898E-2</v>
       </c>
       <c r="AV10">
@@ -1830,7 +1930,7 @@
         <v>93.055899999999994</v>
       </c>
       <c r="AZ10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.4117183779527762E-2</v>
       </c>
       <c r="BA10">
@@ -1839,11 +1939,15 @@
       <c r="BB10">
         <v>52.2</v>
       </c>
+      <c r="BE10" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI10">
         <v>89.623400000000004</v>
       </c>
       <c r="BJ10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.341691142644502E-2</v>
       </c>
       <c r="BK10">
@@ -1880,11 +1984,15 @@
       <c r="N11" s="1">
         <v>48</v>
       </c>
+      <c r="Q11" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U11">
         <v>109.7045</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7475926912063754E-2</v>
       </c>
       <c r="W11">
@@ -1897,7 +2005,7 @@
         <v>111.2299</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7582056946915885E-2</v>
       </c>
       <c r="AB11">
@@ -1906,11 +2014,15 @@
       <c r="AC11">
         <v>48.6</v>
       </c>
+      <c r="AF11" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ11">
         <v>104.4515</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.61707928E-2</v>
       </c>
       <c r="AL11">
@@ -1919,11 +2031,15 @@
       <c r="AM11">
         <v>50</v>
       </c>
+      <c r="AP11" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT11">
         <v>103.81740000000001</v>
       </c>
       <c r="AU11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.5407687908650757E-2</v>
       </c>
       <c r="AV11">
@@ -1936,7 +2052,7 @@
         <v>103.8372</v>
       </c>
       <c r="AZ11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.5421308249821833E-2</v>
       </c>
       <c r="BA11">
@@ -1945,11 +2061,15 @@
       <c r="BB11">
         <v>50.6</v>
       </c>
+      <c r="BE11" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI11">
         <v>105.02290000000001</v>
       </c>
       <c r="BJ11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.4906399860166354E-2</v>
       </c>
       <c r="BK11">
@@ -2138,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C48D848-6634-4F6B-BFDC-8628502FF890}">
   <dimension ref="A1:BL21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D10"/>
+    <sheetView topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BB13" sqref="BB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2390,6 +2510,10 @@
       <c r="N3">
         <v>194</v>
       </c>
+      <c r="Q3" s="1" t="e">
+        <f>R3/S3^3</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U3">
         <v>0.97119999999999995</v>
       </c>
@@ -2416,6 +2540,10 @@
       <c r="AC3">
         <v>198</v>
       </c>
+      <c r="AF3" s="1" t="e">
+        <f>AG3/AH3^3</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ3">
         <v>0.96640000000000004</v>
       </c>
@@ -2429,6 +2557,10 @@
       <c r="AM3">
         <v>202.5</v>
       </c>
+      <c r="AP3" s="1" t="e">
+        <f>AQ3/AR3^3</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT3">
         <v>0.98160000000000003</v>
       </c>
@@ -2455,6 +2587,10 @@
       <c r="BB3">
         <v>208</v>
       </c>
+      <c r="BE3" s="1" t="e">
+        <f>BF3/BG3^3</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI3">
         <v>0.96960000000000002</v>
       </c>
@@ -2509,11 +2645,15 @@
       <c r="N4">
         <v>130</v>
       </c>
+      <c r="Q4" s="1" t="e">
+        <f t="shared" ref="Q4:Q10" si="3">R4/S4^3</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U4">
         <v>3.8597000000000001</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" ref="V4:V10" si="3">W4/X4^3</f>
+        <f t="shared" ref="V4:V10" si="4">W4/X4^3</f>
         <v>8.753367003367003E-4</v>
       </c>
       <c r="W4">
@@ -2526,7 +2666,7 @@
         <v>3.8224999999999998</v>
       </c>
       <c r="AA4" s="1">
-        <f t="shared" ref="AA4:AA10" si="4">AB4/AC4^3</f>
+        <f t="shared" ref="AA4:AA10" si="5">AB4/AC4^3</f>
         <v>8.5395974814644155E-4</v>
       </c>
       <c r="AB4">
@@ -2535,11 +2675,15 @@
       <c r="AC4">
         <v>133</v>
       </c>
+      <c r="AF4" s="1" t="e">
+        <f t="shared" ref="AF4:AF10" si="6">AG4/AH4^3</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ4">
         <v>4.0373000000000001</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" ref="AK4:AK10" si="5">AL4/AM4^3</f>
+        <f t="shared" ref="AK4:AK10" si="7">AL4/AM4^3</f>
         <v>8.4755492760489766E-4</v>
       </c>
       <c r="AL4">
@@ -2548,11 +2692,15 @@
       <c r="AM4">
         <v>133.30000000000001</v>
       </c>
+      <c r="AP4" s="1" t="e">
+        <f t="shared" ref="AP4:AP10" si="8">AQ4/AR4^3</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT4">
         <v>4.1012000000000004</v>
       </c>
       <c r="AU4" s="1">
-        <f t="shared" ref="AU4:AU10" si="6">AV4/AW4^3</f>
+        <f t="shared" ref="AU4:AU10" si="9">AV4/AW4^3</f>
         <v>8.1911798819113283E-4</v>
       </c>
       <c r="AV4">
@@ -2565,7 +2713,7 @@
         <v>4.1353</v>
       </c>
       <c r="AZ4" s="1">
-        <f t="shared" ref="AZ4:AZ10" si="7">BA4/BB4^3</f>
+        <f t="shared" ref="AZ4:AZ10" si="10">BA4/BB4^3</f>
         <v>8.0872754196694081E-4</v>
       </c>
       <c r="BA4">
@@ -2574,11 +2722,15 @@
       <c r="BB4">
         <v>135.5</v>
       </c>
+      <c r="BE4" s="1" t="e">
+        <f t="shared" ref="BE4:BE10" si="11">BF4/BG4^3</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI4">
         <v>4.0914999999999999</v>
       </c>
       <c r="BJ4" s="1">
-        <f t="shared" ref="BJ4:BJ10" si="8">BK4/BL4^3</f>
+        <f t="shared" ref="BJ4:BJ10" si="12">BK4/BL4^3</f>
         <v>7.749141358379981E-4</v>
       </c>
       <c r="BK4">
@@ -2628,11 +2780,15 @@
       <c r="N5">
         <v>115</v>
       </c>
+      <c r="Q5" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U5">
         <v>6.5434999999999999</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.320754039615353E-3</v>
       </c>
       <c r="W5">
@@ -2645,7 +2801,7 @@
         <v>6.6199000000000003</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3083384422902049E-3</v>
       </c>
       <c r="AB5">
@@ -2654,11 +2810,15 @@
       <c r="AC5">
         <v>115.5</v>
       </c>
+      <c r="AF5" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ5">
         <v>6.9206000000000003</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.270622420764029E-3</v>
       </c>
       <c r="AL5">
@@ -2667,11 +2827,15 @@
       <c r="AM5">
         <v>116.5</v>
       </c>
+      <c r="AP5" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT5">
         <v>7.2358000000000002</v>
       </c>
       <c r="AU5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2546616794886644E-3</v>
       </c>
       <c r="AV5">
@@ -2684,7 +2848,7 @@
         <v>7.0602999999999998</v>
       </c>
       <c r="AZ5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.207693509032754E-3</v>
       </c>
       <c r="BA5">
@@ -2693,11 +2857,15 @@
       <c r="BB5">
         <v>118.5</v>
       </c>
+      <c r="BE5" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI5">
         <v>7.1098999999999997</v>
       </c>
       <c r="BJ5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.1815308287985379E-3</v>
       </c>
       <c r="BK5">
@@ -2747,11 +2915,15 @@
       <c r="N6">
         <v>94.1</v>
       </c>
+      <c r="Q6" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U6">
         <v>17.206399999999999</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4173131028572504E-3</v>
       </c>
       <c r="W6">
@@ -2764,7 +2936,7 @@
         <v>17.007000000000001</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3644147492863934E-3</v>
       </c>
       <c r="AB6">
@@ -2773,11 +2945,15 @@
       <c r="AC6">
         <v>94.5</v>
       </c>
+      <c r="AF6" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ6">
         <v>17.784199999999998</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.3446447589702013E-3</v>
       </c>
       <c r="AL6">
@@ -2786,11 +2962,15 @@
       <c r="AM6">
         <v>94.7</v>
       </c>
+      <c r="AP6" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT6">
         <v>18.9514</v>
       </c>
       <c r="AU6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.3516089086872663E-3</v>
       </c>
       <c r="AV6">
@@ -2803,7 +2983,7 @@
         <v>18.792100000000001</v>
       </c>
       <c r="AZ6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.3283393853710541E-3</v>
       </c>
       <c r="BA6">
@@ -2812,11 +2992,15 @@
       <c r="BB6">
         <v>95.2</v>
       </c>
+      <c r="BE6" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI6">
         <v>19.0578</v>
       </c>
       <c r="BJ6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.2685520305702699E-3</v>
       </c>
       <c r="BK6">
@@ -2866,11 +3050,15 @@
       <c r="N7">
         <v>85.5</v>
       </c>
+      <c r="Q7" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U7">
         <v>30.060099999999998</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2519769495926074E-3</v>
       </c>
       <c r="W7">
@@ -2883,7 +3071,7 @@
         <v>30.25</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1961332229670301E-3</v>
       </c>
       <c r="AB7">
@@ -2892,11 +3080,15 @@
       <c r="AC7">
         <v>85.7</v>
       </c>
+      <c r="AF7" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ7">
         <v>31.477900000000002</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.1843350115771129E-3</v>
       </c>
       <c r="AL7">
@@ -2905,11 +3097,15 @@
       <c r="AM7">
         <v>85.9</v>
       </c>
+      <c r="AP7" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT7">
         <v>34.390999999999998</v>
       </c>
       <c r="AU7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.2071115352824537E-3</v>
       </c>
       <c r="AV7">
@@ -2922,7 +3118,7 @@
         <v>33.100999999999999</v>
       </c>
       <c r="AZ7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.1592992822364078E-3</v>
       </c>
       <c r="BA7">
@@ -2931,11 +3127,15 @@
       <c r="BB7">
         <v>86.2</v>
       </c>
+      <c r="BE7" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI7">
         <v>33.722099999999998</v>
       </c>
       <c r="BJ7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.1019138251977812E-3</v>
       </c>
       <c r="BK7">
@@ -2985,11 +3185,15 @@
       <c r="N8">
         <v>79</v>
       </c>
+      <c r="Q8" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U8">
         <v>51.439799999999998</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0625534694010007E-3</v>
       </c>
       <c r="W8">
@@ -3002,7 +3206,7 @@
         <v>49.839100000000002</v>
       </c>
       <c r="AA8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0114521599405517E-3</v>
       </c>
       <c r="AB8">
@@ -3011,11 +3215,15 @@
       <c r="AC8">
         <v>79.400000000000006</v>
       </c>
+      <c r="AF8" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ8">
         <v>54.530500000000004</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0217248166984285E-3</v>
       </c>
       <c r="AL8">
@@ -3024,11 +3232,15 @@
       <c r="AM8">
         <v>79.3</v>
       </c>
+      <c r="AP8" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT8">
         <v>57.0199</v>
       </c>
       <c r="AU8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.0446889236928551E-3</v>
       </c>
       <c r="AV8">
@@ -3041,7 +3253,7 @@
         <v>58.343299999999999</v>
       </c>
       <c r="AZ8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0339630693071345E-3</v>
       </c>
       <c r="BA8">
@@ -3050,11 +3262,15 @@
       <c r="BB8">
         <v>79.400000000000006</v>
       </c>
+      <c r="BE8" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI8">
         <v>57.500999999999998</v>
       </c>
       <c r="BJ8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.9729976823462288E-3</v>
       </c>
       <c r="BK8">
@@ -3104,11 +3320,15 @@
       <c r="N9">
         <v>75.5</v>
       </c>
+      <c r="Q9" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U9">
         <v>72.459000000000003</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6574134384176303E-3</v>
       </c>
       <c r="W9">
@@ -3121,7 +3341,7 @@
         <v>73.569900000000004</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6393534975728897E-3</v>
       </c>
       <c r="AB9">
@@ -3130,11 +3350,15 @@
       <c r="AC9">
         <v>75.7</v>
       </c>
+      <c r="AF9" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ9">
         <v>79.846100000000007</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6865120727951192E-3</v>
       </c>
       <c r="AL9">
@@ -3143,11 +3367,15 @@
       <c r="AM9">
         <v>75.7</v>
       </c>
+      <c r="AP9" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT9">
         <v>81.407799999999995</v>
       </c>
       <c r="AU9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.6318133537760842E-3</v>
       </c>
       <c r="AV9">
@@ -3160,7 +3388,7 @@
         <v>80.206800000000001</v>
       </c>
       <c r="AZ9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.6175608706514066E-3</v>
       </c>
       <c r="BA9">
@@ -3169,11 +3397,15 @@
       <c r="BB9">
         <v>75.7</v>
       </c>
+      <c r="BE9" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI9">
         <v>83.064899999999994</v>
       </c>
       <c r="BJ9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.6165522270702006E-3</v>
       </c>
       <c r="BK9">
@@ -3188,7 +3420,7 @@
         <v>0.1</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10" si="9">C10/D10^3</f>
+        <f t="shared" ref="B10" si="13">C10/D10^3</f>
         <v>9.2043840025125387E-5</v>
       </c>
       <c r="C10">
@@ -3223,11 +3455,15 @@
       <c r="N10">
         <v>72.400000000000006</v>
       </c>
+      <c r="Q10" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U10">
         <v>105.13030000000001</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3028457475373875E-3</v>
       </c>
       <c r="W10">
@@ -3240,7 +3476,7 @@
         <v>103.28919999999999</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2574926753758315E-3</v>
       </c>
       <c r="AB10">
@@ -3249,11 +3485,15 @@
       <c r="AC10">
         <v>72.599999999999994</v>
       </c>
+      <c r="AF10" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AJ10">
         <v>106.8145</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.2441103026329731E-3</v>
       </c>
       <c r="AL10">
@@ -3262,11 +3502,15 @@
       <c r="AM10">
         <v>72.7</v>
       </c>
+      <c r="AP10" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT10">
         <v>114.21850000000001</v>
       </c>
       <c r="AU10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.272494602684902E-3</v>
       </c>
       <c r="AV10">
@@ -3279,7 +3523,7 @@
         <v>114.80540000000001</v>
       </c>
       <c r="AZ10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.2623280555453462E-3</v>
       </c>
       <c r="BA10">
@@ -3288,11 +3532,15 @@
       <c r="BB10">
         <v>72.7</v>
       </c>
+      <c r="BE10" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BI10">
         <v>119.239</v>
       </c>
       <c r="BJ10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.2788742161208038E-3</v>
       </c>
       <c r="BK10">
@@ -3511,7 +3759,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D3:D10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/H2_and_He.xlsx
+++ b/H2_and_He.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FFABF9-9049-4856-88AE-55AE7657D67E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438A7F09-6628-497C-A9DA-443519F92B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="585" windowWidth="27195" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="400" windowWidth="15560" windowHeight="10640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="122">
   <si>
     <t>233.15K</t>
   </si>
@@ -384,6 +384,26 @@
   </si>
   <si>
     <t xml:space="preserve">        K6      =5.0679e-07 ± 1.14e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        K0      =5.0216e-07 ± 1.71e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        K1      =0.00089675 ± 7.21e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        K2      =0.00083511 ± 0.000638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        K3      =-0.0009123 ± 0.00147</t>
+  </si>
+  <si>
+    <t>n/A^3 = K0 + K1*(MPa-X0)+K2*(MPa-X0)^2+K3*(MPa-X0)^3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>358.15K</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -399,24 +419,8 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+K6*(MPa-X0)^6+K7*(MPa-X0)^7</t>
+      <t>+K6*(MPa-X0)^6</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        K0      =5.0216e-07 ± 1.71e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        K1      =0.00089675 ± 7.21e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        K2      =0.00083511 ± 0.000638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        K3      =-0.0009123 ± 0.00147</t>
-  </si>
-  <si>
-    <t>n/A^3 = K0 + K1*(MPa-X0)+K2*(MPa-X0)^2+K3*(MPa-X0)^3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -446,19 +450,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="7"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -491,8 +494,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,15 +778,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG32"/>
+  <dimension ref="A1:BL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:64">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -826,8 +829,11 @@
       <c r="BD1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:59">
+      <c r="BI1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -973,8 +979,20 @@
       <c r="BG2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:59">
+      <c r="BI2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64">
       <c r="A3">
         <v>3.0999999999999999E-3</v>
       </c>
@@ -1095,8 +1113,21 @@
       <c r="BG3">
         <v>203.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:59">
+      <c r="BI3">
+        <v>1.0161</v>
+      </c>
+      <c r="BJ3" s="1">
+        <f>BK3/BL3^3</f>
+        <v>2.0467049930191839E-4</v>
+      </c>
+      <c r="BK3">
+        <v>2000.2227</v>
+      </c>
+      <c r="BL3">
+        <v>213.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64">
       <c r="A4">
         <v>5.1999999999999998E-3</v>
       </c>
@@ -1217,8 +1248,21 @@
       <c r="BG4">
         <v>121.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:59">
+      <c r="BI4">
+        <v>5.0015999999999998</v>
+      </c>
+      <c r="BJ4" s="1">
+        <f t="shared" ref="BJ4:BJ11" si="12">BK4/BL4^3</f>
+        <v>9.8245471795914831E-4</v>
+      </c>
+      <c r="BK4">
+        <v>2002.9509</v>
+      </c>
+      <c r="BL4">
+        <v>126.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64">
       <c r="A5">
         <v>7.1999999999999998E-3</v>
       </c>
@@ -1339,8 +1383,21 @@
       <c r="BG5">
         <v>97.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:59">
+      <c r="BI5">
+        <v>9.6809999999999992</v>
+      </c>
+      <c r="BJ5" s="1">
+        <f t="shared" si="12"/>
+        <v>1.8528781547408526E-3</v>
+      </c>
+      <c r="BK5">
+        <v>2007.05</v>
+      </c>
+      <c r="BL5">
+        <v>102.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64">
       <c r="A6">
         <v>1.03E-2</v>
       </c>
@@ -1461,8 +1518,21 @@
       <c r="BG6">
         <v>87.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:59">
+      <c r="BI6">
+        <v>14.069100000000001</v>
+      </c>
+      <c r="BJ6" s="1">
+        <f t="shared" si="12"/>
+        <v>2.668641965052313E-3</v>
+      </c>
+      <c r="BK6">
+        <v>1997.7809</v>
+      </c>
+      <c r="BL6">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64">
       <c r="A7">
         <v>3.0800000000000001E-2</v>
       </c>
@@ -1583,8 +1653,21 @@
       <c r="BG7">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:59">
+      <c r="BI7">
+        <v>26.754799999999999</v>
+      </c>
+      <c r="BJ7" s="1">
+        <f t="shared" si="12"/>
+        <v>4.7543746150868925E-3</v>
+      </c>
+      <c r="BK7">
+        <v>2013.7855</v>
+      </c>
+      <c r="BL7">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64">
       <c r="A8">
         <v>5.0799999999999998E-2</v>
       </c>
@@ -1705,8 +1788,21 @@
       <c r="BG8">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:59">
+      <c r="BI8">
+        <v>55.550899999999999</v>
+      </c>
+      <c r="BJ8" s="1">
+        <f t="shared" si="12"/>
+        <v>8.6195284241162851E-3</v>
+      </c>
+      <c r="BK8">
+        <v>2004.9745</v>
+      </c>
+      <c r="BL8">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64">
       <c r="A9">
         <v>7.2400000000000006E-2</v>
       </c>
@@ -1798,17 +1894,17 @@
         <v>55.5</v>
       </c>
       <c r="AT9" s="4">
-        <v>68.642600000000002</v>
+        <v>70.361000000000004</v>
       </c>
       <c r="AU9" s="5">
         <f t="shared" si="10"/>
-        <v>1.1785119231722593E-2</v>
+        <v>1.1732259325634733E-2</v>
       </c>
       <c r="AV9" s="4">
-        <v>2014.7118</v>
+        <v>2027.4364</v>
       </c>
       <c r="AW9" s="4">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="AZ9" s="1" t="e">
         <f t="shared" si="7"/>
@@ -1827,8 +1923,21 @@
       <c r="BG9">
         <v>56.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:59">
+      <c r="BI9">
+        <v>69.753200000000007</v>
+      </c>
+      <c r="BJ9" s="1">
+        <f t="shared" si="12"/>
+        <v>1.0263014576243389E-2</v>
+      </c>
+      <c r="BK9">
+        <v>2002.4373000000001</v>
+      </c>
+      <c r="BL9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64">
       <c r="A10">
         <v>0.1036</v>
       </c>
@@ -1949,8 +2058,21 @@
       <c r="BG10">
         <v>53.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:59">
+      <c r="BI10">
+        <v>88.1721</v>
+      </c>
+      <c r="BJ10" s="1">
+        <f t="shared" si="12"/>
+        <v>1.2076829500102162E-2</v>
+      </c>
+      <c r="BK10">
+        <v>1998.3426999999999</v>
+      </c>
+      <c r="BL10">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64">
       <c r="A11">
         <v>0.2069</v>
       </c>
@@ -2071,8 +2193,21 @@
       <c r="BG11">
         <v>51.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:59">
+      <c r="BI11">
+        <v>112.83</v>
+      </c>
+      <c r="BJ11" s="1">
+        <f t="shared" si="12"/>
+        <v>1.4254238734638143E-2</v>
+      </c>
+      <c r="BK11">
+        <v>2004.26</v>
+      </c>
+      <c r="BL11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64">
       <c r="A12">
         <v>0.30580000000000002</v>
       </c>
@@ -2087,7 +2222,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:64">
       <c r="A13">
         <v>0.51980000000000004</v>
       </c>
@@ -2105,7 +2240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:64">
       <c r="A14">
         <v>0.72519999999999996</v>
       </c>
@@ -2141,7 +2276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:64">
       <c r="A15">
         <v>1.054</v>
       </c>
@@ -2177,7 +2312,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:64">
       <c r="A16">
         <v>2.1093000000000002</v>
       </c>
@@ -2382,7 +2517,7 @@
     </row>
     <row r="22" spans="1:56">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:56">
@@ -2443,15 +2578,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C48D848-6634-4F6B-BFDC-8628502FF890}">
-  <dimension ref="A1:BG31"/>
+  <dimension ref="A1:BL31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BB19" sqref="BB19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:64">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2494,8 +2629,11 @@
       <c r="BD1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:59">
+      <c r="BI1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2641,8 +2779,20 @@
       <c r="BG2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:59">
+      <c r="BI2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64">
       <c r="A3">
         <v>3.0999999999999999E-3</v>
       </c>
@@ -2763,8 +2913,21 @@
       <c r="BG3">
         <v>210.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:59">
+      <c r="BI3">
+        <v>0.9768</v>
+      </c>
+      <c r="BJ3" s="1">
+        <f>BK3/BL3^3</f>
+        <v>1.8775638617580766E-4</v>
+      </c>
+      <c r="BK3">
+        <v>1999.23</v>
+      </c>
+      <c r="BL3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64">
       <c r="A4">
         <v>5.1000000000000004E-3</v>
       </c>
@@ -2885,8 +3048,21 @@
       <c r="BG4">
         <v>137.30000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:59">
+      <c r="BI4">
+        <v>4.1962000000000002</v>
+      </c>
+      <c r="BJ4" s="1">
+        <f t="shared" ref="BJ4:BJ10" si="12">BK4/BL4^3</f>
+        <v>7.030391896198421E-4</v>
+      </c>
+      <c r="BK4">
+        <v>2004.51</v>
+      </c>
+      <c r="BL4">
+        <v>141.80000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64">
       <c r="A5">
         <v>7.1999999999999998E-3</v>
       </c>
@@ -3007,8 +3183,21 @@
       <c r="BG5">
         <v>119.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:59">
+      <c r="BI5">
+        <v>7.1414</v>
+      </c>
+      <c r="BJ5" s="1">
+        <f t="shared" si="12"/>
+        <v>1.0789037583019097E-3</v>
+      </c>
+      <c r="BK5">
+        <v>2007.6964</v>
+      </c>
+      <c r="BL5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64">
       <c r="A6">
         <v>1.03E-2</v>
       </c>
@@ -3117,20 +3306,33 @@
         <v>#DIV/0!</v>
       </c>
       <c r="BD6">
-        <v>19.0578</v>
+        <v>18.871700000000001</v>
       </c>
       <c r="BE6" s="1">
         <f t="shared" si="11"/>
-        <v>2.2685520305702699E-3</v>
+        <v>2.263531137239325E-3</v>
       </c>
       <c r="BF6">
-        <v>2032.2627</v>
+        <v>2015.17</v>
       </c>
       <c r="BG6">
-        <v>96.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59">
+        <v>96.2</v>
+      </c>
+      <c r="BI6">
+        <v>21.0304</v>
+      </c>
+      <c r="BJ6" s="1">
+        <f t="shared" si="12"/>
+        <v>2.23875721835241E-3</v>
+      </c>
+      <c r="BK6">
+        <v>2018.08</v>
+      </c>
+      <c r="BL6">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64">
       <c r="A7">
         <v>3.0499999999999999E-2</v>
       </c>
@@ -3239,20 +3441,33 @@
         <v>#DIV/0!</v>
       </c>
       <c r="BD7">
-        <v>33.722099999999998</v>
+        <v>34.558500000000002</v>
       </c>
       <c r="BE7" s="1">
         <f t="shared" si="11"/>
-        <v>3.1019138251977812E-3</v>
+        <v>3.1639699281164864E-3</v>
       </c>
       <c r="BF7">
-        <v>1972.9909</v>
+        <v>2005.45</v>
       </c>
       <c r="BG7">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59">
+        <v>85.9</v>
+      </c>
+      <c r="BI7">
+        <v>39.651400000000002</v>
+      </c>
+      <c r="BJ7" s="1">
+        <f t="shared" si="12"/>
+        <v>3.1807478274411042E-3</v>
+      </c>
+      <c r="BK7">
+        <v>2016.0844999999999</v>
+      </c>
+      <c r="BL7">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64">
       <c r="A8">
         <v>5.0799999999999998E-2</v>
       </c>
@@ -3373,8 +3588,21 @@
       <c r="BG8">
         <v>79.599999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:59">
+      <c r="BI8">
+        <v>66.043599999999998</v>
+      </c>
+      <c r="BJ8" s="1">
+        <f t="shared" si="12"/>
+        <v>4.0273743624927331E-3</v>
+      </c>
+      <c r="BK8">
+        <v>2008.36</v>
+      </c>
+      <c r="BL8">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64">
       <c r="A9">
         <v>7.1499999999999994E-2</v>
       </c>
@@ -3495,8 +3723,21 @@
       <c r="BG9">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:59">
+      <c r="BI9">
+        <v>96.691299999999998</v>
+      </c>
+      <c r="BJ9" s="1">
+        <f t="shared" si="12"/>
+        <v>4.7139121389287528E-3</v>
+      </c>
+      <c r="BK9">
+        <v>2004.6335999999999</v>
+      </c>
+      <c r="BL9">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -3617,8 +3858,21 @@
       <c r="BG10">
         <v>72.599999999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:59">
+      <c r="BI10">
+        <v>134.12780000000001</v>
+      </c>
+      <c r="BJ10" s="1">
+        <f t="shared" si="12"/>
+        <v>5.3388380058181925E-3</v>
+      </c>
+      <c r="BK10">
+        <v>2009.3626999999999</v>
+      </c>
+      <c r="BL10">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64">
       <c r="A11">
         <v>0.19489999999999999</v>
       </c>
@@ -3633,7 +3887,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:64">
       <c r="A12">
         <v>0.2918</v>
       </c>
@@ -3651,7 +3905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:64">
       <c r="A13">
         <v>0.5121</v>
       </c>
@@ -3687,7 +3941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:64">
       <c r="A14">
         <v>0.72060000000000002</v>
       </c>
@@ -3723,7 +3977,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:64">
       <c r="A15">
         <v>0.88880000000000003</v>
       </c>
@@ -3759,7 +4013,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:64">
       <c r="A16">
         <v>1.5598000000000001</v>
       </c>
@@ -4010,11 +4264,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F77F63-7358-4861-9669-CB838F1D87BA}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -4202,7 +4456,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4212,22 +4466,22 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/H2_and_He.xlsx
+++ b/H2_and_He.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\lammps_education_gcmc_win-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438A7F09-6628-497C-A9DA-443519F92B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8465DD2-0C59-47C4-87FF-F58E7662B81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="400" windowWidth="15560" windowHeight="10640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="1530" windowWidth="27195" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="134">
   <si>
     <t>233.15K</t>
   </si>
@@ -330,21 +330,6 @@
   </si>
   <si>
     <t xml:space="preserve">        X0      =0.9708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        y0      =0.0064111 ± 0.000174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        A1      =-0.0012712 ± 0.000136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        tau1    =9.6111 ± 1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        A2      =-0.0049188 ± 7.98e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        tau2    =80.768 ± 7.45</t>
   </si>
   <si>
     <t xml:space="preserve">        y0      =0.004001 ± 0.00128</t>
@@ -422,6 +407,57 @@
       <t>+K6*(MPa-X0)^6</t>
     </r>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        y0      =0.024445 ± 0.157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A1      =-0.012353 ± 2.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau1    =172.71 ± 1.59e+04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A2      =-0.011848 ± 2.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau2    =97.78 ± 3.78e+03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        X0      =1.0161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        y0      =0.0066044 ± 0.000215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A1      =-0.0013367 ± 0.000153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau1    =11.344 ± 1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A2      =-0.0050714 ± 9.78e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau2    =96.24 ± 10.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        X0      =0.9768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        y0      =0.0065256 ± 0.000263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A1      =-0.0014117 ± 0.000191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau1    =10.606 ± 1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A2      =-0.0048897 ± 0.000116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau2    =86.745 ± 11.7</t>
   </si>
 </sst>
 </file>
@@ -780,11 +816,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:64">
       <c r="A1" t="s">
@@ -830,7 +866,7 @@
         <v>17</v>
       </c>
       <c r="BI1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:64">
@@ -2275,6 +2311,9 @@
       <c r="BD14" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="BI14" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:64">
       <c r="A15">
@@ -2311,6 +2350,9 @@
       <c r="BD15" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="BI15" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:64">
       <c r="A16">
@@ -2347,8 +2389,11 @@
       <c r="BD16" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:56">
+      <c r="BI16" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61">
       <c r="A17">
         <v>3.3711000000000002</v>
       </c>
@@ -2383,8 +2428,11 @@
       <c r="BD17" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:56">
+      <c r="BI17" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61">
       <c r="A18">
         <v>4.4962999999999997</v>
       </c>
@@ -2419,8 +2467,11 @@
       <c r="BD18" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:56">
+      <c r="BI18" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61">
       <c r="A19">
         <v>5.2613000000000003</v>
       </c>
@@ -2455,8 +2506,11 @@
       <c r="BD19" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:56">
+      <c r="BI19" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61">
       <c r="A20">
         <v>6.2336999999999998</v>
       </c>
@@ -2491,8 +2545,11 @@
       <c r="BD20" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:56">
+      <c r="BI20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61">
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
@@ -2514,60 +2571,63 @@
       <c r="BD21" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:56">
+      <c r="BI21" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61">
       <c r="A22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:56">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:56">
+    <row r="24" spans="1:61">
       <c r="A24" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61">
+      <c r="A25" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61">
+      <c r="A26" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61">
+      <c r="A27" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61">
+      <c r="A28" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61">
+      <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:56">
-      <c r="A25" s="2" t="s">
+    <row r="30" spans="1:61">
+      <c r="A30" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:56">
-      <c r="A26" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:56">
-      <c r="A27" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:56">
-      <c r="A28" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:56">
-      <c r="A29" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:56">
-      <c r="A30" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:56">
+    <row r="31" spans="1:61">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:56">
+    <row r="32" spans="1:61">
       <c r="A32" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2580,11 +2640,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C48D848-6634-4F6B-BFDC-8628502FF890}">
   <dimension ref="A1:BL31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AY15" sqref="AY15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:64">
       <c r="A1" t="s">
@@ -2630,7 +2690,7 @@
         <v>17</v>
       </c>
       <c r="BI1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:64">
@@ -3940,6 +4000,9 @@
       <c r="BD13" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="BI13" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:64">
       <c r="A14">
@@ -3974,7 +4037,10 @@
         <v>91</v>
       </c>
       <c r="BD14" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
+      </c>
+      <c r="BI14" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:64">
@@ -4010,7 +4076,10 @@
         <v>92</v>
       </c>
       <c r="BD15" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
+      </c>
+      <c r="BI15" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:64">
@@ -4046,10 +4115,13 @@
         <v>93</v>
       </c>
       <c r="BD16" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:56">
+        <v>131</v>
+      </c>
+      <c r="BI16" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61">
       <c r="A17">
         <v>2.0432000000000001</v>
       </c>
@@ -4082,10 +4154,13 @@
         <v>94</v>
       </c>
       <c r="BD17" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:56">
+        <v>132</v>
+      </c>
+      <c r="BI17" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61">
       <c r="A18">
         <v>2.8759999999999999</v>
       </c>
@@ -4118,10 +4193,13 @@
         <v>95</v>
       </c>
       <c r="BD18" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:56">
+        <v>133</v>
+      </c>
+      <c r="BI18" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61">
       <c r="A19">
         <v>4.2931999999999997</v>
       </c>
@@ -4156,8 +4234,11 @@
       <c r="BD19" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:56">
+      <c r="BI19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61">
       <c r="A20">
         <v>5.0247999999999999</v>
       </c>
@@ -4192,8 +4273,11 @@
       <c r="BD20" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:56">
+      <c r="BI20" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61">
       <c r="A21">
         <v>5.7519999999999998</v>
       </c>
@@ -4208,49 +4292,49 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="23" spans="1:56">
+    <row r="23" spans="1:61">
       <c r="A23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:56">
+    <row r="24" spans="1:61">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:56">
+    <row r="25" spans="1:61">
       <c r="A25" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:56">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61">
       <c r="A26" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:56">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61">
       <c r="A27" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:56">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61">
       <c r="A28" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61">
       <c r="A29" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:56">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:56">
+    <row r="31" spans="1:61">
       <c r="A31" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4264,11 +4348,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F77F63-7358-4861-9669-CB838F1D87BA}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -4456,7 +4540,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4466,22 +4550,22 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/H2_and_He.xlsx
+++ b/H2_and_He.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8465DD2-0C59-47C4-87FF-F58E7662B81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA60E64-38B0-4F73-9109-E509FD6C181B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1530" windowWidth="27195" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="1050" windowWidth="15555" windowHeight="11535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="183">
   <si>
     <t>233.15K</t>
   </si>
@@ -458,6 +458,154 @@
   </si>
   <si>
     <t xml:space="preserve">        tau2    =86.745 ± 11.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        X0      =1.0265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        y0      =0.025816 ± 0.054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A1      =-0.013004 ± 0.464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau1    =131.47 ± 3.31e+03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A2      =-0.012475 ± 0.518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau2    =66.128 ± 637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        X0      =1.0123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        y0      =0.025432 ± 0.093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A1      =-0.012713 ± 0.746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau1    =70.831 ± 956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A2      =-0.012407 ± 0.653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau2    =143.11 ± 5.87e+03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        X0      =1.0182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        y0      =0.0066184 ± 0.000279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A1      =-0.0014541 ± 0.000166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau1    =8.196 ± 1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A2      =-0.0048886 ± 0.000147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau2    =76.757 ± 10.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        X0      =0.9691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        y0      =0.0063852 ± 0.000234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A1      =-0.0013538 ± 0.000165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau1    =8.5118 ± 1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A2      =-0.0047775 ± 0.00011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau2    =72.791 ± 8.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        X0      =0.9621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        y0      =0.023082 ± 0.114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A1      =-0.011601 ± 2.25e+03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau1    =101.36 ± 5.66e+05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A2      =-0.011212 ± 2.25e+03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau2    =95.926 ± 5.1e+05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        X0      =1.0185</t>
+  </si>
+  <si>
+    <t>dblexp_XOffset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        y0      =0.024137 ± 0.0714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A1      =-0.012083 ± 2.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau1    =123.73 ± 8.11e+03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A2      =-0.011766 ± 2.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau2    =78.665 ± 2.63e+03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        y0      =0.0069709 ± 0.000717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A1      =-0.0016836 ± 0.000311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau1    =10.868 ± 1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A2      =-0.0050499 ± 0.000433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau2    =101.82 ± 30.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        X0      =0.9506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        y0      =0.0063337 ± 0.000125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A1      =-0.0012023 ± 9.51e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau1    =8.3945 ± 0.741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A2      =-0.0049107 ± 6.21e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau2    =75.798 ± 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        X0      =0.9632</t>
   </si>
 </sst>
 </file>
@@ -501,12 +649,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -521,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -532,6 +686,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1055,9 +1217,18 @@
       <c r="I3" s="1">
         <v>186</v>
       </c>
-      <c r="L3" s="1" t="e">
+      <c r="K3">
+        <v>1.0123</v>
+      </c>
+      <c r="L3" s="1">
         <f t="shared" ref="L3:L11" si="2">M3/N3^3</f>
-        <v>#DIV/0!</v>
+        <v>3.0047957220461744E-4</v>
+      </c>
+      <c r="M3">
+        <v>1996.5881999999999</v>
+      </c>
+      <c r="N3">
+        <v>188</v>
       </c>
       <c r="P3">
         <v>1.0195000000000001</v>
@@ -1085,9 +1256,18 @@
       <c r="X3">
         <v>190</v>
       </c>
-      <c r="AA3" s="1" t="e">
+      <c r="Z3">
+        <v>1.0182</v>
+      </c>
+      <c r="AA3" s="1">
         <f t="shared" ref="AA3:AA11" si="4">AB3/AC3^3</f>
-        <v>#DIV/0!</v>
+        <v>2.7781428078814787E-4</v>
+      </c>
+      <c r="AB3">
+        <v>1997.2227</v>
+      </c>
+      <c r="AC3">
+        <v>193</v>
       </c>
       <c r="AE3">
         <v>1.0175000000000001</v>
@@ -1102,9 +1282,18 @@
       <c r="AH3">
         <v>195</v>
       </c>
-      <c r="AK3" s="1" t="e">
+      <c r="AJ3">
+        <v>1.0265</v>
+      </c>
+      <c r="AK3" s="1">
         <f t="shared" ref="AK3:AK11" si="6">AL3/AM3^3</f>
-        <v>#DIV/0!</v>
+        <v>2.6063845413428491E-4</v>
+      </c>
+      <c r="AL3">
+        <v>1992.6782000000001</v>
+      </c>
+      <c r="AM3">
+        <v>197</v>
       </c>
       <c r="AO3">
         <v>1.0268999999999999</v>
@@ -1132,9 +1321,18 @@
       <c r="AW3">
         <v>201</v>
       </c>
-      <c r="AZ3" s="1" t="e">
+      <c r="AY3">
+        <v>1.0185</v>
+      </c>
+      <c r="AZ3" s="1">
         <f t="shared" ref="AZ3:AZ11" si="7">BA3/BB3^3</f>
-        <v>#DIV/0!</v>
+        <v>2.4204598947297925E-4</v>
+      </c>
+      <c r="BA3">
+        <v>1995.0418</v>
+      </c>
+      <c r="BB3">
+        <v>202</v>
       </c>
       <c r="BD3">
         <v>1.0255000000000001</v>
@@ -1190,9 +1388,18 @@
       <c r="I4" s="1">
         <v>110</v>
       </c>
-      <c r="L4" s="1" t="e">
+      <c r="K4">
+        <v>4.9927999999999999</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.4354847209291351E-3</v>
+      </c>
+      <c r="M4">
+        <v>2000.59</v>
+      </c>
+      <c r="N4">
+        <v>111.7</v>
       </c>
       <c r="P4">
         <v>4.9454000000000002</v>
@@ -1220,9 +1427,18 @@
       <c r="X4">
         <v>113</v>
       </c>
-      <c r="AA4" s="1" t="e">
+      <c r="Z4">
+        <v>4.9789000000000003</v>
+      </c>
+      <c r="AA4" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.3408323890624647E-3</v>
+      </c>
+      <c r="AB4">
+        <v>2002.2264</v>
+      </c>
+      <c r="AC4">
+        <v>114.3</v>
       </c>
       <c r="AE4">
         <v>4.9654999999999996</v>
@@ -1237,9 +1453,18 @@
       <c r="AH4">
         <v>115.7</v>
       </c>
-      <c r="AK4" s="1" t="e">
+      <c r="AJ4">
+        <v>4.9124999999999996</v>
+      </c>
+      <c r="AK4" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.2279587974266066E-3</v>
+      </c>
+      <c r="AL4">
+        <v>2002.2264</v>
+      </c>
+      <c r="AM4">
+        <v>117.7</v>
       </c>
       <c r="AO4">
         <v>4.9600999999999997</v>
@@ -1267,9 +1492,18 @@
       <c r="AW4">
         <v>119.5</v>
       </c>
-      <c r="AZ4" s="1" t="e">
+      <c r="AY4">
+        <v>5.0194000000000001</v>
+      </c>
+      <c r="AZ4" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.1726090669011442E-3</v>
+      </c>
+      <c r="BA4">
+        <v>2001.0454999999999</v>
+      </c>
+      <c r="BB4">
+        <v>119.5</v>
       </c>
       <c r="BD4">
         <v>4.8895999999999997</v>
@@ -1325,9 +1559,18 @@
       <c r="I5" s="1">
         <v>90</v>
       </c>
-      <c r="L5" s="1" t="e">
+      <c r="K5">
+        <v>9.5996000000000006</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.7070396497924612E-3</v>
+      </c>
+      <c r="M5">
+        <v>2006.5055</v>
+      </c>
+      <c r="N5">
+        <v>90.5</v>
       </c>
       <c r="P5">
         <v>9.4514999999999993</v>
@@ -1355,9 +1598,18 @@
       <c r="X5">
         <v>92</v>
       </c>
-      <c r="AA5" s="1" t="e">
+      <c r="Z5">
+        <v>9.5061</v>
+      </c>
+      <c r="AA5" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.4611906986218351E-3</v>
+      </c>
+      <c r="AB5">
+        <v>2011.7782</v>
+      </c>
+      <c r="AC5">
+        <v>93.5</v>
       </c>
       <c r="AE5">
         <v>9.7542000000000009</v>
@@ -1372,9 +1624,18 @@
       <c r="AH5">
         <v>94</v>
       </c>
-      <c r="AK5" s="1" t="e">
+      <c r="AJ5">
+        <v>9.6541999999999994</v>
+      </c>
+      <c r="AK5" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>2.3286278466248724E-3</v>
+      </c>
+      <c r="AL5">
+        <v>1996.5073</v>
+      </c>
+      <c r="AM5">
+        <v>95</v>
       </c>
       <c r="AO5">
         <v>9.5838999999999999</v>
@@ -1402,9 +1663,18 @@
       <c r="AW5">
         <v>96.2</v>
       </c>
-      <c r="AZ5" s="1" t="e">
+      <c r="AY5">
+        <v>9.9193999999999996</v>
+      </c>
+      <c r="AZ5" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>2.247157246973551E-3</v>
+      </c>
+      <c r="BA5">
+        <v>2000.5926999999999</v>
+      </c>
+      <c r="BB5">
+        <v>96.2</v>
       </c>
       <c r="BD5">
         <v>9.798</v>
@@ -1460,9 +1730,18 @@
       <c r="I6" s="1">
         <v>80</v>
       </c>
-      <c r="L6" s="1" t="e">
+      <c r="K6">
+        <v>14.448399999999999</v>
+      </c>
+      <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.9175425781249997E-3</v>
+      </c>
+      <c r="M6">
+        <v>2005.7818</v>
+      </c>
+      <c r="N6">
+        <v>80</v>
       </c>
       <c r="P6">
         <v>13.8584</v>
@@ -1490,9 +1769,18 @@
       <c r="X6">
         <v>81</v>
       </c>
-      <c r="AA6" s="1" t="e">
+      <c r="Z6">
+        <v>14.179</v>
+      </c>
+      <c r="AA6" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.5794330782537146E-3</v>
+      </c>
+      <c r="AB6">
+        <v>1995.3254999999999</v>
+      </c>
+      <c r="AC6">
+        <v>82.3</v>
       </c>
       <c r="AE6">
         <v>14.0288</v>
@@ -1507,9 +1795,18 @@
       <c r="AH6">
         <v>83.5</v>
       </c>
-      <c r="AK6" s="1" t="e">
+      <c r="AJ6">
+        <v>14.041399999999999</v>
+      </c>
+      <c r="AK6" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>3.3158093473348539E-3</v>
+      </c>
+      <c r="AL6">
+        <v>2000.5972999999999</v>
+      </c>
+      <c r="AM6">
+        <v>84.5</v>
       </c>
       <c r="AO6">
         <v>14.048299999999999</v>
@@ -1537,9 +1834,18 @@
       <c r="AW6">
         <v>85.4</v>
       </c>
-      <c r="AZ6" s="1" t="e">
+      <c r="AY6">
+        <v>14.2294</v>
+      </c>
+      <c r="AZ6" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>3.1236875367200269E-3</v>
+      </c>
+      <c r="BA6">
+        <v>1993.7791</v>
+      </c>
+      <c r="BB6">
+        <v>86.1</v>
       </c>
       <c r="BD6">
         <v>14.0624</v>
@@ -1595,9 +1901,18 @@
       <c r="I7" s="1">
         <v>68</v>
       </c>
-      <c r="L7" s="1" t="e">
+      <c r="K7">
+        <v>26.015000000000001</v>
+      </c>
+      <c r="L7" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.5643363831182962E-3</v>
+      </c>
+      <c r="M7">
+        <v>2009.8818000000001</v>
+      </c>
+      <c r="N7">
+        <v>67.400000000000006</v>
       </c>
       <c r="P7">
         <v>25.8262</v>
@@ -1625,9 +1940,18 @@
       <c r="X7">
         <v>68.3</v>
       </c>
-      <c r="AA7" s="1" t="e">
+      <c r="Z7">
+        <v>25.995000000000001</v>
+      </c>
+      <c r="AA7" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>6.1398850764516023E-3</v>
+      </c>
+      <c r="AB7">
+        <v>1999.5191</v>
+      </c>
+      <c r="AC7">
+        <v>68.8</v>
       </c>
       <c r="AE7">
         <v>26.050799999999999</v>
@@ -1642,9 +1966,18 @@
       <c r="AH7">
         <v>70.3</v>
       </c>
-      <c r="AK7" s="1" t="e">
+      <c r="AJ7">
+        <v>25.370799999999999</v>
+      </c>
+      <c r="AK7" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>5.6068375417765038E-3</v>
+      </c>
+      <c r="AL7">
+        <v>2015.24</v>
+      </c>
+      <c r="AM7">
+        <v>71.099999999999994</v>
       </c>
       <c r="AO7">
         <v>26.1372</v>
@@ -1672,9 +2005,18 @@
       <c r="AW7">
         <v>71.2</v>
       </c>
-      <c r="AZ7" s="1" t="e">
+      <c r="AY7">
+        <v>26.604500000000002</v>
+      </c>
+      <c r="AZ7" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>5.5283348452201441E-3</v>
+      </c>
+      <c r="BA7">
+        <v>1995.42</v>
+      </c>
+      <c r="BB7">
+        <v>71.2</v>
       </c>
       <c r="BD7">
         <v>26.626300000000001</v>
@@ -1730,9 +2072,18 @@
       <c r="I8" s="1">
         <v>54</v>
       </c>
-      <c r="L8" s="1" t="e">
+      <c r="K8">
+        <v>63.513599999999997</v>
+      </c>
+      <c r="L8" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.2779740766143372E-2</v>
+      </c>
+      <c r="M8">
+        <v>2012.3490999999999</v>
+      </c>
+      <c r="N8">
+        <v>54</v>
       </c>
       <c r="P8">
         <v>63.472000000000001</v>
@@ -1760,9 +2111,18 @@
       <c r="X8">
         <v>54.5</v>
       </c>
-      <c r="AA8" s="1" t="e">
+      <c r="Z8">
+        <v>51.595599999999997</v>
+      </c>
+      <c r="AA8" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.0471369441933097E-2</v>
+      </c>
+      <c r="AB8">
+        <v>1990.7055</v>
+      </c>
+      <c r="AC8">
+        <v>57.5</v>
       </c>
       <c r="AE8">
         <v>51.951000000000001</v>
@@ -1777,9 +2137,18 @@
       <c r="AH8">
         <v>58</v>
       </c>
-      <c r="AK8" s="1" t="e">
+      <c r="AJ8">
+        <v>51.5899</v>
+      </c>
+      <c r="AK8" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.8993111424887838E-3</v>
+      </c>
+      <c r="AL8">
+        <v>2002.2545</v>
+      </c>
+      <c r="AM8">
+        <v>58.7</v>
       </c>
       <c r="AO8">
         <v>52.004399999999997</v>
@@ -1807,9 +2176,18 @@
       <c r="AW8">
         <v>59.4</v>
       </c>
-      <c r="AZ8" s="1" t="e">
+      <c r="AY8">
+        <v>52.290700000000001</v>
+      </c>
+      <c r="AZ8" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>9.5825101334743208E-3</v>
+      </c>
+      <c r="BA8">
+        <v>2008.3463999999999</v>
+      </c>
+      <c r="BB8">
+        <v>59.4</v>
       </c>
       <c r="BD8">
         <v>53.247599999999998</v>
@@ -1865,9 +2243,18 @@
       <c r="I9" s="1">
         <v>50</v>
       </c>
-      <c r="L9" s="1" t="e">
+      <c r="K9">
+        <v>86.6875</v>
+      </c>
+      <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.5651091969709697E-2</v>
+      </c>
+      <c r="M9">
+        <v>2003.7164</v>
+      </c>
+      <c r="N9">
+        <v>50.4</v>
       </c>
       <c r="P9">
         <v>87.375799999999998</v>
@@ -1895,9 +2282,18 @@
       <c r="X9">
         <v>50.8</v>
       </c>
-      <c r="AA9" s="1" t="e">
+      <c r="Z9">
+        <v>65.144800000000004</v>
+      </c>
+      <c r="AA9" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.2312766788373598E-2</v>
+      </c>
+      <c r="AB9">
+        <v>2004.1655000000001</v>
+      </c>
+      <c r="AC9">
+        <v>54.6</v>
       </c>
       <c r="AE9">
         <v>67.136399999999995</v>
@@ -1912,9 +2308,18 @@
       <c r="AH9">
         <v>55</v>
       </c>
-      <c r="AK9" s="1" t="e">
+      <c r="AJ9">
+        <v>66.292100000000005</v>
+      </c>
+      <c r="AK9" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.1844098199861505E-2</v>
+      </c>
+      <c r="AL9">
+        <v>2002.9836</v>
+      </c>
+      <c r="AM9">
+        <v>55.3</v>
       </c>
       <c r="AO9">
         <v>68.642600000000002</v>
@@ -1942,9 +2347,18 @@
       <c r="AW9" s="4">
         <v>55.7</v>
       </c>
-      <c r="AZ9" s="1" t="e">
+      <c r="AY9">
+        <v>69.573800000000006</v>
+      </c>
+      <c r="AZ9" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.1563365044373084E-2</v>
+      </c>
+      <c r="BA9">
+        <v>1998.25</v>
+      </c>
+      <c r="BB9">
+        <v>55.7</v>
       </c>
       <c r="BD9">
         <v>68.386099999999999</v>
@@ -2000,9 +2414,18 @@
       <c r="I10" s="1">
         <v>49</v>
       </c>
-      <c r="L10" s="1" t="e">
+      <c r="K10">
+        <v>101.1538</v>
+      </c>
+      <c r="L10" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.7026671709916789E-2</v>
+      </c>
+      <c r="M10">
+        <v>2003.1709000000001</v>
+      </c>
+      <c r="N10">
+        <v>49</v>
       </c>
       <c r="P10">
         <v>99.915700000000001</v>
@@ -2030,9 +2453,18 @@
       <c r="X10">
         <v>49.6</v>
       </c>
-      <c r="AA10" s="1" t="e">
+      <c r="Z10">
+        <v>86.482600000000005</v>
+      </c>
+      <c r="AA10" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.4755950571368694E-2</v>
+      </c>
+      <c r="AB10">
+        <v>2015.5282</v>
+      </c>
+      <c r="AC10">
+        <v>51.5</v>
       </c>
       <c r="AE10">
         <v>88.894300000000001</v>
@@ -2047,9 +2479,18 @@
       <c r="AH10">
         <v>51.5</v>
       </c>
-      <c r="AK10" s="1" t="e">
+      <c r="AJ10" s="6">
+        <v>93.055899999999994</v>
+      </c>
+      <c r="AK10" s="7">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.4117183779527762E-2</v>
+      </c>
+      <c r="AL10" s="6">
+        <v>2007.9809</v>
+      </c>
+      <c r="AM10" s="6">
+        <v>52.2</v>
       </c>
       <c r="AO10">
         <v>89.793800000000005</v>
@@ -2077,9 +2518,18 @@
       <c r="AW10">
         <v>52.2</v>
       </c>
-      <c r="AZ10" s="1" t="e">
+      <c r="AY10">
+        <v>92.186800000000005</v>
+      </c>
+      <c r="AZ10" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.4023243151793057E-2</v>
+      </c>
+      <c r="BA10">
+        <v>1994.6190999999999</v>
+      </c>
+      <c r="BB10">
+        <v>52.2</v>
       </c>
       <c r="BD10">
         <v>89.623400000000004</v>
@@ -2135,9 +2585,18 @@
       <c r="I11" s="1">
         <v>48</v>
       </c>
-      <c r="L11" s="1" t="e">
+      <c r="K11">
+        <v>110.9359</v>
+      </c>
+      <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.7814105176878019E-2</v>
+      </c>
+      <c r="M11">
+        <v>2007.2682</v>
+      </c>
+      <c r="N11">
+        <v>48.3</v>
       </c>
       <c r="P11">
         <v>109.7045</v>
@@ -2165,9 +2624,18 @@
       <c r="X11">
         <v>48.6</v>
       </c>
-      <c r="AA11" s="1" t="e">
+      <c r="Z11">
+        <v>100.7073</v>
+      </c>
+      <c r="AA11" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.6203864872487376E-2</v>
+      </c>
+      <c r="AB11">
+        <v>2013.3544999999999</v>
+      </c>
+      <c r="AC11">
+        <v>49.9</v>
       </c>
       <c r="AE11">
         <v>104.4515</v>
@@ -2182,9 +2650,18 @@
       <c r="AH11">
         <v>50</v>
       </c>
-      <c r="AK11" s="1" t="e">
+      <c r="AJ11" s="8">
+        <v>104.3565</v>
+      </c>
+      <c r="AK11" s="9">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.5753196121933665E-2</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>2004.8072999999999</v>
+      </c>
+      <c r="AM11" s="8">
+        <v>50.3</v>
       </c>
       <c r="AO11">
         <v>103.81740000000001</v>
@@ -2212,9 +2689,18 @@
       <c r="AW11">
         <v>50.6</v>
       </c>
-      <c r="AZ11" s="1" t="e">
+      <c r="AY11">
+        <v>106.8552</v>
+      </c>
+      <c r="AZ11" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.5325911122799737E-2</v>
+      </c>
+      <c r="BA11">
+        <v>1985.5364</v>
+      </c>
+      <c r="BB11">
+        <v>50.6</v>
       </c>
       <c r="BD11">
         <v>105.02290000000001</v>
@@ -2273,6 +2759,9 @@
         <v>159.5</v>
       </c>
       <c r="F13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2293,19 +2782,31 @@
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="K14" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="P14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="Z14" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="AE14" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="AJ14" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="AO14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AT14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="BD14" s="2" t="s">
@@ -2332,20 +2833,32 @@
       <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="K15" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="P15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="Z15" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="AE15" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AJ15" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="AO15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AT15" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="AY15" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="BD15" s="2" t="s">
         <v>55</v>
@@ -2371,20 +2884,32 @@
       <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="K16" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="P16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="Z16" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="AE16" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="AJ16" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="AO16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AT16" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="AY16" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="BD16" s="2" t="s">
         <v>56</v>
@@ -2410,20 +2935,32 @@
       <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="K17" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="P17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="Z17" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="AE17" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="AJ17" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="AO17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AT17" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="AY17" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="BD17" s="2" t="s">
         <v>57</v>
@@ -2449,20 +2986,32 @@
       <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="K18" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="P18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="Z18" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="AE18" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="AJ18" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="AO18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AT18" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="BD18" s="2" t="s">
         <v>58</v>
@@ -2488,20 +3037,32 @@
       <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K19" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="P19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="Z19" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="AE19" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="AJ19" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="AO19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="AT19" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="AY19" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="BD19" s="2" t="s">
         <v>59</v>
@@ -2527,19 +3088,31 @@
       <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="P20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="U20" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="Z20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="AE20" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="AJ20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="AO20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AT20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="BD20" s="2" t="s">
@@ -2553,20 +3126,32 @@
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="K21" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="P21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="Z21" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="AE21" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="AJ21" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="AO21" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AT21" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="AY21" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="BD21" s="3" t="s">
         <v>60</v>
@@ -2640,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C48D848-6634-4F6B-BFDC-8628502FF890}">
   <dimension ref="A1:BL31"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AY15" sqref="AY15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2879,9 +3464,18 @@
       <c r="I3">
         <v>194</v>
       </c>
-      <c r="L3" s="1" t="e">
+      <c r="K3">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="L3" s="1">
         <f>M3/N3^3</f>
-        <v>#DIV/0!</v>
+        <v>2.65856289152479E-4</v>
+      </c>
+      <c r="M3">
+        <v>2001.7745</v>
+      </c>
+      <c r="N3">
+        <v>196</v>
       </c>
       <c r="P3">
         <v>0.97119999999999995</v>
@@ -2909,9 +3503,18 @@
       <c r="X3">
         <v>198</v>
       </c>
-      <c r="AA3" s="1" t="e">
+      <c r="Z3">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="AA3" s="1">
         <f>AB3/AC3^3</f>
-        <v>#DIV/0!</v>
+        <v>2.4782642924608321E-4</v>
+      </c>
+      <c r="AB3">
+        <v>2003.5018</v>
+      </c>
+      <c r="AC3">
+        <v>200.7</v>
       </c>
       <c r="AE3">
         <v>0.96640000000000004</v>
@@ -2926,9 +3529,18 @@
       <c r="AH3">
         <v>202.5</v>
       </c>
-      <c r="AK3" s="1" t="e">
+      <c r="AJ3">
+        <v>0.9506</v>
+      </c>
+      <c r="AK3" s="1">
         <f>AL3/AM3^3</f>
-        <v>#DIV/0!</v>
+        <v>2.2982631812613538E-4</v>
+      </c>
+      <c r="AL3">
+        <v>1994.5055</v>
+      </c>
+      <c r="AM3">
+        <v>205.5</v>
       </c>
       <c r="AO3">
         <v>0.98160000000000003</v>
@@ -2956,9 +3568,18 @@
       <c r="AW3">
         <v>208</v>
       </c>
-      <c r="AZ3" s="1" t="e">
+      <c r="AY3">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="AZ3" s="1">
         <f>BA3/BB3^3</f>
-        <v>#DIV/0!</v>
+        <v>2.1710309901738472E-4</v>
+      </c>
+      <c r="BA3">
+        <v>2010.5917999999999</v>
+      </c>
+      <c r="BB3">
+        <v>210</v>
       </c>
       <c r="BD3">
         <v>0.96960000000000002</v>
@@ -3014,9 +3635,18 @@
       <c r="I4">
         <v>130</v>
       </c>
-      <c r="L4" s="1" t="e">
+      <c r="K4">
+        <v>3.7482000000000002</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" ref="L4:L10" si="2">M4/N4^3</f>
-        <v>#DIV/0!</v>
+        <v>8.9177600017081155E-4</v>
+      </c>
+      <c r="M4">
+        <v>2004.7936</v>
+      </c>
+      <c r="N4">
+        <v>131</v>
       </c>
       <c r="P4">
         <v>3.8597000000000001</v>
@@ -3044,9 +3674,18 @@
       <c r="X4">
         <v>133</v>
       </c>
-      <c r="AA4" s="1" t="e">
+      <c r="Z4">
+        <v>3.9220999999999999</v>
+      </c>
+      <c r="AA4" s="1">
         <f t="shared" ref="AA4:AA10" si="5">AB4/AC4^3</f>
-        <v>#DIV/0!</v>
+        <v>8.4787215917929383E-4</v>
+      </c>
+      <c r="AB4">
+        <v>1999.2382</v>
+      </c>
+      <c r="AC4">
+        <v>133.1</v>
       </c>
       <c r="AE4">
         <v>4.0373000000000001</v>
@@ -3061,9 +3700,18 @@
       <c r="AH4">
         <v>133.30000000000001</v>
       </c>
-      <c r="AK4" s="1" t="e">
+      <c r="AJ4">
+        <v>4.1425000000000001</v>
+      </c>
+      <c r="AK4" s="1">
         <f t="shared" ref="AK4:AK10" si="7">AL4/AM4^3</f>
-        <v>#DIV/0!</v>
+        <v>8.3230213656600041E-4</v>
+      </c>
+      <c r="AL4">
+        <v>2002.6054999999999</v>
+      </c>
+      <c r="AM4">
+        <v>134</v>
       </c>
       <c r="AO4">
         <v>4.1012000000000004</v>
@@ -3091,9 +3739,18 @@
       <c r="AW4">
         <v>135.5</v>
       </c>
-      <c r="AZ4" s="1" t="e">
+      <c r="AY4">
+        <v>4.1353</v>
+      </c>
+      <c r="AZ4" s="1">
         <f t="shared" ref="AZ4:AZ10" si="10">BA4/BB4^3</f>
-        <v>#DIV/0!</v>
+        <v>8.0872754196694081E-4</v>
+      </c>
+      <c r="BA4">
+        <v>2011.9636</v>
+      </c>
+      <c r="BB4">
+        <v>135.5</v>
       </c>
       <c r="BD4">
         <v>4.0914999999999999</v>
@@ -3149,9 +3806,18 @@
       <c r="I5">
         <v>115</v>
       </c>
-      <c r="L5" s="1" t="e">
+      <c r="K5">
+        <v>6.3948999999999998</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.3014600322137943E-3</v>
+      </c>
+      <c r="M5">
+        <v>1994.8891000000001</v>
+      </c>
+      <c r="N5">
+        <v>115.3</v>
       </c>
       <c r="P5">
         <v>6.5434999999999999</v>
@@ -3179,9 +3845,18 @@
       <c r="X5">
         <v>115.5</v>
       </c>
-      <c r="AA5" s="1" t="e">
+      <c r="Z5">
+        <v>6.5084999999999997</v>
+      </c>
+      <c r="AA5" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.2615399526473205E-3</v>
+      </c>
+      <c r="AB5">
+        <v>1994.7055</v>
+      </c>
+      <c r="AC5">
+        <v>116.5</v>
       </c>
       <c r="AE5">
         <v>6.9206000000000003</v>
@@ -3196,9 +3871,18 @@
       <c r="AH5">
         <v>116.5</v>
       </c>
-      <c r="AK5" s="1" t="e">
+      <c r="AJ5">
+        <v>6.6733000000000002</v>
+      </c>
+      <c r="AK5" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.2048520539994845E-3</v>
+      </c>
+      <c r="AL5">
+        <v>2004.8818000000001</v>
+      </c>
+      <c r="AM5">
+        <v>118.5</v>
       </c>
       <c r="AO5">
         <v>7.2358000000000002</v>
@@ -3226,9 +3910,18 @@
       <c r="AW5">
         <v>118.5</v>
       </c>
-      <c r="AZ5" s="1" t="e">
+      <c r="AY5">
+        <v>6.9015000000000004</v>
+      </c>
+      <c r="AZ5" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1.1976838456190389E-3</v>
+      </c>
+      <c r="BA5">
+        <v>2003.0617999999999</v>
+      </c>
+      <c r="BB5">
+        <v>118.7</v>
       </c>
       <c r="BD5">
         <v>7.1098999999999997</v>
@@ -3284,9 +3977,18 @@
       <c r="I6">
         <v>94.1</v>
       </c>
-      <c r="L6" s="1" t="e">
+      <c r="K6">
+        <v>17.209</v>
+      </c>
+      <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.4485497697502279E-3</v>
+      </c>
+      <c r="M6">
+        <v>2001.4455</v>
+      </c>
+      <c r="N6">
+        <v>93.5</v>
       </c>
       <c r="P6">
         <v>17.206399999999999</v>
@@ -3314,9 +4016,18 @@
       <c r="X6">
         <v>94.5</v>
       </c>
-      <c r="AA6" s="1" t="e">
+      <c r="Z6">
+        <v>17.6431</v>
+      </c>
+      <c r="AA6" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.3732402082982896E-3</v>
+      </c>
+      <c r="AB6">
+        <v>2009.1627000000001</v>
+      </c>
+      <c r="AC6">
+        <v>94.6</v>
       </c>
       <c r="AE6">
         <v>17.784199999999998</v>
@@ -3331,9 +4042,18 @@
       <c r="AH6">
         <v>94.7</v>
       </c>
-      <c r="AK6" s="1" t="e">
+      <c r="AJ6">
+        <v>17.607099999999999</v>
+      </c>
+      <c r="AK6" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>2.3130678525735554E-3</v>
+      </c>
+      <c r="AL6">
+        <v>1995.7182</v>
+      </c>
+      <c r="AM6">
+        <v>95.2</v>
       </c>
       <c r="AO6">
         <v>18.9514</v>
@@ -3361,9 +4081,18 @@
       <c r="AW6">
         <v>95.2</v>
       </c>
-      <c r="AZ6" s="1" t="e">
+      <c r="AY6">
+        <v>18.305700000000002</v>
+      </c>
+      <c r="AZ6" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>2.2662959346064814E-3</v>
+      </c>
+      <c r="BA6">
+        <v>2005.0735999999999</v>
+      </c>
+      <c r="BB6">
+        <v>96</v>
       </c>
       <c r="BD6">
         <v>18.871700000000001</v>
@@ -3419,9 +4148,18 @@
       <c r="I7">
         <v>85.5</v>
       </c>
-      <c r="L7" s="1" t="e">
+      <c r="K7">
+        <v>30.8856</v>
+      </c>
+      <c r="L7" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.2906376388520905E-3</v>
+      </c>
+      <c r="M7">
+        <v>1999.5409</v>
+      </c>
+      <c r="N7">
+        <v>84.7</v>
       </c>
       <c r="P7">
         <v>30.060099999999998</v>
@@ -3449,9 +4187,18 @@
       <c r="X7">
         <v>85.7</v>
       </c>
-      <c r="AA7" s="1" t="e">
+      <c r="Z7">
+        <v>30.9284</v>
+      </c>
+      <c r="AA7" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.1948361615814569E-3</v>
+      </c>
+      <c r="AB7">
+        <v>2010.9027000000001</v>
+      </c>
+      <c r="AC7">
+        <v>85.7</v>
       </c>
       <c r="AE7">
         <v>31.477900000000002</v>
@@ -3466,9 +4213,18 @@
       <c r="AH7">
         <v>85.9</v>
       </c>
-      <c r="AK7" s="1" t="e">
+      <c r="AJ7">
+        <v>33.217599999999997</v>
+      </c>
+      <c r="AK7" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>3.1918493039593729E-3</v>
+      </c>
+      <c r="AL7">
+        <v>1994.99</v>
+      </c>
+      <c r="AM7">
+        <v>85.5</v>
       </c>
       <c r="AO7">
         <v>34.390999999999998</v>
@@ -3496,9 +4252,18 @@
       <c r="AW7">
         <v>86.2</v>
       </c>
-      <c r="AZ7" s="1" t="e">
+      <c r="AY7">
+        <v>33.336300000000001</v>
+      </c>
+      <c r="AZ7" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>3.1185629200387978E-3</v>
+      </c>
+      <c r="BA7">
+        <v>1997.4518</v>
+      </c>
+      <c r="BB7">
+        <v>86.2</v>
       </c>
       <c r="BD7">
         <v>34.558500000000002</v>
@@ -3554,9 +4319,18 @@
       <c r="I8">
         <v>79</v>
       </c>
-      <c r="L8" s="1" t="e">
+      <c r="K8">
+        <v>51.570599999999999</v>
+      </c>
+      <c r="L8" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.0697462066895318E-3</v>
+      </c>
+      <c r="M8">
+        <v>2006.5436</v>
+      </c>
+      <c r="N8">
+        <v>79</v>
       </c>
       <c r="P8">
         <v>51.439799999999998</v>
@@ -3584,9 +4358,18 @@
       <c r="X8">
         <v>79.400000000000006</v>
       </c>
-      <c r="AA8" s="1" t="e">
+      <c r="Z8">
+        <v>52.388599999999997</v>
+      </c>
+      <c r="AA8" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>4.0357565374191506E-3</v>
+      </c>
+      <c r="AB8">
+        <v>2012.54</v>
+      </c>
+      <c r="AC8">
+        <v>79.3</v>
       </c>
       <c r="AE8">
         <v>54.530500000000004</v>
@@ -3601,9 +4384,18 @@
       <c r="AH8">
         <v>79.3</v>
       </c>
-      <c r="AK8" s="1" t="e">
+      <c r="AJ8">
+        <v>54.506599999999999</v>
+      </c>
+      <c r="AK8" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>4.0119951450815535E-3</v>
+      </c>
+      <c r="AL8">
+        <v>2008.2691</v>
+      </c>
+      <c r="AM8">
+        <v>79.400000000000006</v>
       </c>
       <c r="AO8">
         <v>57.0199</v>
@@ -3631,9 +4423,18 @@
       <c r="AW8">
         <v>79.400000000000006</v>
       </c>
-      <c r="AZ8" s="1" t="e">
+      <c r="AY8">
+        <v>58.195</v>
+      </c>
+      <c r="AZ8" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>4.0087224509756337E-3</v>
+      </c>
+      <c r="BA8">
+        <v>2006.6309000000001</v>
+      </c>
+      <c r="BB8">
+        <v>79.400000000000006</v>
       </c>
       <c r="BD8">
         <v>57.500999999999998</v>
@@ -3689,9 +4490,18 @@
       <c r="I9">
         <v>75.5</v>
       </c>
-      <c r="L9" s="1" t="e">
+      <c r="K9">
+        <v>70.894300000000001</v>
+      </c>
+      <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.6597504829596556E-3</v>
+      </c>
+      <c r="M9">
+        <v>1997.4536000000001</v>
+      </c>
+      <c r="N9">
+        <v>75.400000000000006</v>
       </c>
       <c r="P9">
         <v>72.459000000000003</v>
@@ -3719,9 +4529,18 @@
       <c r="X9">
         <v>75.7</v>
       </c>
-      <c r="AA9" s="1" t="e">
+      <c r="Z9">
+        <v>74.569199999999995</v>
+      </c>
+      <c r="AA9" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>4.6272029139602508E-3</v>
+      </c>
+      <c r="AB9">
+        <v>2007.2718</v>
+      </c>
+      <c r="AC9">
+        <v>75.7</v>
       </c>
       <c r="AE9">
         <v>79.846100000000007</v>
@@ -3736,9 +4555,18 @@
       <c r="AH9">
         <v>75.7</v>
       </c>
-      <c r="AK9" s="1" t="e">
+      <c r="AJ9">
+        <v>80.206800000000001</v>
+      </c>
+      <c r="AK9" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>4.6175608706514066E-3</v>
+      </c>
+      <c r="AL9">
+        <v>2003.0890999999999</v>
+      </c>
+      <c r="AM9">
+        <v>75.7</v>
       </c>
       <c r="AO9">
         <v>81.407799999999995</v>
@@ -3766,9 +4594,18 @@
       <c r="AW9">
         <v>75.7</v>
       </c>
-      <c r="AZ9" s="1" t="e">
+      <c r="AY9">
+        <v>80.206800000000001</v>
+      </c>
+      <c r="AZ9" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>4.6175608706514066E-3</v>
+      </c>
+      <c r="BA9">
+        <v>2003.0890999999999</v>
+      </c>
+      <c r="BB9">
+        <v>75.7</v>
       </c>
       <c r="BD9">
         <v>83.064899999999994</v>
@@ -3824,9 +4661,18 @@
       <c r="I10">
         <v>72.400000000000006</v>
       </c>
-      <c r="L10" s="1" t="e">
+      <c r="K10">
+        <v>101.7912</v>
+      </c>
+      <c r="L10" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.3032430210717711E-3</v>
+      </c>
+      <c r="M10">
+        <v>2004.2709</v>
+      </c>
+      <c r="N10">
+        <v>72.3</v>
       </c>
       <c r="P10">
         <v>105.13030000000001</v>
@@ -3854,9 +4700,18 @@
       <c r="X10">
         <v>72.599999999999994</v>
       </c>
-      <c r="AA10" s="1" t="e">
+      <c r="Z10">
+        <v>102.51739999999999</v>
+      </c>
+      <c r="AA10" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5.2090918777311975E-3</v>
+      </c>
+      <c r="AB10">
+        <v>2001.5445</v>
+      </c>
+      <c r="AC10">
+        <v>72.7</v>
       </c>
       <c r="AE10">
         <v>106.8145</v>
@@ -3871,9 +4726,18 @@
       <c r="AH10">
         <v>72.7</v>
       </c>
-      <c r="AK10" s="1" t="e">
+      <c r="AJ10">
+        <v>109.36069999999999</v>
+      </c>
+      <c r="AK10" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>5.240085740761017E-3</v>
+      </c>
+      <c r="AL10">
+        <v>2013.4536000000001</v>
+      </c>
+      <c r="AM10">
+        <v>72.7</v>
       </c>
       <c r="AO10">
         <v>114.21850000000001</v>
@@ -3901,9 +4765,18 @@
       <c r="AW10">
         <v>72.7</v>
       </c>
-      <c r="AZ10" s="1" t="e">
+      <c r="AY10">
+        <v>115.5193</v>
+      </c>
+      <c r="AZ10" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>5.2482652999302961E-3</v>
+      </c>
+      <c r="BA10">
+        <v>1999.9991</v>
+      </c>
+      <c r="BB10">
+        <v>72.5</v>
       </c>
       <c r="BD10">
         <v>119.239</v>
@@ -3962,6 +4835,9 @@
         <v>199</v>
       </c>
       <c r="F12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3982,19 +4858,31 @@
       <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="K13" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="P13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="Z13" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="AE13" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="AJ13" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="AO13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AT13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="BD13" s="2" t="s">
@@ -4021,20 +4909,32 @@
       <c r="F14" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="K14" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="P14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="Z14" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="AE14" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="AJ14" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="AO14" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AT14" s="2" t="s">
         <v>91</v>
+      </c>
+      <c r="AY14" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="BD14" s="2" t="s">
         <v>129</v>
@@ -4060,20 +4960,32 @@
       <c r="F15" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="K15" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="P15" s="2" t="s">
         <v>68</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="Z15" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="AE15" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="AJ15" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="AO15" s="2" t="s">
         <v>86</v>
       </c>
       <c r="AT15" s="2" t="s">
         <v>92</v>
+      </c>
+      <c r="AY15" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="BD15" s="2" t="s">
         <v>130</v>
@@ -4099,20 +5011,32 @@
       <c r="F16" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="K16" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="P16" s="2" t="s">
         <v>69</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="Z16" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="AE16" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="AJ16" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="AO16" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AT16" s="2" t="s">
         <v>93</v>
+      </c>
+      <c r="AY16" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="BD16" s="2" t="s">
         <v>131</v>
@@ -4138,20 +5062,32 @@
       <c r="F17" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="K17" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="P17" s="2" t="s">
         <v>70</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="Z17" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="AE17" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="AJ17" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="AO17" s="2" t="s">
         <v>88</v>
       </c>
       <c r="AT17" s="2" t="s">
         <v>94</v>
+      </c>
+      <c r="AY17" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="BD17" s="2" t="s">
         <v>132</v>
@@ -4177,20 +5113,32 @@
       <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="K18" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="P18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="Z18" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="AE18" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="AJ18" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="AO18" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AT18" s="2" t="s">
         <v>95</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="BD18" s="2" t="s">
         <v>133</v>
@@ -4216,19 +5164,31 @@
       <c r="F19" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="P19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="Z19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="AE19" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="AJ19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="AO19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AT19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="BD19" s="2" t="s">
@@ -4255,20 +5215,32 @@
       <c r="F20" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="K20" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="P20" s="3" t="s">
         <v>72</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="Z20" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="AE20" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="AJ20" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="AO20" s="3" t="s">
         <v>90</v>
       </c>
       <c r="AT20" s="3" t="s">
         <v>96</v>
+      </c>
+      <c r="AY20" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="BD20" s="3" t="s">
         <v>78</v>
@@ -4348,8 +5320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F77F63-7358-4861-9669-CB838F1D87BA}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4540,6 +5512,9 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" t="s">
         <v>114</v>
       </c>
     </row>

--- a/H2_and_He.xlsx
+++ b/H2_and_He.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA60E64-38B0-4F73-9109-E509FD6C181B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFC8DB1-641F-438E-BAB2-DDA0E4E36E19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="1050" windowWidth="15555" windowHeight="11535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2180" yWindow="210" windowWidth="14730" windowHeight="11140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="183">
-  <si>
-    <t>233.15K</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="185">
   <si>
     <t>MPa</t>
   </si>
@@ -42,18 +39,6 @@
   </si>
   <si>
     <t>n/A^3</t>
-  </si>
-  <si>
-    <t>253.15K</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>273.15K</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>293.15K</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">  フィッティング係数 ± 標準偏差</t>
@@ -84,38 +69,6 @@
     <t xml:space="preserve">        X0      =1.0177</t>
   </si>
   <si>
-    <t>313.15K</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>248.15K</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>298.15K</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>77K</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>243.15K</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>263.15K</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>283.15K</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>303.15K</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">        y0      =0.024037 ± 0.119</t>
   </si>
   <si>
@@ -384,10 +337,6 @@
   </si>
   <si>
     <t>n/A^3 = K0 + K1*(MPa-X0)+K2*(MPa-X0)^2+K3*(MPa-X0)^3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>358.15K</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -606,6 +555,66 @@
   </si>
   <si>
     <t xml:space="preserve">        X0      =0.9632</t>
+  </si>
+  <si>
+    <t>77K (-196.15 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>233.15K (-40 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>243.15K (-30 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>248.15K (-25 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>253.15K (-20 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>263.15K (-10 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>273.15K (0 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>283.15K (10 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>293.15K (20 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>298.15K (25 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>303.15K (30 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>313.15K (40 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>358.15K (85 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>233.15K (-40 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>poly</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -658,7 +667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,12 +697,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -978,216 +987,216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:64">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="P1" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="U1" t="s">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="Z1" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="AE1" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="AJ1" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="AO1" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="AT1" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="AY1" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="BD1" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="BI1" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:64">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AU2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BE2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BJ2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:64">
@@ -2479,17 +2488,17 @@
       <c r="AH10">
         <v>51.5</v>
       </c>
-      <c r="AJ10" s="6">
+      <c r="AJ10" s="8">
         <v>93.055899999999994</v>
       </c>
-      <c r="AK10" s="7">
+      <c r="AK10" s="9">
         <f t="shared" si="6"/>
         <v>1.4117183779527762E-2</v>
       </c>
-      <c r="AL10" s="6">
+      <c r="AL10" s="8">
         <v>2007.9809</v>
       </c>
-      <c r="AM10" s="6">
+      <c r="AM10" s="8">
         <v>52.2</v>
       </c>
       <c r="AO10">
@@ -2650,17 +2659,17 @@
       <c r="AH11">
         <v>50</v>
       </c>
-      <c r="AJ11" s="8">
+      <c r="AJ11" s="6">
         <v>104.3565</v>
       </c>
-      <c r="AK11" s="9">
+      <c r="AK11" s="7">
         <f t="shared" si="6"/>
         <v>1.5753196121933665E-2</v>
       </c>
-      <c r="AL11" s="8">
+      <c r="AL11" s="6">
         <v>2004.8072999999999</v>
       </c>
-      <c r="AM11" s="8">
+      <c r="AM11" s="6">
         <v>50.3</v>
       </c>
       <c r="AO11">
@@ -2759,10 +2768,10 @@
         <v>159.5</v>
       </c>
       <c r="F13" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:64">
@@ -2780,40 +2789,40 @@
         <v>142</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BD14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BI14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:64">
@@ -2831,40 +2840,40 @@
         <v>125</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="P15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="AJ15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Z15" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AT15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AJ15" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AO15" s="2" t="s">
+      <c r="AY15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AT15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BD15" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="BI15" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:64">
@@ -2882,40 +2891,40 @@
         <v>99.3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="P16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="AJ16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z16" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AT16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AJ16" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AO16" s="2" t="s">
+      <c r="AY16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY16" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BD16" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="BI16" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:61">
@@ -2933,40 +2942,40 @@
         <v>83.7</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="P17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="AJ17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Z17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AT17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AJ17" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AO17" s="2" t="s">
+      <c r="AY17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AT17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY17" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD17" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="BI17" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:61">
@@ -2984,40 +2993,40 @@
         <v>75.400000000000006</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="P18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="AJ18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AT18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AJ18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AO18" s="2" t="s">
+      <c r="AY18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AT18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY18" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD18" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="BI18" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:61">
@@ -3035,40 +3044,40 @@
         <v>71.400000000000006</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="P19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="AJ19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AT19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AJ19" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO19" s="2" t="s">
+      <c r="AY19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AT19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY19" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="BD19" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="BI19" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:61">
@@ -3086,133 +3095,133 @@
         <v>67.8</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AT20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BD20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BI20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:61">
       <c r="F21" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="AJ21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE21" s="3" t="s">
+      <c r="AT21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AJ21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO21" s="3" t="s">
+      <c r="AY21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AT21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY21" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BD21" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="BI21" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:61">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:61">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:61">
       <c r="A24" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:61">
       <c r="A25" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:61">
       <c r="A26" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:61">
       <c r="A27" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:61">
       <c r="A28" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:61">
       <c r="A29" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:61">
       <c r="A30" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:61">
       <c r="A31" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:61">
       <c r="A32" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3225,216 +3234,214 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C48D848-6634-4F6B-BFDC-8628502FF890}">
   <dimension ref="A1:BL31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:64">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="P1" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="U1" t="s">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="Z1" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="AE1" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="AJ1" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="AO1" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="AT1" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="AY1" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="BD1" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="BI1" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:64">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AU2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BE2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BJ2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:64">
@@ -4835,10 +4842,10 @@
         <v>199</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:64">
@@ -4856,40 +4863,40 @@
         <v>166.5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY13" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BD13" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BI13" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:64">
@@ -4907,40 +4914,40 @@
         <v>151</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P14" s="2" t="s">
+      <c r="Z14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="AJ14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Z14" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AT14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AJ14" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AO14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT14" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="AY14" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="BD14" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="BI14" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:64">
@@ -4958,40 +4965,40 @@
         <v>143.4</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P15" s="2" t="s">
+      <c r="Z15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="AJ15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AT15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AJ15" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT15" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AY15" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="BD15" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="BI15" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:64">
@@ -5009,40 +5016,40 @@
         <v>124</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P16" s="2" t="s">
+      <c r="Z16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="AJ16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Z16" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AT16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AJ16" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AO16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT16" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="AY16" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="BD16" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="BI16" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:61">
@@ -5060,40 +5067,40 @@
         <v>115.6</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P17" s="2" t="s">
+      <c r="Z17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="AJ17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Z17" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AT17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AJ17" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AO17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT17" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="AY17" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="BD17" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="BI17" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:61">
@@ -5111,40 +5118,40 @@
         <v>107.4</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="P18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="AJ18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Z18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AT18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AJ18" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT18" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="AY18" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="BD18" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="BI18" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:61">
@@ -5162,40 +5169,40 @@
         <v>99.4</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AT19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BD19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BI19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:61">
@@ -5213,40 +5220,40 @@
         <v>97</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P20" s="3" t="s">
+      <c r="Z20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="AJ20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE20" s="3" t="s">
+      <c r="AT20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AJ20" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT20" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="AY20" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="BI20" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:61">
@@ -5266,47 +5273,47 @@
     </row>
     <row r="23" spans="1:61">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:61">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:61">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:61">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:61">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:61">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:61">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:61">
       <c r="A30" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:61">
       <c r="A31" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5320,29 +5327,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F77F63-7358-4861-9669-CB838F1D87BA}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5512,35 +5519,35 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/H2_and_He.xlsx
+++ b/H2_and_He.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFC8DB1-641F-438E-BAB2-DDA0E4E36E19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AAF50B-AAD4-4A30-8C6A-EB67AE9E6FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="210" windowWidth="14730" windowHeight="11140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="13020" windowWidth="13860" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="186">
   <si>
     <t>MPa</t>
   </si>
@@ -614,6 +614,10 @@
   </si>
   <si>
     <t>poly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>423.15K (150 degree of Celsius)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -684,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -695,10 +699,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -985,15 +985,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL32"/>
+  <dimension ref="A1:BQ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BN12" sqref="BN12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:69">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -1039,8 +1039,11 @@
       <c r="BI1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2" spans="1:64">
+      <c r="BN1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1198,8 +1201,20 @@
       <c r="BL2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:64">
+      <c r="BN2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69">
       <c r="A3">
         <v>3.0999999999999999E-3</v>
       </c>
@@ -1369,8 +1384,21 @@
       <c r="BL3">
         <v>213.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:64">
+      <c r="BN3">
+        <v>1.018</v>
+      </c>
+      <c r="BO3" s="1">
+        <f>BP3/BQ3^3</f>
+        <v>1.7321364651941331E-4</v>
+      </c>
+      <c r="BP3">
+        <v>2002.0908999999999</v>
+      </c>
+      <c r="BQ3">
+        <v>226.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69">
       <c r="A4">
         <v>5.1999999999999998E-3</v>
       </c>
@@ -1540,8 +1568,21 @@
       <c r="BL4">
         <v>126.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:64">
+      <c r="BN4">
+        <v>4.9869000000000003</v>
+      </c>
+      <c r="BO4" s="1">
+        <f t="shared" ref="BO4:BO11" si="13">BP4/BQ4^3</f>
+        <v>8.3465747947719638E-4</v>
+      </c>
+      <c r="BP4">
+        <v>2008.2727</v>
+      </c>
+      <c r="BQ4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69">
       <c r="A5">
         <v>7.1999999999999998E-3</v>
       </c>
@@ -1711,8 +1752,21 @@
       <c r="BL5">
         <v>102.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:64">
+      <c r="BN5">
+        <v>9.7721999999999998</v>
+      </c>
+      <c r="BO5" s="1">
+        <f t="shared" si="13"/>
+        <v>1.5950960967825139E-3</v>
+      </c>
+      <c r="BP5">
+        <v>2020.5454999999999</v>
+      </c>
+      <c r="BQ5">
+        <v>108.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69">
       <c r="A6">
         <v>1.03E-2</v>
       </c>
@@ -1882,8 +1936,21 @@
       <c r="BL6">
         <v>90.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:64">
+      <c r="BN6">
+        <v>14.290800000000001</v>
+      </c>
+      <c r="BO6" s="1">
+        <f t="shared" si="13"/>
+        <v>2.3006375405055573E-3</v>
+      </c>
+      <c r="BP6">
+        <v>2003.8181999999999</v>
+      </c>
+      <c r="BQ6">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69">
       <c r="A7">
         <v>3.0800000000000001E-2</v>
       </c>
@@ -2053,8 +2120,21 @@
       <c r="BL7">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:64">
+      <c r="BN7">
+        <v>26.801100000000002</v>
+      </c>
+      <c r="BO7" s="1">
+        <f t="shared" si="13"/>
+        <v>4.0907964829519821E-3</v>
+      </c>
+      <c r="BP7">
+        <v>2009.2727</v>
+      </c>
+      <c r="BQ7">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69">
       <c r="A8">
         <v>5.0799999999999998E-2</v>
       </c>
@@ -2224,8 +2304,21 @@
       <c r="BL8">
         <v>61.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:64">
+      <c r="BN8">
+        <v>52.112499999999997</v>
+      </c>
+      <c r="BO8" s="1">
+        <f t="shared" si="13"/>
+        <v>7.1855962727904567E-3</v>
+      </c>
+      <c r="BP8">
+        <v>2010</v>
+      </c>
+      <c r="BQ8">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:69">
       <c r="A9">
         <v>7.2400000000000006E-2</v>
       </c>
@@ -2395,8 +2488,21 @@
       <c r="BL9">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:64">
+      <c r="BN9">
+        <v>65.950500000000005</v>
+      </c>
+      <c r="BO9" s="1">
+        <f t="shared" si="13"/>
+        <v>8.6516854777907281E-3</v>
+      </c>
+      <c r="BP9">
+        <v>2012.4545000000001</v>
+      </c>
+      <c r="BQ9">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69">
       <c r="A10">
         <v>0.1036</v>
       </c>
@@ -2488,17 +2594,17 @@
       <c r="AH10">
         <v>51.5</v>
       </c>
-      <c r="AJ10" s="8">
+      <c r="AJ10" s="6">
         <v>93.055899999999994</v>
       </c>
-      <c r="AK10" s="9">
+      <c r="AK10" s="7">
         <f t="shared" si="6"/>
         <v>1.4117183779527762E-2</v>
       </c>
-      <c r="AL10" s="8">
+      <c r="AL10" s="6">
         <v>2007.9809</v>
       </c>
-      <c r="AM10" s="8">
+      <c r="AM10" s="6">
         <v>52.2</v>
       </c>
       <c r="AO10">
@@ -2566,8 +2672,21 @@
       <c r="BL10">
         <v>54.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:64">
+      <c r="BN10">
+        <v>82.488</v>
+      </c>
+      <c r="BO10" s="1">
+        <f t="shared" si="13"/>
+        <v>1.0211127723196848E-2</v>
+      </c>
+      <c r="BP10">
+        <v>2002.6364000000001</v>
+      </c>
+      <c r="BQ10">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69">
       <c r="A11">
         <v>0.2069</v>
       </c>
@@ -2659,17 +2778,17 @@
       <c r="AH11">
         <v>50</v>
       </c>
-      <c r="AJ11" s="6">
+      <c r="AJ11">
         <v>104.3565</v>
       </c>
-      <c r="AK11" s="7">
+      <c r="AK11" s="1">
         <f t="shared" si="6"/>
         <v>1.5753196121933665E-2</v>
       </c>
-      <c r="AL11" s="6">
+      <c r="AL11">
         <v>2004.8072999999999</v>
       </c>
-      <c r="AM11" s="6">
+      <c r="AM11">
         <v>50.3</v>
       </c>
       <c r="AO11">
@@ -2737,8 +2856,21 @@
       <c r="BL11">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:64">
+      <c r="BN11">
+        <v>96.887500000000003</v>
+      </c>
+      <c r="BO11" s="1">
+        <f t="shared" si="13"/>
+        <v>1.1396766239978134E-2</v>
+      </c>
+      <c r="BP11">
+        <v>2001.4545000000001</v>
+      </c>
+      <c r="BQ11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69">
       <c r="A12">
         <v>0.30580000000000002</v>
       </c>
@@ -2753,7 +2885,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:64">
+    <row r="13" spans="1:69">
       <c r="A13">
         <v>0.51980000000000004</v>
       </c>
@@ -2774,7 +2906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:64">
+    <row r="14" spans="1:69">
       <c r="A14">
         <v>0.72519999999999996</v>
       </c>
@@ -2824,8 +2956,9 @@
       <c r="BI14" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:64">
+      <c r="BN14" s="2"/>
+    </row>
+    <row r="15" spans="1:69">
       <c r="A15">
         <v>1.054</v>
       </c>
@@ -2875,8 +3008,9 @@
       <c r="BI15" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="16" spans="1:64">
+      <c r="BN15" s="2"/>
+    </row>
+    <row r="16" spans="1:69">
       <c r="A16">
         <v>2.1093000000000002</v>
       </c>
@@ -2926,8 +3060,9 @@
       <c r="BI16" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" spans="1:61">
+      <c r="BN16" s="2"/>
+    </row>
+    <row r="17" spans="1:66">
       <c r="A17">
         <v>3.3711000000000002</v>
       </c>
@@ -2977,8 +3112,9 @@
       <c r="BI17" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:61">
+      <c r="BN17" s="2"/>
+    </row>
+    <row r="18" spans="1:66">
       <c r="A18">
         <v>4.4962999999999997</v>
       </c>
@@ -3028,8 +3164,9 @@
       <c r="BI18" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:61">
+      <c r="BN18" s="2"/>
+    </row>
+    <row r="19" spans="1:66">
       <c r="A19">
         <v>5.2613000000000003</v>
       </c>
@@ -3079,8 +3216,9 @@
       <c r="BI19" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="1:61">
+      <c r="BN19" s="2"/>
+    </row>
+    <row r="20" spans="1:66">
       <c r="A20">
         <v>6.2336999999999998</v>
       </c>
@@ -3130,8 +3268,9 @@
       <c r="BI20" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:61">
+      <c r="BN20" s="2"/>
+    </row>
+    <row r="21" spans="1:66">
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
@@ -3168,58 +3307,59 @@
       <c r="BI21" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="22" spans="1:61">
+      <c r="BN21" s="3"/>
+    </row>
+    <row r="22" spans="1:66">
       <c r="A22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:61">
+    <row r="23" spans="1:66">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:61">
+    <row r="24" spans="1:66">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:61">
+    <row r="25" spans="1:66">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:61">
+    <row r="26" spans="1:66">
       <c r="A26" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:61">
+    <row r="27" spans="1:66">
       <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:61">
+    <row r="28" spans="1:66">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:61">
+    <row r="29" spans="1:66">
       <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:61">
+    <row r="30" spans="1:66">
       <c r="A30" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:61">
+    <row r="31" spans="1:66">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:61">
+    <row r="32" spans="1:66">
       <c r="A32" s="3" t="s">
         <v>90</v>
       </c>
@@ -3234,9 +3374,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C48D848-6634-4F6B-BFDC-8628502FF890}">
   <dimension ref="A1:BL31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:64">
       <c r="A1" t="s">
@@ -5331,7 +5473,7 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">

--- a/H2_and_He.xlsx
+++ b/H2_and_He.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AAF50B-AAD4-4A30-8C6A-EB67AE9E6FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D693FE-334E-4381-B86A-44FB896F8201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="13020" windowWidth="13860" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="18795" windowWidth="14310" windowHeight="9180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="186">
   <si>
     <t>MPa</t>
   </si>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BN12" sqref="BN12"/>
+    <sheetView topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BN1" sqref="BN1:BP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3372,15 +3372,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C48D848-6634-4F6B-BFDC-8628502FF890}">
-  <dimension ref="A1:BL31"/>
+  <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BR9" sqref="BR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:69">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -3426,8 +3426,11 @@
       <c r="BI1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2" spans="1:64">
+      <c r="BN1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3585,8 +3588,20 @@
       <c r="BL2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:64">
+      <c r="BN2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69">
       <c r="A3">
         <v>3.0999999999999999E-3</v>
       </c>
@@ -3756,8 +3771,21 @@
       <c r="BL3">
         <v>220</v>
       </c>
-    </row>
-    <row r="4" spans="1:64">
+      <c r="BN3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="BO3" s="1">
+        <f>BP3/BQ3^3</f>
+        <v>1.6142427027811103E-4</v>
+      </c>
+      <c r="BP3">
+        <v>2002.7273</v>
+      </c>
+      <c r="BQ3">
+        <v>231.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69">
       <c r="A4">
         <v>5.1000000000000004E-3</v>
       </c>
@@ -3927,8 +3955,21 @@
       <c r="BL4">
         <v>141.80000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:64">
+      <c r="BN4">
+        <v>4.3087999999999997</v>
+      </c>
+      <c r="BO4" s="1">
+        <f t="shared" ref="BO4:BO10" si="13">BP4/BQ4^3</f>
+        <v>6.2581703502642509E-4</v>
+      </c>
+      <c r="BP4">
+        <v>2012.3635999999999</v>
+      </c>
+      <c r="BQ4">
+        <v>147.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69">
       <c r="A5">
         <v>7.1999999999999998E-3</v>
       </c>
@@ -4098,8 +4139,21 @@
       <c r="BL5">
         <v>123</v>
       </c>
-    </row>
-    <row r="6" spans="1:64">
+      <c r="BN5">
+        <v>7.1459000000000001</v>
+      </c>
+      <c r="BO5" s="1">
+        <f>BP5/BQ5^3</f>
+        <v>9.5915304434053301E-4</v>
+      </c>
+      <c r="BP5">
+        <v>2039.9091000000001</v>
+      </c>
+      <c r="BQ5">
+        <v>128.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69">
       <c r="A6">
         <v>1.03E-2</v>
       </c>
@@ -4269,8 +4323,21 @@
       <c r="BL6">
         <v>96.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:64">
+      <c r="BN6">
+        <v>21.342700000000001</v>
+      </c>
+      <c r="BO6" s="1">
+        <f>BP6/BQ6^3</f>
+        <v>2.0661958074774172E-3</v>
+      </c>
+      <c r="BP6">
+        <v>2010.9091000000001</v>
+      </c>
+      <c r="BQ6">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69">
       <c r="A7">
         <v>3.0499999999999999E-2</v>
       </c>
@@ -4440,8 +4507,21 @@
       <c r="BL7">
         <v>85.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:64">
+      <c r="BN7">
+        <v>42.269100000000002</v>
+      </c>
+      <c r="BO7" s="1">
+        <f>BP7/BQ7^3</f>
+        <v>3.0458664551005678E-3</v>
+      </c>
+      <c r="BP7">
+        <v>2012.6364000000001</v>
+      </c>
+      <c r="BQ7">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69">
       <c r="A8">
         <v>5.0799999999999998E-2</v>
       </c>
@@ -4611,8 +4691,21 @@
       <c r="BL8">
         <v>79.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:64">
+      <c r="BN8">
+        <v>60.849899999999998</v>
+      </c>
+      <c r="BO8" s="1">
+        <f t="shared" si="13"/>
+        <v>3.6469425000980995E-3</v>
+      </c>
+      <c r="BP8">
+        <v>1988.8181999999999</v>
+      </c>
+      <c r="BQ8">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:69">
       <c r="A9">
         <v>7.1499999999999994E-2</v>
       </c>
@@ -4782,8 +4875,15 @@
       <c r="BL9">
         <v>75.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:64">
+      <c r="BN9">
+        <v>96.691299999999998</v>
+      </c>
+      <c r="BO9" s="1" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -4953,8 +5053,15 @@
       <c r="BL10">
         <v>72.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:64">
+      <c r="BN10">
+        <v>134.12780000000001</v>
+      </c>
+      <c r="BO10" s="1" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69">
       <c r="A11">
         <v>0.19489999999999999</v>
       </c>
@@ -4969,7 +5076,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:64">
+    <row r="12" spans="1:69">
       <c r="A12">
         <v>0.2918</v>
       </c>
@@ -4990,7 +5097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:64">
+    <row r="13" spans="1:69">
       <c r="A13">
         <v>0.5121</v>
       </c>
@@ -5040,8 +5147,9 @@
       <c r="BI13" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:64">
+      <c r="BN13" s="2"/>
+    </row>
+    <row r="14" spans="1:69">
       <c r="A14">
         <v>0.72060000000000002</v>
       </c>
@@ -5091,8 +5199,9 @@
       <c r="BI14" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:64">
+      <c r="BN14" s="2"/>
+    </row>
+    <row r="15" spans="1:69">
       <c r="A15">
         <v>0.88880000000000003</v>
       </c>
@@ -5142,8 +5251,9 @@
       <c r="BI15" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:64">
+      <c r="BN15" s="2"/>
+    </row>
+    <row r="16" spans="1:69">
       <c r="A16">
         <v>1.5598000000000001</v>
       </c>
@@ -5193,8 +5303,9 @@
       <c r="BI16" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:61">
+      <c r="BN16" s="2"/>
+    </row>
+    <row r="17" spans="1:66">
       <c r="A17">
         <v>2.0432000000000001</v>
       </c>
@@ -5244,8 +5355,9 @@
       <c r="BI17" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" spans="1:61">
+      <c r="BN17" s="2"/>
+    </row>
+    <row r="18" spans="1:66">
       <c r="A18">
         <v>2.8759999999999999</v>
       </c>
@@ -5295,8 +5407,9 @@
       <c r="BI18" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:61">
+      <c r="BN18" s="2"/>
+    </row>
+    <row r="19" spans="1:66">
       <c r="A19">
         <v>4.2931999999999997</v>
       </c>
@@ -5346,8 +5459,9 @@
       <c r="BI19" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:61">
+      <c r="BN19" s="2"/>
+    </row>
+    <row r="20" spans="1:66">
       <c r="A20">
         <v>5.0247999999999999</v>
       </c>
@@ -5397,8 +5511,9 @@
       <c r="BI20" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="1:61">
+      <c r="BN20" s="3"/>
+    </row>
+    <row r="21" spans="1:66">
       <c r="A21">
         <v>5.7519999999999998</v>
       </c>
@@ -5413,47 +5528,47 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="23" spans="1:61">
+    <row r="23" spans="1:66">
       <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:61">
+    <row r="24" spans="1:66">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:61">
+    <row r="25" spans="1:66">
       <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:61">
+    <row r="26" spans="1:66">
       <c r="A26" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:61">
+    <row r="27" spans="1:66">
       <c r="A27" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:61">
+    <row r="28" spans="1:66">
       <c r="A28" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:61">
+    <row r="29" spans="1:66">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:61">
+    <row r="30" spans="1:66">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:61">
+    <row r="31" spans="1:66">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>

--- a/H2_and_He.xlsx
+++ b/H2_and_He.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D693FE-334E-4381-B86A-44FB896F8201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365444F1-9821-4404-90F6-3B8F371C3DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="18795" windowWidth="14310" windowHeight="9180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3375,7 +3375,7 @@
   <dimension ref="A1:BQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BR9" sqref="BR9"/>
+      <selection activeCell="BQ10" sqref="BQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4876,11 +4876,17 @@
         <v>75.2</v>
       </c>
       <c r="BN9">
-        <v>96.691299999999998</v>
-      </c>
-      <c r="BO9" s="1" t="e">
+        <v>70.495599999999996</v>
+      </c>
+      <c r="BO9" s="1">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>3.90234375E-3</v>
+      </c>
+      <c r="BP9">
+        <v>1998</v>
+      </c>
+      <c r="BQ9">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:69">
@@ -5054,11 +5060,17 @@
         <v>72.2</v>
       </c>
       <c r="BN10">
-        <v>134.12780000000001</v>
-      </c>
-      <c r="BO10" s="1" t="e">
+        <v>87.815299999999993</v>
+      </c>
+      <c r="BO10" s="1">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>4.3035505323374317E-3</v>
+      </c>
+      <c r="BP10">
+        <v>2011</v>
+      </c>
+      <c r="BQ10">
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:69">

--- a/H2_and_He.xlsx
+++ b/H2_and_He.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365444F1-9821-4404-90F6-3B8F371C3DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AD7EA7-7C44-41A5-B6C6-F06B092A07A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="18795" windowWidth="14310" windowHeight="9180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="11385" windowWidth="14310" windowHeight="16290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="199">
   <si>
     <t>MPa</t>
   </si>
@@ -619,6 +619,45 @@
   <si>
     <t>423.15K (150 degree of Celsius)</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        y0      = 0.0059234 ± 0.000146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A1      = -0.0009539 ± 7.92e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau1    = 10.056 ± 0.705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A2      = -0.0048074 ± 7.51e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau2    = 79.935 ± 5.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  定数:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        X0      = 0.983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        y0      = 0.021338 ± 0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A1      = -0.010654 ± 26.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau1    = 143.43 ± 5.45e+04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A2      = -0.010503 ± 26.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau2    = 112.75 ± 2.89e+04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        X0      = 1.018</t>
   </si>
 </sst>
 </file>
@@ -987,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ32"/>
   <sheetViews>
-    <sheetView topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BN1" sqref="BN1:BP1"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BN22" sqref="BN22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2956,7 +2995,9 @@
       <c r="BI14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BN14" s="2"/>
+      <c r="BN14" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:69">
       <c r="A15">
@@ -3008,7 +3049,9 @@
       <c r="BI15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BN15" s="2"/>
+      <c r="BN15" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="16" spans="1:69">
       <c r="A16">
@@ -3060,7 +3103,9 @@
       <c r="BI16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN16" s="2"/>
+      <c r="BN16" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="17" spans="1:66">
       <c r="A17">
@@ -3112,7 +3157,9 @@
       <c r="BI17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BN17" s="2"/>
+      <c r="BN17" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="18" spans="1:66">
       <c r="A18">
@@ -3164,7 +3211,9 @@
       <c r="BI18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BN18" s="2"/>
+      <c r="BN18" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="19" spans="1:66">
       <c r="A19">
@@ -3216,7 +3265,9 @@
       <c r="BI19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="BN19" s="2"/>
+      <c r="BN19" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="20" spans="1:66">
       <c r="A20">
@@ -3268,7 +3319,9 @@
       <c r="BI20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BN20" s="2"/>
+      <c r="BN20" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="21" spans="1:66">
       <c r="F21" s="3" t="s">
@@ -3307,7 +3360,9 @@
       <c r="BI21" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BN21" s="3"/>
+      <c r="BN21" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="22" spans="1:66">
       <c r="A22" t="s">
@@ -3374,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C48D848-6634-4F6B-BFDC-8628502FF890}">
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BQ10" sqref="BQ10"/>
+    <sheetView topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BQ16" sqref="BQ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5159,7 +5214,9 @@
       <c r="BI13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BN13" s="2"/>
+      <c r="BN13" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:69">
       <c r="A14">
@@ -5211,7 +5268,9 @@
       <c r="BI14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BN14" s="2"/>
+      <c r="BN14" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="15" spans="1:69">
       <c r="A15">
@@ -5263,7 +5322,9 @@
       <c r="BI15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BN15" s="2"/>
+      <c r="BN15" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="16" spans="1:69">
       <c r="A16">
@@ -5315,7 +5376,9 @@
       <c r="BI16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BN16" s="2"/>
+      <c r="BN16" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="17" spans="1:66">
       <c r="A17">
@@ -5367,7 +5430,9 @@
       <c r="BI17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BN17" s="2"/>
+      <c r="BN17" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="18" spans="1:66">
       <c r="A18">
@@ -5419,7 +5484,9 @@
       <c r="BI18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="BN18" s="2"/>
+      <c r="BN18" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="19" spans="1:66">
       <c r="A19">
@@ -5471,7 +5538,9 @@
       <c r="BI19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BN19" s="2"/>
+      <c r="BN19" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="20" spans="1:66">
       <c r="A20">
@@ -5523,7 +5592,9 @@
       <c r="BI20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BN20" s="3"/>
+      <c r="BN20" s="3" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="21" spans="1:66">
       <c r="A21">

--- a/H2_and_He.xlsx
+++ b/H2_and_He.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AD7EA7-7C44-41A5-B6C6-F06B092A07A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFFD12E-1829-44E2-92C8-363887EF537C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="11385" windowWidth="14310" windowHeight="16290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="11730" windowWidth="16200" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="201">
   <si>
     <t>MPa</t>
   </si>
@@ -621,50 +621,101 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">  定数:</t>
+  </si>
+  <si>
     <t xml:space="preserve">        y0      = 0.0059234 ± 0.000146</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">        A1      = -0.0009539 ± 7.92e-05</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">        tau1    = 10.056 ± 0.705</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">        A2      = -0.0048074 ± 7.51e-05</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">        tau2    = 79.935 ± 5.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  定数:</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">        X0      = 0.983</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">        y0      = 0.021338 ± 0.14</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">        A1      = -0.010654 ± 26.8</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">        tau1    = 143.43 ± 5.45e+04</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">        A2      = -0.010503 ± 26.9</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">        tau2    = 112.75 ± 2.89e+04</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">        X0      = 1.018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>393.15K (120 degree of Celsius)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フィッティング係数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>標準偏差</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,6 +750,19 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1024,15 +1088,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ32"/>
+  <dimension ref="A1:BV32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BN22" sqref="BN22"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BO12" sqref="BO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:74">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -1079,10 +1143,13 @@
         <v>182</v>
       </c>
       <c r="BN1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BS1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:74">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,6 +1307,7 @@
       <c r="BL2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BM2" s="1"/>
       <c r="BN2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,8 +1320,20 @@
       <c r="BQ2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:69">
+      <c r="BS2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74">
       <c r="A3">
         <v>3.0999999999999999E-3</v>
       </c>
@@ -1424,20 +1504,33 @@
         <v>213.8</v>
       </c>
       <c r="BN3">
-        <v>1.018</v>
+        <v>1.0212000000000001</v>
       </c>
       <c r="BO3" s="1">
         <f>BP3/BQ3^3</f>
+        <v>1.8757256761833208E-4</v>
+      </c>
+      <c r="BP3">
+        <v>1997.2727</v>
+      </c>
+      <c r="BQ3">
+        <v>220</v>
+      </c>
+      <c r="BS3">
+        <v>1.018</v>
+      </c>
+      <c r="BT3" s="1">
+        <f>BU3/BV3^3</f>
         <v>1.7321364651941331E-4</v>
       </c>
-      <c r="BP3">
+      <c r="BU3">
         <v>2002.0908999999999</v>
       </c>
-      <c r="BQ3">
+      <c r="BV3">
         <v>226.1</v>
       </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:74">
       <c r="A4">
         <v>5.1999999999999998E-3</v>
       </c>
@@ -1608,20 +1701,33 @@
         <v>126.8</v>
       </c>
       <c r="BN4">
+        <v>5.0259</v>
+      </c>
+      <c r="BO4" s="1">
+        <f t="shared" ref="BO4:BO12" si="13">BP4/BQ4^3</f>
+        <v>8.9917241581789807E-4</v>
+      </c>
+      <c r="BP4">
+        <v>1998.3635999999999</v>
+      </c>
+      <c r="BQ4">
+        <v>130.5</v>
+      </c>
+      <c r="BS4">
         <v>4.9869000000000003</v>
       </c>
-      <c r="BO4" s="1">
-        <f t="shared" ref="BO4:BO11" si="13">BP4/BQ4^3</f>
+      <c r="BT4" s="1">
+        <f t="shared" ref="BT4:BT11" si="14">BU4/BV4^3</f>
         <v>8.3465747947719638E-4</v>
       </c>
-      <c r="BP4">
+      <c r="BU4">
         <v>2008.2727</v>
       </c>
-      <c r="BQ4">
+      <c r="BV4">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:74">
       <c r="A5">
         <v>7.1999999999999998E-3</v>
       </c>
@@ -1792,20 +1898,33 @@
         <v>102.7</v>
       </c>
       <c r="BN5">
-        <v>9.7721999999999998</v>
+        <v>9.7299000000000007</v>
       </c>
       <c r="BO5" s="1">
         <f t="shared" si="13"/>
+        <v>1.7241116013267735E-3</v>
+      </c>
+      <c r="BP5">
+        <v>1998.7273</v>
+      </c>
+      <c r="BQ5">
+        <v>105.05</v>
+      </c>
+      <c r="BS5">
+        <v>9.7721999999999998</v>
+      </c>
+      <c r="BT5" s="1">
+        <f t="shared" si="14"/>
         <v>1.5950960967825139E-3</v>
       </c>
-      <c r="BP5">
+      <c r="BU5">
         <v>2020.5454999999999</v>
       </c>
-      <c r="BQ5">
+      <c r="BV5">
         <v>108.2</v>
       </c>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:74">
       <c r="A6">
         <v>1.03E-2</v>
       </c>
@@ -1976,20 +2095,33 @@
         <v>90.8</v>
       </c>
       <c r="BN6">
-        <v>14.290800000000001</v>
+        <v>14.4437</v>
       </c>
       <c r="BO6" s="1">
         <f t="shared" si="13"/>
+        <v>2.485587457704436E-3</v>
+      </c>
+      <c r="BP6">
+        <v>2009.6364000000001</v>
+      </c>
+      <c r="BQ6">
+        <v>93.16</v>
+      </c>
+      <c r="BS6">
+        <v>14.290800000000001</v>
+      </c>
+      <c r="BT6" s="1">
+        <f t="shared" si="14"/>
         <v>2.3006375405055573E-3</v>
       </c>
-      <c r="BP6">
+      <c r="BU6">
         <v>2003.8181999999999</v>
       </c>
-      <c r="BQ6">
+      <c r="BV6">
         <v>95.5</v>
       </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:74">
       <c r="A7">
         <v>3.0800000000000001E-2</v>
       </c>
@@ -2160,20 +2292,33 @@
         <v>75.099999999999994</v>
       </c>
       <c r="BN7">
-        <v>26.801100000000002</v>
+        <v>26.611699999999999</v>
       </c>
       <c r="BO7" s="1">
         <f t="shared" si="13"/>
+        <v>4.3331249860822209E-3</v>
+      </c>
+      <c r="BP7">
+        <v>1997.5454999999999</v>
+      </c>
+      <c r="BQ7">
+        <v>77.25</v>
+      </c>
+      <c r="BS7">
+        <v>26.801100000000002</v>
+      </c>
+      <c r="BT7" s="1">
+        <f t="shared" si="14"/>
         <v>4.0907964829519821E-3</v>
       </c>
-      <c r="BP7">
+      <c r="BU7">
         <v>2009.2727</v>
       </c>
-      <c r="BQ7">
+      <c r="BV7">
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:74">
       <c r="A8">
         <v>5.0799999999999998E-2</v>
       </c>
@@ -2344,20 +2489,33 @@
         <v>61.5</v>
       </c>
       <c r="BN8">
-        <v>52.112499999999997</v>
+        <v>53.157200000000003</v>
       </c>
       <c r="BO8" s="1">
         <f t="shared" si="13"/>
+        <v>7.8471618438100792E-3</v>
+      </c>
+      <c r="BP8">
+        <v>2005.4545000000001</v>
+      </c>
+      <c r="BQ8">
+        <v>63.46</v>
+      </c>
+      <c r="BS8">
+        <v>52.112499999999997</v>
+      </c>
+      <c r="BT8" s="1">
+        <f t="shared" si="14"/>
         <v>7.1855962727904567E-3</v>
       </c>
-      <c r="BP8">
+      <c r="BU8">
         <v>2010</v>
       </c>
-      <c r="BQ8">
+      <c r="BV8">
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:74">
       <c r="A9">
         <v>7.2400000000000006E-2</v>
       </c>
@@ -2528,20 +2686,33 @@
         <v>58</v>
       </c>
       <c r="BN9">
-        <v>65.950500000000005</v>
+        <v>67.505300000000005</v>
       </c>
       <c r="BO9" s="1">
         <f t="shared" si="13"/>
+        <v>9.3186027777777767E-3</v>
+      </c>
+      <c r="BP9">
+        <v>2012.8181999999999</v>
+      </c>
+      <c r="BQ9">
+        <v>60</v>
+      </c>
+      <c r="BS9">
+        <v>65.950500000000005</v>
+      </c>
+      <c r="BT9" s="1">
+        <f t="shared" si="14"/>
         <v>8.6516854777907281E-3</v>
       </c>
-      <c r="BP9">
+      <c r="BU9">
         <v>2012.4545000000001</v>
       </c>
-      <c r="BQ9">
+      <c r="BV9">
         <v>61.5</v>
       </c>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:74">
       <c r="A10">
         <v>0.1036</v>
       </c>
@@ -2712,20 +2883,33 @@
         <v>54.9</v>
       </c>
       <c r="BN10">
-        <v>82.488</v>
+        <v>82.535600000000002</v>
       </c>
       <c r="BO10" s="1">
         <f t="shared" si="13"/>
+        <v>1.0730421863259869E-2</v>
+      </c>
+      <c r="BP10">
+        <v>2003.4545000000001</v>
+      </c>
+      <c r="BQ10">
+        <v>57.155000000000001</v>
+      </c>
+      <c r="BS10">
+        <v>82.488</v>
+      </c>
+      <c r="BT10" s="1">
+        <f t="shared" si="14"/>
         <v>1.0211127723196848E-2</v>
       </c>
-      <c r="BP10">
+      <c r="BU10">
         <v>2002.6364000000001</v>
       </c>
-      <c r="BQ10">
+      <c r="BV10">
         <v>58.1</v>
       </c>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:74">
       <c r="A11">
         <v>0.2069</v>
       </c>
@@ -2896,20 +3080,33 @@
         <v>52</v>
       </c>
       <c r="BN11">
-        <v>96.887500000000003</v>
+        <v>93.223200000000006</v>
       </c>
       <c r="BO11" s="1">
         <f t="shared" si="13"/>
+        <v>1.1702725613787913E-2</v>
+      </c>
+      <c r="BP11">
+        <v>2012.5454999999999</v>
+      </c>
+      <c r="BQ11">
+        <v>55.61</v>
+      </c>
+      <c r="BS11">
+        <v>96.887500000000003</v>
+      </c>
+      <c r="BT11" s="1">
+        <f t="shared" si="14"/>
         <v>1.1396766239978134E-2</v>
       </c>
-      <c r="BP11">
+      <c r="BU11">
         <v>2001.4545000000001</v>
       </c>
-      <c r="BQ11">
+      <c r="BV11">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:74">
       <c r="A12">
         <v>0.30580000000000002</v>
       </c>
@@ -2923,8 +3120,9 @@
       <c r="D12">
         <v>190</v>
       </c>
-    </row>
-    <row r="13" spans="1:69">
+      <c r="BO12" s="1"/>
+    </row>
+    <row r="13" spans="1:74">
       <c r="A13">
         <v>0.51980000000000004</v>
       </c>
@@ -2945,7 +3143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:69">
+    <row r="14" spans="1:74">
       <c r="A14">
         <v>0.72519999999999996</v>
       </c>
@@ -2996,10 +3194,13 @@
         <v>4</v>
       </c>
       <c r="BN14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BS14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:69">
+    <row r="15" spans="1:74">
       <c r="A15">
         <v>1.054</v>
       </c>
@@ -3049,11 +3250,12 @@
       <c r="BI15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BN15" s="2" t="s">
+      <c r="BN15" s="2"/>
+      <c r="BS15" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:69">
+    <row r="16" spans="1:74">
       <c r="A16">
         <v>2.1093000000000002</v>
       </c>
@@ -3103,11 +3305,12 @@
       <c r="BI16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN16" s="2" t="s">
+      <c r="BN16" s="2"/>
+      <c r="BS16" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:66">
+    <row r="17" spans="1:71">
       <c r="A17">
         <v>3.3711000000000002</v>
       </c>
@@ -3157,11 +3360,12 @@
       <c r="BI17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BN17" s="2" t="s">
+      <c r="BN17" s="2"/>
+      <c r="BS17" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:66">
+    <row r="18" spans="1:71">
       <c r="A18">
         <v>4.4962999999999997</v>
       </c>
@@ -3211,11 +3415,12 @@
       <c r="BI18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BN18" s="2" t="s">
+      <c r="BN18" s="2"/>
+      <c r="BS18" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:66">
+    <row r="19" spans="1:71">
       <c r="A19">
         <v>5.2613000000000003</v>
       </c>
@@ -3265,11 +3470,12 @@
       <c r="BI19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="BN19" s="2" t="s">
+      <c r="BN19" s="2"/>
+      <c r="BS19" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:66">
+    <row r="20" spans="1:71">
       <c r="A20">
         <v>6.2336999999999998</v>
       </c>
@@ -3319,11 +3525,12 @@
       <c r="BI20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BN20" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:66">
+      <c r="BN20" s="2"/>
+      <c r="BS20" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:71">
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
@@ -3360,61 +3567,62 @@
       <c r="BI21" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BN21" s="3" t="s">
+      <c r="BN21" s="3"/>
+      <c r="BS21" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:66">
+    <row r="22" spans="1:71">
       <c r="A22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:66">
+    <row r="23" spans="1:71">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:66">
+    <row r="24" spans="1:71">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:66">
+    <row r="25" spans="1:71">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:66">
+    <row r="26" spans="1:71">
       <c r="A26" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:66">
+    <row r="27" spans="1:71">
       <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:66">
+    <row r="28" spans="1:71">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:66">
+    <row r="29" spans="1:71">
       <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:66">
+    <row r="30" spans="1:71">
       <c r="A30" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:66">
+    <row r="31" spans="1:71">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:66">
+    <row r="32" spans="1:71">
       <c r="A32" s="3" t="s">
         <v>90</v>
       </c>
@@ -3427,15 +3635,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C48D848-6634-4F6B-BFDC-8628502FF890}">
-  <dimension ref="A1:BQ31"/>
+  <dimension ref="A1:BV31"/>
   <sheetViews>
     <sheetView topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BQ16" sqref="BQ16"/>
+      <selection activeCell="BN12" sqref="BN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:74">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -3482,10 +3690,13 @@
         <v>182</v>
       </c>
       <c r="BN1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BS1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:74">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3643,6 +3854,7 @@
       <c r="BL2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BM2" s="1"/>
       <c r="BN2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3655,8 +3867,20 @@
       <c r="BQ2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:69">
+      <c r="BS2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74">
       <c r="A3">
         <v>3.0999999999999999E-3</v>
       </c>
@@ -3829,18 +4053,25 @@
       <c r="BN3">
         <v>0.98299999999999998</v>
       </c>
-      <c r="BO3" s="1">
+      <c r="BO3" s="1" t="e">
         <f>BP3/BQ3^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="BT3" s="1">
+        <f>BU3/BV3^3</f>
         <v>1.6142427027811103E-4</v>
       </c>
-      <c r="BP3">
+      <c r="BU3">
         <v>2002.7273</v>
       </c>
-      <c r="BQ3">
+      <c r="BV3">
         <v>231.5</v>
       </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:74">
       <c r="A4">
         <v>5.1000000000000004E-3</v>
       </c>
@@ -4013,18 +4244,25 @@
       <c r="BN4">
         <v>4.3087999999999997</v>
       </c>
-      <c r="BO4" s="1">
-        <f t="shared" ref="BO4:BO10" si="13">BP4/BQ4^3</f>
+      <c r="BO4" s="1" t="e">
+        <f t="shared" ref="BO4" si="13">BP4/BQ4^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS4">
+        <v>4.3087999999999997</v>
+      </c>
+      <c r="BT4" s="1">
+        <f t="shared" ref="BT4:BT10" si="14">BU4/BV4^3</f>
         <v>6.2581703502642509E-4</v>
       </c>
-      <c r="BP4">
+      <c r="BU4">
         <v>2012.3635999999999</v>
       </c>
-      <c r="BQ4">
+      <c r="BV4">
         <v>147.6</v>
       </c>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:74">
       <c r="A5">
         <v>7.1999999999999998E-3</v>
       </c>
@@ -4197,18 +4435,25 @@
       <c r="BN5">
         <v>7.1459000000000001</v>
       </c>
-      <c r="BO5" s="1">
+      <c r="BO5" s="1" t="e">
         <f>BP5/BQ5^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS5">
+        <v>7.1459000000000001</v>
+      </c>
+      <c r="BT5" s="1">
+        <f>BU5/BV5^3</f>
         <v>9.5915304434053301E-4</v>
       </c>
-      <c r="BP5">
+      <c r="BU5">
         <v>2039.9091000000001</v>
       </c>
-      <c r="BQ5">
+      <c r="BV5">
         <v>128.6</v>
       </c>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:74">
       <c r="A6">
         <v>1.03E-2</v>
       </c>
@@ -4381,18 +4626,25 @@
       <c r="BN6">
         <v>21.342700000000001</v>
       </c>
-      <c r="BO6" s="1">
+      <c r="BO6" s="1" t="e">
         <f>BP6/BQ6^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS6">
+        <v>21.342700000000001</v>
+      </c>
+      <c r="BT6" s="1">
+        <f>BU6/BV6^3</f>
         <v>2.0661958074774172E-3</v>
       </c>
-      <c r="BP6">
+      <c r="BU6">
         <v>2010.9091000000001</v>
       </c>
-      <c r="BQ6">
+      <c r="BV6">
         <v>99.1</v>
       </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:74">
       <c r="A7">
         <v>3.0499999999999999E-2</v>
       </c>
@@ -4565,18 +4817,25 @@
       <c r="BN7">
         <v>42.269100000000002</v>
       </c>
-      <c r="BO7" s="1">
+      <c r="BO7" s="1" t="e">
         <f>BP7/BQ7^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS7">
+        <v>42.269100000000002</v>
+      </c>
+      <c r="BT7" s="1">
+        <f>BU7/BV7^3</f>
         <v>3.0458664551005678E-3</v>
       </c>
-      <c r="BP7">
+      <c r="BU7">
         <v>2012.6364000000001</v>
       </c>
-      <c r="BQ7">
+      <c r="BV7">
         <v>87.1</v>
       </c>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:74">
       <c r="A8">
         <v>5.0799999999999998E-2</v>
       </c>
@@ -4749,18 +5008,25 @@
       <c r="BN8">
         <v>60.849899999999998</v>
       </c>
-      <c r="BO8" s="1">
-        <f t="shared" si="13"/>
+      <c r="BO8" s="1" t="e">
+        <f t="shared" ref="BO8:BO10" si="15">BP8/BQ8^3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS8">
+        <v>60.849899999999998</v>
+      </c>
+      <c r="BT8" s="1">
+        <f t="shared" si="14"/>
         <v>3.6469425000980995E-3</v>
       </c>
-      <c r="BP8">
+      <c r="BU8">
         <v>1988.8181999999999</v>
       </c>
-      <c r="BQ8">
+      <c r="BV8">
         <v>81.7</v>
       </c>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:74">
       <c r="A9">
         <v>7.1499999999999994E-2</v>
       </c>
@@ -4933,18 +5199,25 @@
       <c r="BN9">
         <v>70.495599999999996</v>
       </c>
-      <c r="BO9" s="1">
-        <f t="shared" si="13"/>
+      <c r="BO9" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS9">
+        <v>70.495599999999996</v>
+      </c>
+      <c r="BT9" s="1">
+        <f t="shared" si="14"/>
         <v>3.90234375E-3</v>
       </c>
-      <c r="BP9">
+      <c r="BU9">
         <v>1998</v>
       </c>
-      <c r="BQ9">
+      <c r="BV9">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:74">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -5117,18 +5390,25 @@
       <c r="BN10">
         <v>87.815299999999993</v>
       </c>
-      <c r="BO10" s="1">
-        <f t="shared" si="13"/>
+      <c r="BO10" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS10">
+        <v>87.815299999999993</v>
+      </c>
+      <c r="BT10" s="1">
+        <f t="shared" si="14"/>
         <v>4.3035505323374317E-3</v>
       </c>
-      <c r="BP10">
+      <c r="BU10">
         <v>2011</v>
       </c>
-      <c r="BQ10">
+      <c r="BV10">
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:74">
       <c r="A11">
         <v>0.19489999999999999</v>
       </c>
@@ -5143,7 +5423,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:74">
       <c r="A12">
         <v>0.2918</v>
       </c>
@@ -5164,7 +5444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:69">
+    <row r="13" spans="1:74">
       <c r="A13">
         <v>0.5121</v>
       </c>
@@ -5214,11 +5494,12 @@
       <c r="BI13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BN13" s="2" t="s">
+      <c r="BN13" s="2"/>
+      <c r="BS13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:69">
+    <row r="14" spans="1:74">
       <c r="A14">
         <v>0.72060000000000002</v>
       </c>
@@ -5268,11 +5549,12 @@
       <c r="BI14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BN14" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:69">
+      <c r="BN14" s="2"/>
+      <c r="BS14" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:74">
       <c r="A15">
         <v>0.88880000000000003</v>
       </c>
@@ -5322,11 +5604,12 @@
       <c r="BI15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BN15" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:69">
+      <c r="BN15" s="2"/>
+      <c r="BS15" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:74">
       <c r="A16">
         <v>1.5598000000000001</v>
       </c>
@@ -5376,11 +5659,12 @@
       <c r="BI16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BN16" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:66">
+      <c r="BN16" s="2"/>
+      <c r="BS16" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:71">
       <c r="A17">
         <v>2.0432000000000001</v>
       </c>
@@ -5430,11 +5714,12 @@
       <c r="BI17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BN17" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:66">
+      <c r="BN17" s="2"/>
+      <c r="BS17" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:71">
       <c r="A18">
         <v>2.8759999999999999</v>
       </c>
@@ -5484,11 +5769,12 @@
       <c r="BI18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="BN18" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:66">
+      <c r="BN18" s="2"/>
+      <c r="BS18" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:71">
       <c r="A19">
         <v>4.2931999999999997</v>
       </c>
@@ -5538,11 +5824,12 @@
       <c r="BI19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BN19" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:66">
+      <c r="BN19" s="2"/>
+      <c r="BS19" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:71">
       <c r="A20">
         <v>5.0247999999999999</v>
       </c>
@@ -5592,11 +5879,12 @@
       <c r="BI20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BN20" s="3" t="s">
+      <c r="BN20" s="3"/>
+      <c r="BS20" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:66">
+    <row r="21" spans="1:71">
       <c r="A21">
         <v>5.7519999999999998</v>
       </c>
@@ -5611,47 +5899,47 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="23" spans="1:66">
+    <row r="23" spans="1:71">
       <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:66">
+    <row r="24" spans="1:71">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:66">
+    <row r="25" spans="1:71">
       <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:66">
+    <row r="26" spans="1:71">
       <c r="A26" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:66">
+    <row r="27" spans="1:71">
       <c r="A27" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:66">
+    <row r="28" spans="1:71">
       <c r="A28" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:66">
+    <row r="29" spans="1:71">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:66">
+    <row r="30" spans="1:71">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:66">
+    <row r="31" spans="1:71">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>

--- a/H2_and_He.xlsx
+++ b/H2_and_He.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lammps_education_gcmc_win-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFFD12E-1829-44E2-92C8-363887EF537C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB23997-38D5-4E5F-88B4-B27A413C8621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="11730" windowWidth="16200" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="1245" windowWidth="16200" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="212">
   <si>
     <t>MPa</t>
   </si>
@@ -676,46 +676,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>フィッティング係数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ± </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>標準偏差</t>
-    </r>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">        y0      = 0.0059477 ± 9.1e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A1      = -0.0010493 ± 5.28e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau1    = 10.268 ± 0.423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A2      = -0.0047242 ± 4.46e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau2    = 77.761 ± 3.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        X0      = 0.9779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        y0      = 0.020329 ± 0.00804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A1      = -0.010157 ± 861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau1    = 109.9 ± 2.77e+04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        A2      = -0.0099945 ± 861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tau2    = 109.63 ± 2.79e+04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        X0      = 1.0212</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,19 +751,6 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1091,7 +1079,7 @@
   <dimension ref="A1:BV32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="BO12" sqref="BO12"/>
+      <selection activeCell="BP12" sqref="BP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1704,7 +1692,7 @@
         <v>5.0259</v>
       </c>
       <c r="BO4" s="1">
-        <f t="shared" ref="BO4:BO12" si="13">BP4/BQ4^3</f>
+        <f t="shared" ref="BO4:BO11" si="13">BP4/BQ4^3</f>
         <v>8.9917241581789807E-4</v>
       </c>
       <c r="BP4">
@@ -3194,7 +3182,7 @@
         <v>4</v>
       </c>
       <c r="BN14" s="2" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="BS14" s="2" t="s">
         <v>4</v>
@@ -3250,7 +3238,9 @@
       <c r="BI15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BN15" s="2"/>
+      <c r="BN15" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="BS15" s="2" t="s">
         <v>193</v>
       </c>
@@ -3305,7 +3295,9 @@
       <c r="BI16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BN16" s="2"/>
+      <c r="BN16" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="BS16" s="2" t="s">
         <v>194</v>
       </c>
@@ -3360,7 +3352,9 @@
       <c r="BI17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BN17" s="2"/>
+      <c r="BN17" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="BS17" s="2" t="s">
         <v>195</v>
       </c>
@@ -3415,7 +3409,9 @@
       <c r="BI18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BN18" s="2"/>
+      <c r="BN18" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="BS18" s="2" t="s">
         <v>196</v>
       </c>
@@ -3470,7 +3466,9 @@
       <c r="BI19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="BN19" s="2"/>
+      <c r="BN19" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="BS19" s="2" t="s">
         <v>197</v>
       </c>
@@ -3525,7 +3523,9 @@
       <c r="BI20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BN20" s="2"/>
+      <c r="BN20" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="BS20" s="2" t="s">
         <v>186</v>
       </c>
@@ -3567,7 +3567,9 @@
       <c r="BI21" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BN21" s="3"/>
+      <c r="BN21" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="BS21" s="3" t="s">
         <v>198</v>
       </c>
@@ -3638,7 +3640,7 @@
   <dimension ref="A1:BV31"/>
   <sheetViews>
     <sheetView topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BN12" sqref="BN12"/>
+      <selection activeCell="BN21" sqref="BN21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4051,11 +4053,17 @@
         <v>220</v>
       </c>
       <c r="BN3">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="BO3" s="1" t="e">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="BO3" s="1">
         <f>BP3/BQ3^3</f>
-        <v>#DIV/0!</v>
+        <v>1.7329403969929937E-4</v>
+      </c>
+      <c r="BP3">
+        <v>2000.3635999999999</v>
+      </c>
+      <c r="BQ3">
+        <v>226</v>
       </c>
       <c r="BS3">
         <v>0.98299999999999998</v>
@@ -4242,11 +4250,17 @@
         <v>141.80000000000001</v>
       </c>
       <c r="BN4">
-        <v>4.3087999999999997</v>
-      </c>
-      <c r="BO4" s="1" t="e">
+        <v>4.2720000000000002</v>
+      </c>
+      <c r="BO4" s="1">
         <f t="shared" ref="BO4" si="13">BP4/BQ4^3</f>
-        <v>#DIV/0!</v>
+        <v>6.5991002501127559E-4</v>
+      </c>
+      <c r="BP4">
+        <v>2011.8181999999999</v>
+      </c>
+      <c r="BQ4">
+        <v>145</v>
       </c>
       <c r="BS4">
         <v>4.3087999999999997</v>
@@ -4433,11 +4447,17 @@
         <v>123</v>
       </c>
       <c r="BN5">
-        <v>7.1459000000000001</v>
-      </c>
-      <c r="BO5" s="1" t="e">
+        <v>7.5094000000000003</v>
+      </c>
+      <c r="BO5" s="1">
         <f>BP5/BQ5^3</f>
-        <v>#DIV/0!</v>
+        <v>1.0487714539200062E-3</v>
+      </c>
+      <c r="BP5">
+        <v>2004.4545000000001</v>
+      </c>
+      <c r="BQ5">
+        <v>124.1</v>
       </c>
       <c r="BS5">
         <v>7.1459000000000001</v>
@@ -4624,11 +4644,17 @@
         <v>96.6</v>
       </c>
       <c r="BN6">
-        <v>21.342700000000001</v>
-      </c>
-      <c r="BO6" s="1" t="e">
+        <v>20.9207</v>
+      </c>
+      <c r="BO6" s="1">
         <f>BP6/BQ6^3</f>
-        <v>#DIV/0!</v>
+        <v>2.1394837131125835E-3</v>
+      </c>
+      <c r="BP6">
+        <v>2003.8181999999999</v>
+      </c>
+      <c r="BQ6">
+        <v>97.84</v>
       </c>
       <c r="BS6">
         <v>21.342700000000001</v>
@@ -4815,11 +4841,17 @@
         <v>85.9</v>
       </c>
       <c r="BN7">
-        <v>42.269100000000002</v>
-      </c>
-      <c r="BO7" s="1" t="e">
+        <v>40.2151</v>
+      </c>
+      <c r="BO7" s="1">
         <f>BP7/BQ7^3</f>
-        <v>#DIV/0!</v>
+        <v>3.0756110377515348E-3</v>
+      </c>
+      <c r="BP7">
+        <v>2011.3635999999999</v>
+      </c>
+      <c r="BQ7">
+        <v>86.8</v>
       </c>
       <c r="BS7">
         <v>42.269100000000002</v>
@@ -5006,11 +5038,17 @@
         <v>79.3</v>
       </c>
       <c r="BN8">
-        <v>60.849899999999998</v>
-      </c>
-      <c r="BO8" s="1" t="e">
+        <v>62.015700000000002</v>
+      </c>
+      <c r="BO8" s="1">
         <f t="shared" ref="BO8:BO10" si="15">BP8/BQ8^3</f>
-        <v>#DIV/0!</v>
+        <v>3.7917490370520902E-3</v>
+      </c>
+      <c r="BP8">
+        <v>2015.0908999999999</v>
+      </c>
+      <c r="BQ8">
+        <v>81</v>
       </c>
       <c r="BS8">
         <v>60.849899999999998</v>
@@ -5197,11 +5235,17 @@
         <v>75.2</v>
       </c>
       <c r="BN9">
-        <v>70.495599999999996</v>
-      </c>
-      <c r="BO9" s="1" t="e">
+        <v>65.759699999999995</v>
+      </c>
+      <c r="BO9" s="1">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>3.8878492275601375E-3</v>
+      </c>
+      <c r="BP9">
+        <v>2005.5454999999999</v>
+      </c>
+      <c r="BQ9">
+        <v>80.2</v>
       </c>
       <c r="BS9">
         <v>70.495599999999996</v>
@@ -5388,11 +5432,17 @@
         <v>72.2</v>
       </c>
       <c r="BN10">
-        <v>87.815299999999993</v>
-      </c>
-      <c r="BO10" s="1" t="e">
+        <v>86.2744</v>
+      </c>
+      <c r="BO10" s="1">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>4.3712861939881678E-3</v>
+      </c>
+      <c r="BP10">
+        <v>1995.6364000000001</v>
+      </c>
+      <c r="BQ10">
+        <v>77</v>
       </c>
       <c r="BS10">
         <v>87.815299999999993</v>
@@ -5422,6 +5472,7 @@
       <c r="D11">
         <v>225</v>
       </c>
+      <c r="BO11" s="1"/>
     </row>
     <row r="12" spans="1:74">
       <c r="A12">
@@ -5494,7 +5545,9 @@
       <c r="BI13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BN13" s="2"/>
+      <c r="BN13" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="BS13" s="2" t="s">
         <v>4</v>
       </c>
@@ -5549,7 +5602,9 @@
       <c r="BI14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BN14" s="2"/>
+      <c r="BN14" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="BS14" s="2" t="s">
         <v>187</v>
       </c>
@@ -5604,7 +5659,9 @@
       <c r="BI15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BN15" s="2"/>
+      <c r="BN15" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="BS15" s="2" t="s">
         <v>188</v>
       </c>
@@ -5659,7 +5716,9 @@
       <c r="BI16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BN16" s="2"/>
+      <c r="BN16" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="BS16" s="2" t="s">
         <v>189</v>
       </c>
@@ -5714,7 +5773,9 @@
       <c r="BI17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BN17" s="2"/>
+      <c r="BN17" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="BS17" s="2" t="s">
         <v>190</v>
       </c>
@@ -5769,7 +5830,9 @@
       <c r="BI18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="BN18" s="2"/>
+      <c r="BN18" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="BS18" s="2" t="s">
         <v>191</v>
       </c>
@@ -5824,7 +5887,9 @@
       <c r="BI19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BN19" s="2"/>
+      <c r="BN19" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="BS19" s="2" t="s">
         <v>186</v>
       </c>
@@ -5879,7 +5944,9 @@
       <c r="BI20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BN20" s="3"/>
+      <c r="BN20" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="BS20" s="3" t="s">
         <v>192</v>
       </c>
